--- a/Documentation/böhmermannliste Kopie.xlsx
+++ b/Documentation/böhmermannliste Kopie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982804CB-FDB0-504B-A519-EA0F9BC44D40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4A9D4-0931-584B-99E7-D145382ABC5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="27840" windowHeight="16600" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
+    <workbookView xWindow="2340" yWindow="1900" windowWidth="27840" windowHeight="16600" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22843,8 +22843,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1153" workbookViewId="0">
-      <selection activeCell="K1031" sqref="K1031:K1185"/>
+    <sheetView tabSelected="1" topLeftCell="F1013" workbookViewId="0">
+      <selection activeCell="M1025" sqref="M1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documentation/böhmermannliste Kopie.xlsx
+++ b/Documentation/böhmermannliste Kopie.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4A9D4-0931-584B-99E7-D145382ABC5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A0AF8-FBC2-E24C-8792-8C571502972E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1900" windowWidth="27840" windowHeight="16600" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
+    <workbookView xWindow="960" yWindow="1400" windowWidth="27840" windowHeight="16600" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4181" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4335" uniqueCount="2794">
   <si>
     <r>
       <t>Patriot</t>
@@ -22509,7 +22508,17 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -22843,8 +22852,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1013" workbookViewId="0">
-      <selection activeCell="M1025" sqref="M1025"/>
+    <sheetView tabSelected="1" topLeftCell="M995" workbookViewId="0">
+      <selection activeCell="Y1020" sqref="Y1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35668,6 +35677,9 @@
       <c r="K1016" s="8" t="s">
         <v>2546</v>
       </c>
+      <c r="V1016" s="8" t="s">
+        <v>2561</v>
+      </c>
     </row>
     <row r="1017" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1017" s="2" t="s">
@@ -35676,6 +35688,9 @@
       <c r="K1017" s="8" t="s">
         <v>2547</v>
       </c>
+      <c r="V1017" s="8" t="s">
+        <v>2562</v>
+      </c>
     </row>
     <row r="1018" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1018" s="2" t="s">
@@ -35684,6 +35699,9 @@
       <c r="K1018" s="8" t="s">
         <v>2548</v>
       </c>
+      <c r="V1018" s="8" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="1019" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1019" s="2" t="s">
@@ -35692,6 +35710,9 @@
       <c r="K1019" s="8" t="s">
         <v>2549</v>
       </c>
+      <c r="V1019" s="8" t="s">
+        <v>2565</v>
+      </c>
     </row>
     <row r="1020" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1020" s="2" t="s">
@@ -35700,6 +35721,9 @@
       <c r="K1020" s="8" t="s">
         <v>2550</v>
       </c>
+      <c r="V1020" s="8" t="s">
+        <v>2566</v>
+      </c>
     </row>
     <row r="1021" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1021" s="2" t="s">
@@ -35708,6 +35732,9 @@
       <c r="K1021" s="8" t="s">
         <v>2551</v>
       </c>
+      <c r="V1021" s="8" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="1022" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1022" s="2" t="s">
@@ -35716,6 +35743,9 @@
       <c r="K1022" s="8" t="s">
         <v>2552</v>
       </c>
+      <c r="V1022" s="8" t="s">
+        <v>2568</v>
+      </c>
     </row>
     <row r="1023" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1023" s="2" t="s">
@@ -35724,6 +35754,9 @@
       <c r="K1023" s="8" t="s">
         <v>2553</v>
       </c>
+      <c r="V1023" s="8" t="s">
+        <v>2569</v>
+      </c>
     </row>
     <row r="1024" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1024" s="2" t="s">
@@ -35732,1168 +35765,1606 @@
       <c r="K1024" s="8" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1024" s="8" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1025" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="K1025" s="8" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1025" s="8" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1026" s="2" t="s">
         <v>1120</v>
       </c>
       <c r="K1026" s="8" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1026" s="8" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1027" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="K1027" s="8" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1027" s="8" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1028" s="2" t="s">
         <v>1122</v>
       </c>
       <c r="K1028" s="8" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1028" s="8" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1029" s="2" t="s">
         <v>1123</v>
       </c>
       <c r="K1029" s="8" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1029" s="8" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1030" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="K1030" s="9" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1030" s="8" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1031" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="K1031" s="8" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1031" s="8" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1032" s="2" t="s">
         <v>1126</v>
       </c>
       <c r="K1032" s="8" t="s">
         <v>2562</v>
       </c>
-    </row>
-    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1032" s="8" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1033" s="2" t="s">
         <v>1127</v>
       </c>
       <c r="K1033" s="8" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1033" s="8" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1034" s="2" t="s">
         <v>1128</v>
       </c>
       <c r="K1034" s="8" t="s">
         <v>2564</v>
       </c>
-    </row>
-    <row r="1035" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="V1034" s="8" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:22" ht="20" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="K1035" s="8" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1035" s="8" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1036" s="2" t="s">
         <v>1130</v>
       </c>
       <c r="K1036" s="8" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1036" s="8" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1037" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="K1037" s="8" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1037" s="8" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1038" s="2" t="s">
         <v>1132</v>
       </c>
       <c r="K1038" s="8" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1038" s="8" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1039" s="2" t="s">
         <v>1133</v>
       </c>
       <c r="K1039" s="8" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1039" s="8" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1040" s="2" t="s">
         <v>1134</v>
       </c>
       <c r="K1040" s="8" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1040" s="8" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1041" s="2" t="s">
         <v>1135</v>
       </c>
       <c r="K1041" s="8" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1041" s="8" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1042" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="K1042" s="8" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1042" s="8" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1043" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="K1043" s="8" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1043" s="8" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1044" s="2" t="s">
         <v>1138</v>
       </c>
       <c r="K1044" s="8" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1044" s="8" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1045" s="2" t="s">
         <v>1139</v>
       </c>
       <c r="K1045" s="8" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="1046" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="V1045" s="8" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:22" ht="20" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="K1046" s="8" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1046" s="8" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1047" s="2" t="s">
         <v>1141</v>
       </c>
       <c r="K1047" s="8" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1047" s="8" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1048" s="2" t="s">
         <v>1142</v>
       </c>
       <c r="K1048" s="8" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1048" s="8" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1049" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="K1049" s="8" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1049" s="8" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1050" s="2" t="s">
         <v>1144</v>
       </c>
       <c r="K1050" s="8" t="s">
         <v>2580</v>
       </c>
-    </row>
-    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1050" s="8" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1051" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="K1051" s="8" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1051" s="8" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1052" s="2" t="s">
         <v>1146</v>
       </c>
       <c r="K1052" s="8" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1052" s="8" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1053" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="K1053" s="8" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1053" s="8" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1054" s="2" t="s">
         <v>1148</v>
       </c>
       <c r="K1054" s="8" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1054" s="8" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1055" s="2" t="s">
         <v>1149</v>
       </c>
       <c r="K1055" s="8" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1055" s="8" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1056" s="2" t="s">
         <v>1150</v>
       </c>
       <c r="K1056" s="8" t="s">
         <v>2586</v>
       </c>
-    </row>
-    <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1056" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1057" s="2" t="s">
         <v>1151</v>
       </c>
       <c r="K1057" s="8" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1057" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1058" s="2" t="s">
         <v>1152</v>
       </c>
       <c r="K1058" s="8" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1058" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1059" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="K1059" s="8" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1059" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1060" s="2" t="s">
         <v>1154</v>
       </c>
       <c r="K1060" s="8" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1060" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1061" s="2" t="s">
         <v>1155</v>
       </c>
       <c r="K1061" s="8" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1061" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1062" s="2" t="s">
         <v>1156</v>
       </c>
       <c r="K1062" s="8" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1062" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1063" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="K1063" s="8" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1063" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1064" s="2" t="s">
         <v>1158</v>
       </c>
       <c r="K1064" s="8" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1064" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1065" s="2" t="s">
         <v>1159</v>
       </c>
       <c r="K1065" s="8" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1065" s="8" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1066" s="2" t="s">
         <v>1160</v>
       </c>
       <c r="K1066" s="8" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1066" s="8" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1067" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="K1067" s="8" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1067" s="8" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1068" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="K1068" s="8" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1068" s="8" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1069" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="K1069" s="8" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1069" s="8" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1070" s="2" t="s">
         <v>1164</v>
       </c>
       <c r="K1070" s="8" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1070" s="8" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1071" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="K1071" s="8" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1071" s="8" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1072" s="2" t="s">
         <v>1166</v>
       </c>
       <c r="K1072" s="8" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1072" s="8" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1073" s="2" t="s">
         <v>1167</v>
       </c>
       <c r="K1073" s="8" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1073" s="8" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1074" s="2" t="s">
         <v>1168</v>
       </c>
       <c r="K1074" s="8" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1074" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1075" s="2" t="s">
         <v>1169</v>
       </c>
       <c r="K1075" s="8" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1075" s="8" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1076" s="2" t="s">
         <v>1170</v>
       </c>
       <c r="K1076" s="8" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1076" s="8" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1077" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="K1077" s="8" t="s">
         <v>2607</v>
       </c>
-    </row>
-    <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1077" s="8" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1078" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="K1078" s="8" t="s">
         <v>2608</v>
       </c>
-    </row>
-    <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1078" s="8" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1079" s="2" t="s">
         <v>1173</v>
       </c>
       <c r="K1079" s="8" t="s">
         <v>2609</v>
       </c>
-    </row>
-    <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1079" s="8" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1080" s="2" t="s">
         <v>1174</v>
       </c>
       <c r="K1080" s="8" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1080" s="8" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1081" s="2" t="s">
         <v>1175</v>
       </c>
       <c r="K1081" s="8" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1081" s="8" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1082" s="2" t="s">
         <v>1176</v>
       </c>
       <c r="K1082" s="8" t="s">
         <v>2612</v>
       </c>
-    </row>
-    <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1082" s="8" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1083" s="2" t="s">
         <v>1177</v>
       </c>
       <c r="K1083" s="8" t="s">
         <v>2613</v>
       </c>
-    </row>
-    <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1083" s="8" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1084" s="2" t="s">
         <v>1178</v>
       </c>
       <c r="K1084" s="8" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1084" s="8" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1085" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="K1085" s="8" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1085" s="8" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1086" s="2" t="s">
         <v>1180</v>
       </c>
       <c r="K1086" s="8" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1086" s="8" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1087" s="2" t="s">
         <v>1181</v>
       </c>
       <c r="K1087" s="8" t="s">
         <v>2617</v>
       </c>
-    </row>
-    <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1087" s="8" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1088" s="2" t="s">
         <v>1182</v>
       </c>
       <c r="K1088" s="8" t="s">
         <v>2618</v>
       </c>
-    </row>
-    <row r="1089" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1088" s="8" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1089" s="2" t="s">
         <v>1183</v>
       </c>
       <c r="K1089" s="8" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="1090" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1089" s="8" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1090" s="2" t="s">
         <v>1184</v>
       </c>
       <c r="K1090" s="8" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="1091" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1090" s="8" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1091" s="2" t="s">
         <v>1185</v>
       </c>
       <c r="K1091" s="8" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="1092" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1091" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1092" s="2" t="s">
         <v>1186</v>
       </c>
       <c r="K1092" s="8" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1092" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1093" s="2" t="s">
         <v>1187</v>
       </c>
       <c r="K1093" s="8" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1093" s="8" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1094" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="K1094" s="8" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="1095" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1094" s="8" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1095" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="K1095" s="8" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="1096" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1095" s="8" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1096" s="2" t="s">
         <v>1190</v>
       </c>
       <c r="K1096" s="8" t="s">
         <v>2626</v>
       </c>
-    </row>
-    <row r="1097" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1096" s="8" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1097" s="2" t="s">
         <v>1191</v>
       </c>
       <c r="K1097" s="8" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="1098" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1097" s="8" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1098" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="K1098" s="8" t="s">
         <v>2628</v>
       </c>
-    </row>
-    <row r="1099" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1098" s="8" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1099" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="K1099" s="8" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1099" s="8" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1100" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="K1100" s="8" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="1101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1100" s="8" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1101" s="2" t="s">
         <v>1195</v>
       </c>
       <c r="K1101" s="8" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="1102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1101" s="8" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1102" s="2" t="s">
         <v>1196</v>
       </c>
       <c r="K1102" s="8" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="1103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1102" s="8" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1103" s="2" t="s">
         <v>1197</v>
       </c>
       <c r="K1103" s="8" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1103" s="8" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1104" s="2" t="s">
         <v>1198</v>
       </c>
       <c r="K1104" s="8" t="s">
         <v>2634</v>
       </c>
-    </row>
-    <row r="1105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1104" s="8" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1105" s="2" t="s">
         <v>1199</v>
       </c>
       <c r="K1105" s="8" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="1106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1105" s="8" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1106" s="2" t="s">
         <v>1200</v>
       </c>
       <c r="K1106" s="8" t="s">
         <v>2636</v>
       </c>
-    </row>
-    <row r="1107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1106" s="8" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1107" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="K1107" s="8" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="1108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1107" s="8" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1108" s="2" t="s">
         <v>1202</v>
       </c>
       <c r="K1108" s="8" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="1109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1108" s="8" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1109" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="K1109" s="8" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="1110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1109" s="8" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1110" s="2" t="s">
         <v>1204</v>
       </c>
       <c r="K1110" s="8" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="1111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1110" s="8" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1111" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="K1111" s="8" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="1112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1111" s="8" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1112" s="2" t="s">
         <v>1206</v>
       </c>
       <c r="K1112" s="8" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="1113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1112" s="8" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1113" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="K1113" s="8" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="1114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1113" s="8" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1114" s="2" t="s">
         <v>1208</v>
       </c>
       <c r="K1114" s="8" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="1115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1114" s="8" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1115" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="K1115" s="8" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="1116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1115" s="8" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1116" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="K1116" s="8" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="1117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1116" s="8" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1117" s="2" t="s">
         <v>1211</v>
       </c>
       <c r="K1117" s="8" t="s">
         <v>2647</v>
       </c>
-    </row>
-    <row r="1118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1117" s="8" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1118" s="2" t="s">
         <v>1212</v>
       </c>
       <c r="K1118" s="8" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="1119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1118" s="8" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1119" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="K1119" s="8" t="s">
         <v>2649</v>
       </c>
-    </row>
-    <row r="1120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1119" s="8" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1120" s="2" t="s">
         <v>1214</v>
       </c>
       <c r="K1120" s="8" t="s">
         <v>2650</v>
       </c>
-    </row>
-    <row r="1121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1120" s="8" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1121" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="K1121" s="8" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="1122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1121" s="8" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1122" s="2" t="s">
         <v>1216</v>
       </c>
       <c r="K1122" s="8" t="s">
         <v>2652</v>
       </c>
-    </row>
-    <row r="1123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1122" s="8" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1123" s="2" t="s">
         <v>1217</v>
       </c>
       <c r="K1123" s="8" t="s">
         <v>2653</v>
       </c>
-    </row>
-    <row r="1124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1123" s="8" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1124" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="K1124" s="8" t="s">
         <v>2654</v>
       </c>
-    </row>
-    <row r="1125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1124" s="8" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1125" s="2" t="s">
         <v>1219</v>
       </c>
       <c r="K1125" s="8" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="1126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1125" s="8" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1126" s="2" t="s">
         <v>1220</v>
       </c>
       <c r="K1126" s="8" t="s">
         <v>2656</v>
       </c>
-    </row>
-    <row r="1127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1126" s="8" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1127" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="K1127" s="8" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="1128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1127" s="8" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1128" s="2" t="s">
         <v>1222</v>
       </c>
       <c r="K1128" s="8" t="s">
         <v>2658</v>
       </c>
-    </row>
-    <row r="1129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1128" s="8" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1129" s="2" t="s">
         <v>1223</v>
       </c>
       <c r="K1129" s="8" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="1130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1129" s="8" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1130" s="2" t="s">
         <v>1224</v>
       </c>
       <c r="K1130" s="8" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="1131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1130" s="8" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1131" s="2" t="s">
         <v>1225</v>
       </c>
       <c r="K1131" s="8" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="1132" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="V1131" s="8" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:22" ht="20" x14ac:dyDescent="0.2">
       <c r="A1132" s="3" t="s">
         <v>1226</v>
       </c>
       <c r="K1132" s="8" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="1133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1132" s="8" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1133" s="2" t="s">
         <v>1227</v>
       </c>
       <c r="K1133" s="8" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="1134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1133" s="8" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1134" s="2" t="s">
         <v>1228</v>
       </c>
       <c r="K1134" s="8" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="1135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1134" s="8" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1135" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="K1135" s="8" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="1136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1135" s="8" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1136" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="K1136" s="8" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="1137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1136" s="8" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1137" s="2" t="s">
         <v>1231</v>
       </c>
       <c r="K1137" s="8" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="1138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1137" s="8" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1138" s="2" t="s">
         <v>1232</v>
       </c>
       <c r="K1138" s="8" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="1139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1138" s="8" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1139" s="2" t="s">
         <v>1233</v>
       </c>
       <c r="K1139" s="8" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="1140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1139" s="8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1140" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="K1140" s="8" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="1141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1140" s="8" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1141" s="2" t="s">
         <v>1235</v>
       </c>
       <c r="K1141" s="8" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="1142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1141" s="8" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1142" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="K1142" s="8" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="1143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1142" s="8" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1143" s="2" t="s">
         <v>1237</v>
       </c>
       <c r="K1143" s="8" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="1144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1143" s="8" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1144" s="2" t="s">
         <v>1238</v>
       </c>
       <c r="K1144" s="8" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="1145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1144" s="8" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1145" s="2" t="s">
         <v>1239</v>
       </c>
       <c r="K1145" s="8" t="s">
         <v>2675</v>
       </c>
-    </row>
-    <row r="1146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1145" s="8" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1146" s="2" t="s">
         <v>1240</v>
       </c>
       <c r="K1146" s="8" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="1147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1146" s="8" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1147" s="2" t="s">
         <v>1241</v>
       </c>
       <c r="K1147" s="8" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="1148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1147" s="8" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1148" s="2" t="s">
         <v>1242</v>
       </c>
       <c r="K1148" s="8" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="1149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1148" s="8" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1149" s="2" t="s">
         <v>1243</v>
       </c>
       <c r="K1149" s="8" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="1150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1149" s="8" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1150" s="2" t="s">
         <v>1244</v>
       </c>
       <c r="K1150" s="8" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="1151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1150" s="8" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1151" s="2" t="s">
         <v>1245</v>
       </c>
       <c r="K1151" s="8" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="1152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1151" s="8" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1152" s="2" t="s">
         <v>1246</v>
       </c>
       <c r="K1152" s="8" t="s">
         <v>2682</v>
       </c>
-    </row>
-    <row r="1153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1152" s="8" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1153" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="K1153" s="8" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="1154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1153" s="8" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1154" s="2" t="s">
         <v>1248</v>
       </c>
       <c r="K1154" s="8" t="s">
         <v>2684</v>
       </c>
-    </row>
-    <row r="1155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1154" s="8" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1155" s="2" t="s">
         <v>1249</v>
       </c>
       <c r="K1155" s="8" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="1156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1155" s="8" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1156" s="2" t="s">
         <v>1250</v>
       </c>
       <c r="K1156" s="8" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="1157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1156" s="8" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1157" s="2" t="s">
         <v>1251</v>
       </c>
       <c r="K1157" s="8" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="1158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1157" s="8" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1158" s="2" t="s">
         <v>1252</v>
       </c>
       <c r="K1158" s="8" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="1159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1158" s="8" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1159" s="2" t="s">
         <v>1253</v>
       </c>
       <c r="K1159" s="8" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="1160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1159" s="8" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1160" s="2" t="s">
         <v>1254</v>
       </c>
       <c r="K1160" s="8" t="s">
         <v>2690</v>
       </c>
-    </row>
-    <row r="1161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1160" s="8" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1161" s="2" t="s">
         <v>1255</v>
       </c>
       <c r="K1161" s="8" t="s">
         <v>2691</v>
       </c>
-    </row>
-    <row r="1162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1161" s="8" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1162" s="2" t="s">
         <v>1256</v>
       </c>
       <c r="K1162" s="8" t="s">
         <v>2692</v>
       </c>
-    </row>
-    <row r="1163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1162" s="8" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1163" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="K1163" s="8" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="1164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1163" s="8" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1164" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="K1164" s="8" t="s">
         <v>2694</v>
       </c>
-    </row>
-    <row r="1165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1164" s="8" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1165" s="2" t="s">
         <v>1259</v>
       </c>
       <c r="K1165" s="8" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="1166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1165" s="8" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1166" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="K1166" s="8" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="1167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1166" s="8" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1167" s="2" t="s">
         <v>1261</v>
       </c>
       <c r="K1167" s="8" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="1168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1167" s="8" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1168" s="2" t="s">
         <v>1262</v>
       </c>
       <c r="K1168" s="8" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="1169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1168" s="8" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1169" s="2" t="s">
         <v>1263</v>
       </c>
       <c r="K1169" s="8" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="1170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="V1169" s="8" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1170" s="2" t="s">
         <v>1264</v>
       </c>
@@ -36901,7 +37372,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="1171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1171" s="2" t="s">
         <v>1265</v>
       </c>
@@ -36909,7 +37380,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="1172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1172" s="2" t="s">
         <v>1266</v>
       </c>
@@ -36917,7 +37388,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="1173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1173" s="2" t="s">
         <v>1267</v>
       </c>
@@ -36925,7 +37396,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="1174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1174" s="2" t="s">
         <v>1268</v>
       </c>
@@ -36933,7 +37404,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="1175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1175" s="2" t="s">
         <v>1269</v>
       </c>
@@ -36941,7 +37412,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="1176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1176" s="2" t="s">
         <v>1270</v>
       </c>
@@ -36949,7 +37420,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1177" s="2" t="s">
         <v>1271</v>
       </c>
@@ -36957,7 +37428,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="1178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1178" s="2" t="s">
         <v>1272</v>
       </c>
@@ -36965,7 +37436,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="1179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1179" s="2" t="s">
         <v>1273</v>
       </c>
@@ -36973,7 +37444,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="1180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1180" s="2" t="s">
         <v>1274</v>
       </c>
@@ -36981,7 +37452,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="1181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1181" s="2" t="s">
         <v>1275</v>
       </c>
@@ -36989,7 +37460,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1182" s="2" t="s">
         <v>1276</v>
       </c>
@@ -36997,7 +37468,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="1183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1183" s="2" t="s">
         <v>1277</v>
       </c>
@@ -37005,7 +37476,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="1184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1184" s="2" t="s">
         <v>1278</v>
       </c>
@@ -38378,10 +38849,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K17:K1185">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1016:V1169">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A71" r:id="rId1" xr:uid="{ACA54389-82A8-AD44-8E22-7D41BC4772ED}"/>

--- a/Documentation/böhmermannliste Kopie.xlsx
+++ b/Documentation/böhmermannliste Kopie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C242482B-BE3D-3046-AF73-B04CB934001F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2187BF-4767-4943-8FEE-FAC12DDBC3D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
+    <workbookView xWindow="1460" yWindow="4720" windowWidth="28800" windowHeight="17540" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23915,8 +23915,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AA1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B83" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23941,11 +23941,15 @@
       <c r="F1" t="s">
         <v>2852</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="str">
+        <f xml:space="preserve"> "'"&amp;F1&amp;"',"</f>
+        <v>'Hera22112013',</v>
+      </c>
+      <c r="H1" t="s">
         <v>99</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ref="K1:K10" si="0" xml:space="preserve"> "'" &amp; G1 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H1 &amp; "',"</f>
         <v>'Deutscher_17',</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -23958,7 +23962,7 @@
         <v>99</v>
       </c>
       <c r="Y1" t="str">
-        <f t="shared" ref="Y1:Y64" si="1">"'"&amp;V1&amp;"',"</f>
+        <f t="shared" ref="Y1:Y64" si="0">"'"&amp;V1&amp;"',"</f>
         <v>'Deutscher_17',</v>
       </c>
       <c r="AA1" s="8" t="s">
@@ -23973,17 +23977,21 @@
         <v>2852</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="2" xml:space="preserve"> "'" &amp; D2 &amp; "',"</f>
+        <f t="shared" ref="E2:E65" si="1" xml:space="preserve"> "'" &amp; D2 &amp; "',"</f>
         <v>'Hera22112013',</v>
       </c>
       <c r="F2" t="s">
         <v>379</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="2" xml:space="preserve"> "'"&amp;F2&amp;"',"</f>
+        <v>'IsidorMeyer1',</v>
+      </c>
+      <c r="H2" t="s">
         <v>100</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H2 &amp; "',"</f>
         <v>'Itschi1',</v>
       </c>
       <c r="O2" s="8" t="s">
@@ -23996,7 +24004,7 @@
         <v>100</v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Itschi1',</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -24011,17 +24019,21 @@
         <v>379</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'IsidorMeyer1',</v>
       </c>
       <c r="F3" t="s">
         <v>2853</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>'Chasty_t',</v>
+      </c>
+      <c r="H3" t="s">
         <v>101</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H3 &amp; "',"</f>
         <v>'Lepanto_',</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -24034,7 +24046,7 @@
         <v>101</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Lepanto_',</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -24049,17 +24061,21 @@
         <v>2853</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Chasty_t',</v>
       </c>
       <c r="F4" t="s">
         <v>2854</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>'JaNuWatn',</v>
+      </c>
+      <c r="H4" t="s">
         <v>102</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H4 &amp; "',"</f>
         <v>'Luisa_Maletzki',</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -24072,7 +24088,7 @@
         <v>102</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Luisa_Maletzki',</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -24087,17 +24103,21 @@
         <v>1033</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Dunkeldenk',</v>
       </c>
       <c r="F5" t="s">
         <v>2855</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>'sandmango2005',</v>
+      </c>
+      <c r="H5" t="s">
         <v>103</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H5 &amp; "',"</f>
         <v>'kevin_hevin_21',</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -24110,7 +24130,7 @@
         <v>103</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'kevin_hevin_21',</v>
       </c>
       <c r="AA5" s="8" t="s">
@@ -24125,17 +24145,21 @@
         <v>2854</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'JaNuWatn',</v>
       </c>
       <c r="F6" t="s">
         <v>2857</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>'mona_rumpel',</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H6 &amp; "',"</f>
         <v>'gerlex',</v>
       </c>
       <c r="O6" s="8" t="s">
@@ -24148,7 +24172,7 @@
         <v>104</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'gerlex',</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -24163,17 +24187,21 @@
         <v>2855</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'sandmango2005',</v>
       </c>
       <c r="F7" t="s">
         <v>2861</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>'LC180666',</v>
+      </c>
+      <c r="H7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H7 &amp; "',"</f>
         <v>'EldonNick',</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -24186,7 +24214,7 @@
         <v>105</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'EldonNick',</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -24201,17 +24229,21 @@
         <v>2856</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'MadFWagner',</v>
       </c>
       <c r="F8" t="s">
         <v>2862</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>'fop4651',</v>
+      </c>
+      <c r="H8" t="s">
         <v>106</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H8 &amp; "',"</f>
         <v>'Wilhelm_Koerner',</v>
       </c>
       <c r="O8" s="8" t="s">
@@ -24224,7 +24256,7 @@
         <v>106</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Wilhelm_Koerner',</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -24239,17 +24271,21 @@
         <v>2857</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'mona_rumpel',</v>
       </c>
       <c r="F9" t="s">
         <v>2863</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>'chris_p79',</v>
+      </c>
+      <c r="H9" t="s">
         <v>107</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H9 &amp; "',"</f>
         <v>'aka_Ganymed',</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -24262,7 +24298,7 @@
         <v>107</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'aka_Ganymed',</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -24277,17 +24313,21 @@
         <v>2858</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'ramses_der_lll',</v>
       </c>
       <c r="F10" t="s">
         <v>1042</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>'uwebecher',</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> "'" &amp; H10 &amp; "',"</f>
         <v>'phalanx_europa',</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -24300,7 +24340,7 @@
         <v>108</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'phalanx_europa',</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -24315,17 +24355,21 @@
         <v>2859</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'henrik_verwoerd',</v>
       </c>
       <c r="F11" t="s">
         <v>2867</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>'Ayse_0815',</v>
+      </c>
+      <c r="H11" t="s">
         <v>109</v>
       </c>
       <c r="K11" t="str">
-        <f xml:space="preserve"> "'" &amp; G12 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H12 &amp; "',"</f>
         <v>'ruhr_area51',</v>
       </c>
       <c r="O11" s="8" t="s">
@@ -24338,7 +24382,7 @@
         <v>110</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'ruhr_area51',</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -24353,17 +24397,21 @@
         <v>2860</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'FFritzsche2',</v>
       </c>
       <c r="F12" t="s">
         <v>778</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>'MyCodeOfConduct',</v>
+      </c>
+      <c r="H12" t="s">
         <v>110</v>
       </c>
       <c r="K12" t="str">
-        <f xml:space="preserve"> "'" &amp; G13 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H13 &amp; "',"</f>
         <v>'Rosskar1',</v>
       </c>
       <c r="O12" s="8" t="s">
@@ -24376,7 +24424,7 @@
         <v>111</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Rosskar1',</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -24391,17 +24439,21 @@
         <v>2861</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'LC180666',</v>
       </c>
       <c r="F13" t="s">
         <v>2871</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>'X9donernesto',</v>
+      </c>
+      <c r="H13" t="s">
         <v>111</v>
       </c>
       <c r="K13" t="str">
-        <f xml:space="preserve"> "'" &amp; G15 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H15 &amp; "',"</f>
         <v>'_enochwasright',</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -24414,7 +24466,7 @@
         <v>113</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'_enochwasright',</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -24429,17 +24481,21 @@
         <v>2862</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'fop4651',</v>
       </c>
       <c r="F14" t="s">
         <v>2872</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>'blaupfeil',</v>
+      </c>
+      <c r="H14" t="s">
         <v>112</v>
       </c>
       <c r="K14" t="str">
-        <f xml:space="preserve"> "'" &amp; G16 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H16 &amp; "',"</f>
         <v>'Theodoretiker',</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -24452,7 +24508,7 @@
         <v>114</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Theodoretiker',</v>
       </c>
       <c r="AA14" s="8" t="s">
@@ -24467,17 +24523,21 @@
         <v>2863</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'chris_p79',</v>
       </c>
       <c r="F15" t="s">
         <v>2873</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>'Renft1964',</v>
+      </c>
+      <c r="H15" t="s">
         <v>113</v>
       </c>
       <c r="K15" t="str">
-        <f xml:space="preserve"> "'" &amp; G17 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H17 &amp; "',"</f>
         <v>'realNEWZBLOG',</v>
       </c>
       <c r="O15" s="8" t="s">
@@ -24490,7 +24550,7 @@
         <v>115</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'realNEWZBLOG',</v>
       </c>
       <c r="AA15" s="8" t="s">
@@ -24505,17 +24565,21 @@
         <v>2864</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'WilhelmTell77',</v>
       </c>
       <c r="F16" t="s">
         <v>2874</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>'Grazywalking',</v>
+      </c>
+      <c r="H16" t="s">
         <v>114</v>
       </c>
       <c r="K16" t="str">
-        <f xml:space="preserve"> "'" &amp; G19 &amp; "',"</f>
+        <f xml:space="preserve"> "'" &amp; H19 &amp; "',"</f>
         <v>'McTabbish',</v>
       </c>
       <c r="O16" s="8" t="s">
@@ -24528,7 +24592,7 @@
         <v>117</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'McTabbish',</v>
       </c>
       <c r="AA16" s="8" t="s">
@@ -24543,13 +24607,17 @@
         <v>2865</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'NikoLaus1977',</v>
       </c>
       <c r="F17" t="s">
         <v>2875</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>'FvdMosselaar',</v>
+      </c>
+      <c r="H17" t="s">
         <v>115</v>
       </c>
       <c r="K17" s="8" t="s">
@@ -24565,7 +24633,7 @@
         <v>118</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'supermampf',</v>
       </c>
       <c r="AA17" s="8" t="s">
@@ -24580,13 +24648,17 @@
         <v>2866</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'bo_hermaine',</v>
       </c>
       <c r="F18" t="s">
         <v>2876</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>'cornelia_cagol',</v>
+      </c>
+      <c r="H18" t="s">
         <v>116</v>
       </c>
       <c r="K18" s="8" t="s">
@@ -24602,7 +24674,7 @@
         <v>119</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'RMichael2000',</v>
       </c>
       <c r="AA18" s="8" t="s">
@@ -24617,13 +24689,17 @@
         <v>1042</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'uwebecher',</v>
       </c>
       <c r="F19" t="s">
         <v>2877</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>'Boelscheline',</v>
+      </c>
+      <c r="H19" t="s">
         <v>117</v>
       </c>
       <c r="K19" s="8" t="s">
@@ -24639,7 +24715,7 @@
         <v>120</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'kekdich',</v>
       </c>
       <c r="AA19" s="8" t="s">
@@ -24654,13 +24730,17 @@
         <v>2867</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Ayse_0815',</v>
       </c>
       <c r="F20" t="s">
         <v>2879</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>'kchak79',</v>
+      </c>
+      <c r="H20" t="s">
         <v>118</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -24676,7 +24756,7 @@
         <v>2734</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'enythen',</v>
       </c>
       <c r="AA20" s="8" t="s">
@@ -24691,13 +24771,17 @@
         <v>778</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'MyCodeOfConduct',</v>
       </c>
       <c r="F21" t="s">
         <v>2882</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>'KarlHalasz',</v>
+      </c>
+      <c r="H21" t="s">
         <v>119</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -24713,7 +24797,7 @@
         <v>126</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'politoreality',</v>
       </c>
       <c r="AA21" s="8" t="s">
@@ -24728,13 +24812,17 @@
         <v>2868</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Matthias_Kt',</v>
       </c>
       <c r="F22" t="s">
         <v>1062</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>'DeutscherMiche5',</v>
+      </c>
+      <c r="H22" t="s">
         <v>120</v>
       </c>
       <c r="K22" s="8" t="s">
@@ -24750,7 +24838,7 @@
         <v>128</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Chreuper',</v>
       </c>
       <c r="AA22" s="8" t="s">
@@ -24765,13 +24853,17 @@
         <v>2869</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'DatOlli64',</v>
       </c>
       <c r="F23" t="s">
         <v>2883</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>'NightRalph',</v>
+      </c>
+      <c r="H23" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -24787,7 +24879,7 @@
         <v>129</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Jeb_Ident',</v>
       </c>
       <c r="AA23" s="8" t="s">
@@ -24802,13 +24894,17 @@
         <v>2870</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'6pack88',</v>
       </c>
       <c r="F24" t="s">
         <v>2884</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>'safe_ID35',</v>
+      </c>
+      <c r="H24" t="s">
         <v>122</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -24824,7 +24920,7 @@
         <v>130</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'asorent',</v>
       </c>
       <c r="AA24" s="8" t="s">
@@ -24839,13 +24935,17 @@
         <v>2871</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'X9donernesto',</v>
       </c>
       <c r="F25" t="s">
         <v>2885</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>'FalkRodig',</v>
+      </c>
+      <c r="H25" t="s">
         <v>123</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -24861,7 +24961,7 @@
         <v>131</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'trueY4K',</v>
       </c>
       <c r="AA25" s="8" t="s">
@@ -24876,13 +24976,17 @@
         <v>2872</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'blaupfeil',</v>
       </c>
       <c r="F26" t="s">
         <v>2886</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>'HamburgerDeern4',</v>
+      </c>
+      <c r="H26" t="s">
         <v>124</v>
       </c>
       <c r="K26" s="8" t="s">
@@ -24898,7 +25002,7 @@
         <v>2735</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'MerkelFan666',</v>
       </c>
       <c r="AA26" s="8" t="s">
@@ -24913,13 +25017,17 @@
         <v>2873</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Renft1964',</v>
       </c>
       <c r="F27" t="s">
         <v>2887</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>'StolzesVolk',</v>
+      </c>
+      <c r="H27" t="s">
         <v>125</v>
       </c>
       <c r="K27" s="8" t="s">
@@ -24935,7 +25043,7 @@
         <v>134</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'TeutemanTuts',</v>
       </c>
       <c r="AA27" s="8" t="s">
@@ -24950,13 +25058,17 @@
         <v>2874</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Grazywalking',</v>
       </c>
       <c r="F28" t="s">
         <v>2888</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>'Logiker01',</v>
+      </c>
+      <c r="H28" t="s">
         <v>126</v>
       </c>
       <c r="K28" s="8" t="s">
@@ -24972,7 +25084,7 @@
         <v>136</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'LordZentrum',</v>
       </c>
       <c r="AA28" s="8" t="s">
@@ -24987,13 +25099,17 @@
         <v>2875</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'FvdMosselaar',</v>
       </c>
       <c r="F29" t="s">
         <v>2889</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>'NationalerBoy14',</v>
+      </c>
+      <c r="H29" t="s">
         <v>127</v>
       </c>
       <c r="K29" s="8" t="s">
@@ -25009,7 +25125,7 @@
         <v>137</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'TheDefi4nt',</v>
       </c>
       <c r="AA29" s="8" t="s">
@@ -25024,13 +25140,17 @@
         <v>2876</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'cornelia_cagol',</v>
       </c>
       <c r="F30" t="s">
         <v>2890</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>'wakeupinfo',</v>
+      </c>
+      <c r="H30" t="s">
         <v>128</v>
       </c>
       <c r="K30" s="8" t="s">
@@ -25046,7 +25166,7 @@
         <v>138</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'HeiligeRevolte',</v>
       </c>
       <c r="AA30" s="8" t="s">
@@ -25061,13 +25181,17 @@
         <v>2877</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Boelscheline',</v>
       </c>
       <c r="F31" t="s">
         <v>2891</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>'HeidiHofer06',</v>
+      </c>
+      <c r="H31" t="s">
         <v>129</v>
       </c>
       <c r="K31" s="8" t="s">
@@ -25083,7 +25207,7 @@
         <v>140</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Paganaer',</v>
       </c>
       <c r="AA31" s="8" t="s">
@@ -25098,13 +25222,17 @@
         <v>2878</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'SchafDas',</v>
       </c>
       <c r="F32" t="s">
         <v>2894</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>'BERLINER1404',</v>
+      </c>
+      <c r="H32" t="s">
         <v>130</v>
       </c>
       <c r="K32" s="8" t="s">
@@ -25120,7 +25248,7 @@
         <v>142</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'LangeRII',</v>
       </c>
       <c r="AA32" s="8" t="s">
@@ -25135,13 +25263,17 @@
         <v>2879</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'kchak79',</v>
       </c>
       <c r="F33" t="s">
         <v>2896</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>'dfoqF5yazTb1YI3',</v>
+      </c>
+      <c r="H33" t="s">
         <v>131</v>
       </c>
       <c r="K33" s="8" t="s">
@@ -25157,7 +25289,7 @@
         <v>2736</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'franziskam108',</v>
       </c>
       <c r="AA33" s="8" t="s">
@@ -25172,13 +25304,17 @@
         <v>2880</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'schweizerguy',</v>
       </c>
       <c r="F34" t="s">
         <v>2899</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>'hdiesterweg',</v>
+      </c>
+      <c r="H34" t="s">
         <v>132</v>
       </c>
       <c r="K34" s="8" t="s">
@@ -25194,7 +25330,7 @@
         <v>145</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'PepeBismarck',</v>
       </c>
       <c r="AA34" s="8" t="s">
@@ -25209,13 +25345,17 @@
         <v>2881</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'MaximilianHenr5',</v>
       </c>
       <c r="F35" t="s">
         <v>2903</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>'Mica4711',</v>
+      </c>
+      <c r="H35" t="s">
         <v>133</v>
       </c>
       <c r="K35" s="8" t="s">
@@ -25231,7 +25371,7 @@
         <v>146</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'LudwigErhard2',</v>
       </c>
       <c r="AA35" s="8" t="s">
@@ -25246,13 +25386,17 @@
         <v>2882</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'KarlHalasz',</v>
       </c>
       <c r="F36" t="s">
         <v>269</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>'FiveFaker',</v>
+      </c>
+      <c r="H36" t="s">
         <v>134</v>
       </c>
       <c r="K36" s="8" t="s">
@@ -25268,7 +25412,7 @@
         <v>147</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Urleere',</v>
       </c>
       <c r="AA36" s="8" t="s">
@@ -25283,13 +25427,17 @@
         <v>1062</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'DeutscherMiche5',</v>
       </c>
       <c r="F37" t="s">
         <v>2904</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>'morawnski',</v>
+      </c>
+      <c r="H37" t="s">
         <v>135</v>
       </c>
       <c r="K37" s="8" t="s">
@@ -25305,7 +25453,7 @@
         <v>148</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'NorikNordlicht',</v>
       </c>
       <c r="AA37" s="8" t="s">
@@ -25320,13 +25468,17 @@
         <v>2883</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'NightRalph',</v>
       </c>
       <c r="F38" t="s">
         <v>193</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>'KimmyBertsch',</v>
+      </c>
+      <c r="H38" t="s">
         <v>136</v>
       </c>
       <c r="K38" s="8" t="s">
@@ -25342,7 +25494,7 @@
         <v>149</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'koeterrasse',</v>
       </c>
       <c r="AA38" s="8" t="s">
@@ -25357,13 +25509,17 @@
         <v>2884</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'safe_ID35',</v>
       </c>
       <c r="F39" t="s">
         <v>2906</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>'SigfriedArthur',</v>
+      </c>
+      <c r="H39" t="s">
         <v>137</v>
       </c>
       <c r="K39" s="8" t="s">
@@ -25379,7 +25535,7 @@
         <v>150</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'analogsubground',</v>
       </c>
       <c r="AA39" s="8" t="s">
@@ -25394,13 +25550,17 @@
         <v>2885</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'FalkRodig',</v>
       </c>
       <c r="F40" t="s">
         <v>170</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>'dgsportler',</v>
+      </c>
+      <c r="H40" t="s">
         <v>138</v>
       </c>
       <c r="K40" s="8" t="s">
@@ -25416,7 +25576,7 @@
         <v>152</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Silgetown',</v>
       </c>
       <c r="AA40" s="8" t="s">
@@ -25431,13 +25591,17 @@
         <v>2886</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'HamburgerDeern4',</v>
       </c>
       <c r="F41" t="s">
         <v>2907</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>'DKekser',</v>
+      </c>
+      <c r="H41" t="s">
         <v>139</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -25453,7 +25617,7 @@
         <v>153</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'mick_denis',</v>
       </c>
       <c r="AA41" s="8" t="s">
@@ -25468,13 +25632,17 @@
         <v>2887</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'StolzesVolk',</v>
       </c>
       <c r="F42" t="s">
         <v>226</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>'MichaelSellne11',</v>
+      </c>
+      <c r="H42" t="s">
         <v>140</v>
       </c>
       <c r="K42" s="8" t="s">
@@ -25490,7 +25658,7 @@
         <v>155</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Robert30521605',</v>
       </c>
       <c r="AA42" s="8" t="s">
@@ -25505,13 +25673,17 @@
         <v>468</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'darktweep',</v>
       </c>
       <c r="F43" t="s">
         <v>2909</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>'MadDocFoster',</v>
+      </c>
+      <c r="H43" t="s">
         <v>141</v>
       </c>
       <c r="K43" s="8" t="s">
@@ -25527,7 +25699,7 @@
         <v>156</v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Metadiskurs1',</v>
       </c>
       <c r="AA43" s="8" t="s">
@@ -25542,13 +25714,17 @@
         <v>2888</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Logiker01',</v>
       </c>
       <c r="F44" t="s">
         <v>2910</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>'richito81',</v>
+      </c>
+      <c r="H44" t="s">
         <v>142</v>
       </c>
       <c r="K44" s="8" t="s">
@@ -25564,7 +25740,7 @@
         <v>158</v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Rheinpfeil67',</v>
       </c>
       <c r="AA44" s="8" t="s">
@@ -25579,13 +25755,17 @@
         <v>2889</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'NationalerBoy14',</v>
       </c>
       <c r="F45" t="s">
         <v>2911</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>'G0RI1982',</v>
+      </c>
+      <c r="H45" t="s">
         <v>143</v>
       </c>
       <c r="K45" s="8" t="s">
@@ -25601,7 +25781,7 @@
         <v>160</v>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'ald3rs0n',</v>
       </c>
       <c r="AA45" s="8" t="s">
@@ -25616,13 +25796,17 @@
         <v>2890</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'wakeupinfo',</v>
       </c>
       <c r="F46" t="s">
         <v>211</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>'Vergesslichr',</v>
+      </c>
+      <c r="H46" t="s">
         <v>144</v>
       </c>
       <c r="K46" s="8" t="s">
@@ -25638,7 +25822,7 @@
         <v>161</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Fatima_Najar',</v>
       </c>
       <c r="AA46" s="8" t="s">
@@ -25653,13 +25837,17 @@
         <v>2891</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'HeidiHofer06',</v>
       </c>
       <c r="F47" t="s">
         <v>152</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>'Silgetown',</v>
+      </c>
+      <c r="H47" t="s">
         <v>145</v>
       </c>
       <c r="K47" s="8" t="s">
@@ -25675,7 +25863,7 @@
         <v>162</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'VisithorQ',</v>
       </c>
       <c r="AA47" s="8" t="s">
@@ -25690,13 +25878,17 @@
         <v>2892</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Luisa_maletzki',</v>
       </c>
       <c r="F48" t="s">
         <v>228</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>'tueringi24972',</v>
+      </c>
+      <c r="H48" t="s">
         <v>146</v>
       </c>
       <c r="K48" s="8" t="s">
@@ -25712,7 +25904,7 @@
         <v>163</v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'BerundoKun',</v>
       </c>
       <c r="AA48" s="8" t="s">
@@ -25727,13 +25919,17 @@
         <v>2893</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'lmaolililu',</v>
       </c>
       <c r="F49" t="s">
         <v>253</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>'hh119933',</v>
+      </c>
+      <c r="H49" t="s">
         <v>147</v>
       </c>
       <c r="K49" s="8" t="s">
@@ -25749,7 +25945,7 @@
         <v>164</v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Stefan_RW84',</v>
       </c>
       <c r="AA49" s="8" t="s">
@@ -25764,13 +25960,17 @@
         <v>2894</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'BERLINER1404',</v>
       </c>
       <c r="F50" t="s">
         <v>284</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>'AnchardAran',</v>
+      </c>
+      <c r="H50" t="s">
         <v>148</v>
       </c>
       <c r="K50" s="8" t="s">
@@ -25786,7 +25986,7 @@
         <v>165</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'E_Fall_Planer',</v>
       </c>
       <c r="AA50" s="8" t="s">
@@ -25801,13 +26001,17 @@
         <v>2895</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'HuhnUschi',</v>
       </c>
       <c r="F51" t="s">
         <v>2913</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>'gruenebanane1',</v>
+      </c>
+      <c r="H51" t="s">
         <v>149</v>
       </c>
       <c r="K51" s="8" t="s">
@@ -25823,7 +26027,7 @@
         <v>168</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Tiuri1983',</v>
       </c>
       <c r="AA51" s="8" t="s">
@@ -25838,13 +26042,17 @@
         <v>2896</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'dfoqF5yazTb1YI3',</v>
       </c>
       <c r="F52" t="s">
         <v>147</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>'Urleere',</v>
+      </c>
+      <c r="H52" t="s">
         <v>150</v>
       </c>
       <c r="K52" s="8" t="s">
@@ -25860,7 +26068,7 @@
         <v>170</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'dgsportler',</v>
       </c>
       <c r="AA52" s="8" t="s">
@@ -25875,13 +26083,17 @@
         <v>2897</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'nansen_harald',</v>
       </c>
       <c r="F53" t="s">
         <v>2914</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>'AvalancheGerman',</v>
+      </c>
+      <c r="H53" t="s">
         <v>151</v>
       </c>
       <c r="K53" s="8" t="s">
@@ -25897,7 +26109,7 @@
         <v>171</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Widerstand3',</v>
       </c>
       <c r="AA53" s="8" t="s">
@@ -25912,13 +26124,17 @@
         <v>2898</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'WalhallaWachter',</v>
       </c>
       <c r="F54" t="s">
         <v>128</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>'Chreuper',</v>
+      </c>
+      <c r="H54" t="s">
         <v>152</v>
       </c>
       <c r="K54" s="8" t="s">
@@ -25934,7 +26150,7 @@
         <v>172</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'realPeterV',</v>
       </c>
       <c r="AA54" s="8" t="s">
@@ -25949,13 +26165,17 @@
         <v>2899</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'hdiesterweg',</v>
       </c>
       <c r="F55" t="s">
         <v>99</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>'Deutscher_17',</v>
+      </c>
+      <c r="H55" t="s">
         <v>153</v>
       </c>
       <c r="K55" s="8" t="s">
@@ -25971,7 +26191,7 @@
         <v>173</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'de_ewake',</v>
       </c>
       <c r="AA55" s="8" t="s">
@@ -25986,13 +26206,17 @@
         <v>2900</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'PrinzPrint7',</v>
       </c>
       <c r="F56" t="s">
         <v>2916</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>'DeutscheFarben',</v>
+      </c>
+      <c r="H56" t="s">
         <v>154</v>
       </c>
       <c r="K56" s="8" t="s">
@@ -26008,7 +26232,7 @@
         <v>174</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'IdentitarianL',</v>
       </c>
       <c r="AA56" s="8" t="s">
@@ -26023,13 +26247,17 @@
         <v>2901</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'svensationismus',</v>
       </c>
       <c r="F57" t="s">
         <v>2917</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>'Sachsen_17',</v>
+      </c>
+      <c r="H57" t="s">
         <v>155</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -26045,7 +26273,7 @@
         <v>176</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'QubitusQ',</v>
       </c>
       <c r="AA57" s="8" t="s">
@@ -26060,13 +26288,17 @@
         <v>2902</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'peterkah12',</v>
       </c>
       <c r="F58" t="s">
         <v>271</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>'g_oschi',</v>
+      </c>
+      <c r="H58" t="s">
         <v>156</v>
       </c>
       <c r="K58" s="8" t="s">
@@ -26082,7 +26314,7 @@
         <v>177</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'ChrissoJacobsen',</v>
       </c>
       <c r="AA58" s="8" t="s">
@@ -26097,13 +26329,17 @@
         <v>2903</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'Mica4711',</v>
       </c>
       <c r="F59" t="s">
         <v>2918</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>'JustAnotherReco',</v>
+      </c>
+      <c r="H59" t="s">
         <v>157</v>
       </c>
       <c r="K59" s="8" t="s">
@@ -26119,7 +26355,7 @@
         <v>178</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1407jule',</v>
       </c>
       <c r="AA59" s="8" t="s">
@@ -26134,13 +26370,17 @@
         <v>269</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'FiveFaker',</v>
       </c>
       <c r="F60" t="s">
         <v>285</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>'MicKurti',</v>
+      </c>
+      <c r="H60" t="s">
         <v>158</v>
       </c>
       <c r="K60" s="8" t="s">
@@ -26156,7 +26396,7 @@
         <v>181</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'RGLarp12',</v>
       </c>
       <c r="AA60" s="8" t="s">
@@ -26171,13 +26411,17 @@
         <v>2904</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'morawnski',</v>
       </c>
       <c r="F61" t="s">
         <v>210</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>'AbdulMansoor01',</v>
+      </c>
+      <c r="H61" t="s">
         <v>159</v>
       </c>
       <c r="K61" s="8" t="s">
@@ -26193,7 +26437,7 @@
         <v>182</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'Johann_Weiler',</v>
       </c>
       <c r="AA61" s="8" t="s">
@@ -26208,13 +26452,17 @@
         <v>2905</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'SalvatoreDiVito',</v>
       </c>
       <c r="F62" t="s">
         <v>2920</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>'Der_Erzgebirger',</v>
+      </c>
+      <c r="H62" t="s">
         <v>160</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -26230,7 +26478,7 @@
         <v>183</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'AnonymforFredom',</v>
       </c>
       <c r="AA62" s="8" t="s">
@@ -26245,13 +26493,17 @@
         <v>193</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'KimmyBertsch',</v>
       </c>
       <c r="F63" t="s">
         <v>2921</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>'homemimy',</v>
+      </c>
+      <c r="H63" t="s">
         <v>161</v>
       </c>
       <c r="K63" s="8" t="s">
@@ -26267,7 +26519,7 @@
         <v>185</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'MartinNeubaue10',</v>
       </c>
       <c r="AA63" s="8" t="s">
@@ -26282,13 +26534,17 @@
         <v>146</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'LudwigErhard2',</v>
       </c>
       <c r="F64" t="s">
         <v>2923</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>'BjrnHansen18',</v>
+      </c>
+      <c r="H64" t="s">
         <v>162</v>
       </c>
       <c r="K64" s="8" t="s">
@@ -26304,7 +26560,7 @@
         <v>186</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'er1k_w',</v>
       </c>
       <c r="AA64" s="8" t="s">
@@ -26319,13 +26575,17 @@
         <v>2906</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>'SigfriedArthur',</v>
       </c>
       <c r="F65" t="s">
         <v>2924</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>'77abraxas77',</v>
+      </c>
+      <c r="H65" t="s">
         <v>163</v>
       </c>
       <c r="K65" s="8" t="s">
@@ -26362,7 +26622,11 @@
       <c r="F66" t="s">
         <v>2925</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G70" si="5" xml:space="preserve"> "'"&amp;F66&amp;"',"</f>
+        <v>'jesper_vangroot',</v>
+      </c>
+      <c r="H66" t="s">
         <v>164</v>
       </c>
       <c r="K66" s="8" t="s">
@@ -26399,7 +26663,11 @@
       <c r="F67" t="s">
         <v>197</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
+        <v>'PaulAbr89089961',</v>
+      </c>
+      <c r="H67" t="s">
         <v>165</v>
       </c>
       <c r="K67" s="8" t="s">
@@ -26436,7 +26704,11 @@
       <c r="F68" t="s">
         <v>2927</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>'PeterWitzbold',</v>
+      </c>
+      <c r="H68" t="s">
         <v>166</v>
       </c>
       <c r="K68" s="8" t="s">
@@ -26473,7 +26745,11 @@
       <c r="F69" t="s">
         <v>194</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>'MalWieder_real',</v>
+      </c>
+      <c r="H69" t="s">
         <v>167</v>
       </c>
       <c r="K69" s="8" t="s">
@@ -26510,7 +26786,11 @@
       <c r="F70" t="s">
         <v>2929</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>'Deutschland_17',</v>
+      </c>
+      <c r="H70" t="s">
         <v>168</v>
       </c>
       <c r="K70" s="8" t="s">
@@ -26544,7 +26824,7 @@
         <f t="shared" si="4"/>
         <v>'richito81',</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K71" s="8" t="s">
@@ -26578,7 +26858,7 @@
         <f t="shared" si="4"/>
         <v>'G0RI1982',</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>171</v>
       </c>
       <c r="K72" s="8" t="s">
@@ -26612,7 +26892,7 @@
         <f t="shared" si="4"/>
         <v>'LuetzowsJagd',</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>172</v>
       </c>
       <c r="K73" s="8" t="s">
@@ -26646,7 +26926,7 @@
         <f t="shared" si="4"/>
         <v>'Vergesslichr',</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>173</v>
       </c>
       <c r="K74" s="8" t="s">
@@ -26680,7 +26960,7 @@
         <f t="shared" si="4"/>
         <v>'Miss_Morpheus',</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>174</v>
       </c>
       <c r="K75" s="8" t="s">
@@ -26714,7 +26994,7 @@
         <f t="shared" si="4"/>
         <v>'Silgetown',</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>175</v>
       </c>
       <c r="K76" s="8" t="s">
@@ -26748,7 +27028,7 @@
         <f t="shared" si="4"/>
         <v>'tueringi24972',</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>176</v>
       </c>
       <c r="K77" s="8" t="s">
@@ -26782,7 +27062,7 @@
         <f t="shared" si="4"/>
         <v>'hh119933',</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>177</v>
       </c>
       <c r="K78" s="8" t="s">
@@ -26816,7 +27096,7 @@
         <f t="shared" si="4"/>
         <v>'AnchardAran',</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>178</v>
       </c>
       <c r="K79" s="8" t="s">
@@ -26850,7 +27130,7 @@
         <f t="shared" si="4"/>
         <v>'SeppDahte',</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>179</v>
       </c>
       <c r="K80" s="8" t="s">
@@ -26884,7 +27164,7 @@
         <f t="shared" si="4"/>
         <v>'gruenebanane1',</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>180</v>
       </c>
       <c r="K81" s="8" t="s">
@@ -26918,7 +27198,7 @@
         <f t="shared" si="4"/>
         <v>'Urleere',</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>181</v>
       </c>
       <c r="K82" s="8" t="s">
@@ -26952,7 +27232,7 @@
         <f t="shared" si="4"/>
         <v>'AvalancheGerman',</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>182</v>
       </c>
       <c r="K83" s="8" t="s">
@@ -26986,7 +27266,7 @@
         <f t="shared" si="4"/>
         <v>'Chreuper',</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>183</v>
       </c>
       <c r="K84" s="8" t="s">
@@ -27020,7 +27300,7 @@
         <f t="shared" si="4"/>
         <v>'Deutscher_17',</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>184</v>
       </c>
       <c r="K85" s="8" t="s">
@@ -27054,7 +27334,7 @@
         <f t="shared" si="4"/>
         <v>'Adler184',</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>185</v>
       </c>
       <c r="K86" s="8" t="s">
@@ -27088,7 +27368,7 @@
         <f t="shared" si="4"/>
         <v>'DeutscheFarben',</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>186</v>
       </c>
       <c r="K87" s="8" t="s">
@@ -27122,7 +27402,7 @@
         <f t="shared" si="4"/>
         <v>'Sachsen_17',</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>187</v>
       </c>
       <c r="K88" s="8" t="s">
@@ -27156,7 +27436,7 @@
         <f t="shared" si="4"/>
         <v>'g_oschi',</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>188</v>
       </c>
       <c r="K89" s="8" t="s">
@@ -27190,7 +27470,7 @@
         <f t="shared" si="4"/>
         <v>'JustAnotherReco',</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>189</v>
       </c>
       <c r="K90" s="8" t="s">
@@ -27224,7 +27504,7 @@
         <f t="shared" si="4"/>
         <v>'MicKurti',</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>190</v>
       </c>
       <c r="K91" s="8" t="s">
@@ -27258,7 +27538,7 @@
         <f t="shared" si="4"/>
         <v>'Shimmy_rhymes',</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>191</v>
       </c>
       <c r="K92" s="8" t="s">
@@ -27292,7 +27572,7 @@
         <f t="shared" si="4"/>
         <v>'AbdulMansoor01',</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>192</v>
       </c>
       <c r="K93" s="8" t="s">
@@ -27326,7 +27606,7 @@
         <f t="shared" si="4"/>
         <v>'Der_Erzgebirger',</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>193</v>
       </c>
       <c r="K94" s="8" t="s">
@@ -27360,7 +27640,7 @@
         <f t="shared" si="4"/>
         <v>'homemimy',</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>194</v>
       </c>
       <c r="K95" s="8" t="s">
@@ -27394,7 +27674,7 @@
         <f t="shared" si="4"/>
         <v>'66Boreas',</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>195</v>
       </c>
       <c r="K96" s="8" t="s">
@@ -27428,7 +27708,7 @@
         <f t="shared" si="4"/>
         <v>'BjrnHansen18',</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>196</v>
       </c>
       <c r="K97" s="8" t="s">
@@ -27462,7 +27742,7 @@
         <f t="shared" si="4"/>
         <v>'77abraxas77',</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>197</v>
       </c>
       <c r="K98" s="8" t="s">
@@ -27496,7 +27776,7 @@
         <f t="shared" si="4"/>
         <v>'jesper_vangroot',</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>198</v>
       </c>
       <c r="K99" s="8" t="s">
@@ -27530,7 +27810,7 @@
         <f t="shared" si="4"/>
         <v>'CyberCrusader14',</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="H100" s="6" t="s">
         <v>199</v>
       </c>
       <c r="K100" s="8" t="s">
@@ -28284,7 +28564,7 @@
         <v>271</v>
       </c>
       <c r="Y129" t="str">
-        <f t="shared" ref="Y129:Y192" si="5">"'"&amp;V129&amp;"',"</f>
+        <f t="shared" ref="Y129:Y192" si="6">"'"&amp;V129&amp;"',"</f>
         <v>'g_oschi',</v>
       </c>
       <c r="AA129" s="8" t="s">
@@ -28308,7 +28588,7 @@
         <v>272</v>
       </c>
       <c r="Y130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'GermanicusMaxus',</v>
       </c>
       <c r="AA130" s="8" t="s">
@@ -28332,7 +28612,7 @@
         <v>273</v>
       </c>
       <c r="Y131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'MissSalander88',</v>
       </c>
       <c r="AA131" s="8" t="s">
@@ -28356,7 +28636,7 @@
         <v>274</v>
       </c>
       <c r="Y132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PeterBergmann14',</v>
       </c>
       <c r="AA132" s="8" t="s">
@@ -28380,7 +28660,7 @@
         <v>275</v>
       </c>
       <c r="Y133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'LARPingKraut',</v>
       </c>
       <c r="AA133" s="8" t="s">
@@ -28404,7 +28684,7 @@
         <v>276</v>
       </c>
       <c r="Y134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'FriedrichsOrden',</v>
       </c>
       <c r="AA134" s="8" t="s">
@@ -28428,7 +28708,7 @@
         <v>277</v>
       </c>
       <c r="Y135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Amygdala712',</v>
       </c>
       <c r="AA135" s="8" t="s">
@@ -28452,7 +28732,7 @@
         <v>278</v>
       </c>
       <c r="Y136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AlexHannoi1896',</v>
       </c>
       <c r="AA136" s="8" t="s">
@@ -28476,7 +28756,7 @@
         <v>280</v>
       </c>
       <c r="Y137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Marius1094',</v>
       </c>
       <c r="AA137" s="8" t="s">
@@ -28500,7 +28780,7 @@
         <v>281</v>
       </c>
       <c r="Y138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'FeuerifritG',</v>
       </c>
       <c r="AA138" s="8" t="s">
@@ -28524,7 +28804,7 @@
         <v>282</v>
       </c>
       <c r="Y139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Tragetreuetrach',</v>
       </c>
       <c r="AA139" s="8" t="s">
@@ -28548,7 +28828,7 @@
         <v>283</v>
       </c>
       <c r="Y140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Silvermachine24',</v>
       </c>
       <c r="AA140" s="8" t="s">
@@ -28572,7 +28852,7 @@
         <v>284</v>
       </c>
       <c r="Y141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AnchardAran',</v>
       </c>
       <c r="AA141" s="8" t="s">
@@ -28596,7 +28876,7 @@
         <v>285</v>
       </c>
       <c r="Y142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'MicKurti',</v>
       </c>
       <c r="AA142" s="8" t="s">
@@ -28620,7 +28900,7 @@
         <v>287</v>
       </c>
       <c r="Y143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Hermann1870',</v>
       </c>
       <c r="AA143" s="8" t="s">
@@ -28644,7 +28924,7 @@
         <v>288</v>
       </c>
       <c r="Y144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'DanielIII3',</v>
       </c>
       <c r="AA144" s="8" t="s">
@@ -28668,7 +28948,7 @@
         <v>2737</v>
       </c>
       <c r="Y145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'JoanaCotar ',</v>
       </c>
       <c r="AA145" s="8" t="s">
@@ -28692,7 +28972,7 @@
         <v>2738</v>
       </c>
       <c r="Y146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Yuma_lein ',</v>
       </c>
       <c r="AA146" s="8" t="s">
@@ -28716,7 +28996,7 @@
         <v>2739</v>
       </c>
       <c r="Y147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'NobileSeba ',</v>
       </c>
       <c r="AA147" s="8" t="s">
@@ -28740,7 +29020,7 @@
         <v>2740</v>
       </c>
       <c r="Y148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Junge_Freiheit ',</v>
       </c>
       <c r="AA148" s="8" t="s">
@@ -28764,7 +29044,7 @@
         <v>2741</v>
       </c>
       <c r="Y149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'SomeXT ',</v>
       </c>
       <c r="AA149" s="8" t="s">
@@ -28788,7 +29068,7 @@
         <v>2742</v>
       </c>
       <c r="Y150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'APatzwahl ',</v>
       </c>
       <c r="AA150" s="8" t="s">
@@ -28809,7 +29089,7 @@
         <v>2743</v>
       </c>
       <c r="Y151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'SteinbachErika ',</v>
       </c>
       <c r="AA151" s="8" t="s">
@@ -28830,7 +29110,7 @@
         <v>2744</v>
       </c>
       <c r="Y152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'neuthfer ',</v>
       </c>
       <c r="AA152" s="8" t="s">
@@ -28851,7 +29131,7 @@
         <v>2745</v>
       </c>
       <c r="Y153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'christianlueth ',</v>
       </c>
       <c r="AA153" s="8" t="s">
@@ -28872,7 +29152,7 @@
         <v>2746</v>
       </c>
       <c r="Y154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'vespasianus69bc',</v>
       </c>
       <c r="AA154" s="8" t="s">
@@ -28893,7 +29173,7 @@
         <v>2747</v>
       </c>
       <c r="Y155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AfDKompakt ',</v>
       </c>
       <c r="AA155" s="8" t="s">
@@ -28914,7 +29194,7 @@
         <v>2748</v>
       </c>
       <c r="Y156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'FraukePetry ',</v>
       </c>
       <c r="AA156" s="8" t="s">
@@ -28935,7 +29215,7 @@
         <v>2749</v>
       </c>
       <c r="Y157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'ri3dl',</v>
       </c>
       <c r="AA157" s="8" t="s">
@@ -28956,7 +29236,7 @@
         <v>2750</v>
       </c>
       <c r="Y158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Martin_Sellner ',</v>
       </c>
       <c r="AA158" s="8" t="s">
@@ -28977,7 +29257,7 @@
         <v>2751</v>
       </c>
       <c r="Y159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AfD_Support ',</v>
       </c>
       <c r="AA159" s="8" t="s">
@@ -28998,7 +29278,7 @@
         <v>2752</v>
       </c>
       <c r="Y160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'huldave23',</v>
       </c>
       <c r="AA160" s="8" t="s">
@@ -29019,7 +29299,7 @@
         <v>2753</v>
       </c>
       <c r="Y161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'aufklaerer2017',</v>
       </c>
       <c r="AA161" s="8" t="s">
@@ -29040,7 +29320,7 @@
         <v>2754</v>
       </c>
       <c r="Y162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'BjoernHoecke ',</v>
       </c>
       <c r="AA162" s="8" t="s">
@@ -29061,7 +29341,7 @@
         <v>2755</v>
       </c>
       <c r="Y163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PatrickLenart ',</v>
       </c>
       <c r="AA163" s="8" t="s">
@@ -29082,7 +29362,7 @@
         <v>2756</v>
       </c>
       <c r="Y164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'ShakRiet ',</v>
       </c>
       <c r="AA164" s="8" t="s">
@@ -29103,7 +29383,7 @@
         <v>2757</v>
       </c>
       <c r="Y165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'EstelleSmith64',</v>
       </c>
       <c r="AA165" s="8" t="s">
@@ -29124,7 +29404,7 @@
         <v>2758</v>
       </c>
       <c r="Y166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'UbbelohdeBerlin ',</v>
       </c>
       <c r="AA166" s="8" t="s">
@@ -29145,7 +29425,7 @@
         <v>2759</v>
       </c>
       <c r="Y167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'lawyerberlin ',</v>
       </c>
       <c r="AA167" s="8" t="s">
@@ -29166,7 +29446,7 @@
         <v>2760</v>
       </c>
       <c r="Y168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'DrDavidBerger ',</v>
       </c>
       <c r="AA168" s="8" t="s">
@@ -29187,7 +29467,7 @@
         <v>2761</v>
       </c>
       <c r="Y169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Hartes_Geld ',</v>
       </c>
       <c r="AA169" s="8" t="s">
@@ -29208,7 +29488,7 @@
         <v>2762</v>
       </c>
       <c r="Y170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AfD_Chan ',</v>
       </c>
       <c r="AA170" s="8" t="s">
@@ -29229,7 +29509,7 @@
         <v>2763</v>
       </c>
       <c r="Y171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'ReneTruninger ',</v>
       </c>
       <c r="AA171" s="8" t="s">
@@ -29250,7 +29530,7 @@
         <v>2764</v>
       </c>
       <c r="Y172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'MiriamOzen ',</v>
       </c>
       <c r="AA172" s="8" t="s">
@@ -29271,7 +29551,7 @@
         <v>2765</v>
       </c>
       <c r="Y173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PauleHasi13',</v>
       </c>
       <c r="AA173" s="8" t="s">
@@ -29292,7 +29572,7 @@
         <v>2766</v>
       </c>
       <c r="Y174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PoggenburgAndre ',</v>
       </c>
       <c r="AA174" s="8" t="s">
@@ -29313,7 +29593,7 @@
         <v>2767</v>
       </c>
       <c r="Y175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Kranzschwinger ',</v>
       </c>
       <c r="AA175" s="8" t="s">
@@ -29334,7 +29614,7 @@
         <v>2768</v>
       </c>
       <c r="Y176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Bedb_Puetz ',</v>
       </c>
       <c r="AA176" s="15" t="s">
@@ -29355,7 +29635,7 @@
         <v>2769</v>
       </c>
       <c r="Y177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'HughBronson_AfD ',</v>
       </c>
       <c r="AA177" s="8" t="s">
@@ -29376,7 +29656,7 @@
         <v>2770</v>
       </c>
       <c r="Y178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'haraldlaatsch ',</v>
       </c>
       <c r="AA178" s="8" t="s">
@@ -29397,7 +29677,7 @@
         <v>2771</v>
       </c>
       <c r="Y179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'politoreality ',</v>
       </c>
       <c r="AA179" s="8" t="s">
@@ -29418,7 +29698,7 @@
         <v>2772</v>
       </c>
       <c r="Y180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'ThomasGrallla ',</v>
       </c>
       <c r="AA180" s="8" t="s">
@@ -29439,7 +29719,7 @@
         <v>2773</v>
       </c>
       <c r="Y181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'hamaro777',</v>
       </c>
       <c r="AA181" s="8" t="s">
@@ -29460,7 +29740,7 @@
         <v>2774</v>
       </c>
       <c r="Y182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'JoeyGerlach ',</v>
       </c>
       <c r="AA182" s="8" t="s">
@@ -29481,7 +29761,7 @@
         <v>2775</v>
       </c>
       <c r="Y183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Joerg_Meuthen ',</v>
       </c>
       <c r="AA183" s="8" t="s">
@@ -29502,7 +29782,7 @@
         <v>2776</v>
       </c>
       <c r="Y184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'dushanwegner ',</v>
       </c>
       <c r="AA184" s="8" t="s">
@@ -29523,7 +29803,7 @@
         <v>2777</v>
       </c>
       <c r="Y185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'IngoNorge ',</v>
       </c>
       <c r="AA185" s="8" t="s">
@@ -29544,7 +29824,7 @@
         <v>2778</v>
       </c>
       <c r="Y186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AfD_Bv_HH_Nord ',</v>
       </c>
       <c r="AA186" s="8" t="s">
@@ -29565,7 +29845,7 @@
         <v>2779</v>
       </c>
       <c r="Y187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'AfDFraktionAGH ',</v>
       </c>
       <c r="AA187" s="8" t="s">
@@ -29586,7 +29866,7 @@
         <v>2780</v>
       </c>
       <c r="Y188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'rove_we ',</v>
       </c>
       <c r="AA188" s="8" t="s">
@@ -29607,7 +29887,7 @@
         <v>2781</v>
       </c>
       <c r="Y189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Beatrix_vStorch ',</v>
       </c>
       <c r="AA189" s="8" t="s">
@@ -29628,7 +29908,7 @@
         <v>2782</v>
       </c>
       <c r="Y190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'OliverJanich ',</v>
       </c>
       <c r="AA190" s="8" t="s">
@@ -29647,7 +29927,7 @@
         <v>2783</v>
       </c>
       <c r="Y191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'krippmarie ',</v>
       </c>
       <c r="AA191" s="8" t="s">
@@ -29666,7 +29946,7 @@
         <v>2784</v>
       </c>
       <c r="Y192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'krk979',</v>
       </c>
       <c r="AA192" s="8" t="s">
@@ -29687,7 +29967,7 @@
         <v>2785</v>
       </c>
       <c r="Y193" t="str">
-        <f t="shared" ref="Y193:Y256" si="6">"'"&amp;V193&amp;"',"</f>
+        <f t="shared" ref="Y193:Y256" si="7">"'"&amp;V193&amp;"',"</f>
         <v>'AfD ',</v>
       </c>
       <c r="AA193" s="8" t="s">
@@ -29708,7 +29988,7 @@
         <v>2786</v>
       </c>
       <c r="Y194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Laura_in_Joy ',</v>
       </c>
       <c r="AA194" s="8" t="s">
@@ -29729,7 +30009,7 @@
         <v>2787</v>
       </c>
       <c r="Y195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Varg_I_Veum ',</v>
       </c>
       <c r="AA195" s="8" t="s">
@@ -29750,7 +30030,7 @@
         <v>2788</v>
       </c>
       <c r="Y196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Sortex ',</v>
       </c>
       <c r="AA196" s="8" t="s">
@@ -29771,7 +30051,7 @@
         <v>2789</v>
       </c>
       <c r="Y197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'djrpglol ',</v>
       </c>
       <c r="AA197" s="8" t="s">
@@ -29792,7 +30072,7 @@
         <v>2790</v>
       </c>
       <c r="Y198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'GtzFrmming ',</v>
       </c>
       <c r="AA198" s="8" t="s">
@@ -29813,7 +30093,7 @@
         <v>2791</v>
       </c>
       <c r="Y199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Frank_Pasemann ',</v>
       </c>
       <c r="AA199" s="8" t="s">
@@ -29834,7 +30114,7 @@
         <v>2792</v>
       </c>
       <c r="Y200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'COMPACTMagazin ',</v>
       </c>
       <c r="AA200" s="8" t="s">
@@ -29855,7 +30135,7 @@
         <v>2793</v>
       </c>
       <c r="Y201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'RolandTichy ',</v>
       </c>
       <c r="AA201" s="8" t="s">
@@ -29876,7 +30156,7 @@
         <v>369</v>
       </c>
       <c r="Y202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'JStaltenberg',</v>
       </c>
       <c r="AA202" s="8" t="s">
@@ -29897,7 +30177,7 @@
         <v>370</v>
       </c>
       <c r="Y203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Grals_Hueter',</v>
       </c>
       <c r="AA203" s="8" t="s">
@@ -29918,7 +30198,7 @@
         <v>371</v>
       </c>
       <c r="Y204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'PastillenFelixx',</v>
       </c>
       <c r="AA204" s="8" t="s">
@@ -29939,7 +30219,7 @@
         <v>373</v>
       </c>
       <c r="Y205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'P_I',</v>
       </c>
       <c r="AA205" s="8" t="s">
@@ -29960,7 +30240,7 @@
         <v>374</v>
       </c>
       <c r="Y206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'wegmitspam2',</v>
       </c>
       <c r="AA206" s="8" t="s">
@@ -29981,7 +30261,7 @@
         <v>375</v>
       </c>
       <c r="Y207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'peterbeta69',</v>
       </c>
       <c r="AA207" s="8" t="s">
@@ -30002,7 +30282,7 @@
         <v>376</v>
       </c>
       <c r="Y208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'RatInYourBoot',</v>
       </c>
       <c r="AA208" s="8" t="s">
@@ -30023,7 +30303,7 @@
         <v>379</v>
       </c>
       <c r="Y209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'IsidorMeyer1',</v>
       </c>
       <c r="AA209" s="8" t="s">
@@ -30044,7 +30324,7 @@
         <v>380</v>
       </c>
       <c r="Y210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Meckerschwabe',</v>
       </c>
       <c r="AA210" s="8" t="s">
@@ -30065,7 +30345,7 @@
         <v>381</v>
       </c>
       <c r="Y211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'reliep_dave',</v>
       </c>
       <c r="AA211" s="8" t="s">
@@ -30086,7 +30366,7 @@
         <v>382</v>
       </c>
       <c r="Y212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Empfehlung1',</v>
       </c>
       <c r="AA212" s="8" t="s">
@@ -30107,7 +30387,7 @@
         <v>383</v>
       </c>
       <c r="Y213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'OdmantSuperstar',</v>
       </c>
       <c r="AA213" s="8" t="s">
@@ -30128,7 +30408,7 @@
         <v>384</v>
       </c>
       <c r="Y214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FcmMicha1',</v>
       </c>
       <c r="AA214" s="8" t="s">
@@ -30149,7 +30429,7 @@
         <v>385</v>
       </c>
       <c r="Y215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'theotherroots',</v>
       </c>
       <c r="AA215" s="8" t="s">
@@ -30170,7 +30450,7 @@
         <v>386</v>
       </c>
       <c r="Y216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'rolf_walser',</v>
       </c>
       <c r="AA216" s="8" t="s">
@@ -30191,7 +30471,7 @@
         <v>387</v>
       </c>
       <c r="Y217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'mephistophi',</v>
       </c>
       <c r="AA217" s="8" t="s">
@@ -30212,7 +30492,7 @@
         <v>388</v>
       </c>
       <c r="Y218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'RiftHeraldine',</v>
       </c>
       <c r="AA218" s="8" t="s">
@@ -30233,7 +30513,7 @@
         <v>391</v>
       </c>
       <c r="Y219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfD_HD',</v>
       </c>
       <c r="AA219" s="8" t="s">
@@ -30254,7 +30534,7 @@
         <v>392</v>
       </c>
       <c r="Y220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'packofant',</v>
       </c>
       <c r="AA220" s="8" t="s">
@@ -30275,7 +30555,7 @@
         <v>393</v>
       </c>
       <c r="Y221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'RauteDesGrauens',</v>
       </c>
       <c r="AA221" s="8" t="s">
@@ -30296,7 +30576,7 @@
         <v>394</v>
       </c>
       <c r="Y222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Europolitikum',</v>
       </c>
       <c r="AA222" s="8" t="s">
@@ -30317,7 +30597,7 @@
         <v>395</v>
       </c>
       <c r="Y223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FreiesNetzHarz',</v>
       </c>
       <c r="AA223" s="8" t="s">
@@ -30338,7 +30618,7 @@
         <v>396</v>
       </c>
       <c r="Y224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'junkde17',</v>
       </c>
       <c r="AA224" s="8" t="s">
@@ -30359,7 +30639,7 @@
         <v>397</v>
       </c>
       <c r="Y225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'montagsdemoGIDA',</v>
       </c>
       <c r="AA225" s="8" t="s">
@@ -30380,7 +30660,7 @@
         <v>399</v>
       </c>
       <c r="Y226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Rambonelli',</v>
       </c>
       <c r="AA226" s="8" t="s">
@@ -30401,7 +30681,7 @@
         <v>400</v>
       </c>
       <c r="Y227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'kossonosow',</v>
       </c>
       <c r="AA227" s="8" t="s">
@@ -30422,7 +30702,7 @@
         <v>402</v>
       </c>
       <c r="Y228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'gunfunner',</v>
       </c>
       <c r="AA228" s="8" t="s">
@@ -30443,7 +30723,7 @@
         <v>404</v>
       </c>
       <c r="Y229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'ThuleErik',</v>
       </c>
       <c r="AA229" s="8" t="s">
@@ -30464,7 +30744,7 @@
         <v>405</v>
       </c>
       <c r="Y230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AchimW',</v>
       </c>
       <c r="AA230" s="8" t="s">
@@ -30485,7 +30765,7 @@
         <v>408</v>
       </c>
       <c r="Y231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Koschda77',</v>
       </c>
       <c r="AA231" s="8" t="s">
@@ -30506,7 +30786,7 @@
         <v>411</v>
       </c>
       <c r="Y232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Adventure_Ost',</v>
       </c>
       <c r="AA232" s="8" t="s">
@@ -30527,7 +30807,7 @@
         <v>412</v>
       </c>
       <c r="Y233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'anur_chrik',</v>
       </c>
       <c r="AA233" s="8" t="s">
@@ -30548,7 +30828,7 @@
         <v>413</v>
       </c>
       <c r="Y234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'TPEssen',</v>
       </c>
       <c r="AA234" s="8" t="s">
@@ -30569,7 +30849,7 @@
         <v>414</v>
       </c>
       <c r="Y235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AbagnaleF',</v>
       </c>
       <c r="AA235" s="8" t="s">
@@ -30590,7 +30870,7 @@
         <v>415</v>
       </c>
       <c r="Y236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'kugelfisch',</v>
       </c>
       <c r="AA236" s="8" t="s">
@@ -30611,7 +30891,7 @@
         <v>417</v>
       </c>
       <c r="Y237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'plasticfinger',</v>
       </c>
       <c r="AA237" s="8" t="s">
@@ -30632,7 +30912,7 @@
         <v>418</v>
       </c>
       <c r="Y238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'liberty2k15',</v>
       </c>
       <c r="AA238" s="8" t="s">
@@ -30653,7 +30933,7 @@
         <v>420</v>
       </c>
       <c r="Y239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'brandenburgDE',</v>
       </c>
       <c r="AA239" s="8" t="s">
@@ -30674,7 +30954,7 @@
         <v>421</v>
       </c>
       <c r="Y240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'EnglerMD',</v>
       </c>
       <c r="AA240" s="8" t="s">
@@ -30695,7 +30975,7 @@
         <v>423</v>
       </c>
       <c r="Y241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'sx200a',</v>
       </c>
       <c r="AA241" s="8" t="s">
@@ -30716,7 +30996,7 @@
         <v>424</v>
       </c>
       <c r="Y242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'sitara695',</v>
       </c>
       <c r="AA242" s="8" t="s">
@@ -30737,7 +31017,7 @@
         <v>425</v>
       </c>
       <c r="Y243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Vivi_Virtual',</v>
       </c>
       <c r="AA243" s="15" t="s">
@@ -30758,7 +31038,7 @@
         <v>427</v>
       </c>
       <c r="Y244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FranzChristia15',</v>
       </c>
       <c r="AA244" s="8" t="s">
@@ -30779,7 +31059,7 @@
         <v>428</v>
       </c>
       <c r="Y245" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Frau_Al3X',</v>
       </c>
       <c r="AA245" s="8" t="s">
@@ -30800,7 +31080,7 @@
         <v>429</v>
       </c>
       <c r="Y246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'manzinus66',</v>
       </c>
       <c r="AA246" s="8" t="s">
@@ -30821,7 +31101,7 @@
         <v>430</v>
       </c>
       <c r="Y247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'gerry6868',</v>
       </c>
       <c r="AA247" s="8" t="s">
@@ -30842,7 +31122,7 @@
         <v>432</v>
       </c>
       <c r="Y248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Carl_____Smith',</v>
       </c>
       <c r="AA248" s="8" t="s">
@@ -30863,7 +31143,7 @@
         <v>433</v>
       </c>
       <c r="Y249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'xela_jena',</v>
       </c>
       <c r="AA249" s="8" t="s">
@@ -30884,7 +31164,7 @@
         <v>434</v>
       </c>
       <c r="Y250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'roem1212',</v>
       </c>
       <c r="AA250" s="8" t="s">
@@ -30905,7 +31185,7 @@
         <v>435</v>
       </c>
       <c r="Y251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'wasistzeitgeist',</v>
       </c>
       <c r="AA251" s="8" t="s">
@@ -30926,7 +31206,7 @@
         <v>436</v>
       </c>
       <c r="Y252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'BRadsavljevic',</v>
       </c>
       <c r="AA252" s="8" t="s">
@@ -30947,7 +31227,7 @@
         <v>437</v>
       </c>
       <c r="Y253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'MVallendar',</v>
       </c>
       <c r="AA253" s="8" t="s">
@@ -30968,7 +31248,7 @@
         <v>440</v>
       </c>
       <c r="Y254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'tweecix',</v>
       </c>
       <c r="AA254" s="8" t="s">
@@ -30989,7 +31269,7 @@
         <v>441</v>
       </c>
       <c r="Y255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Zeit_fuer_AfD',</v>
       </c>
       <c r="AA255" s="8" t="s">
@@ -31010,7 +31290,7 @@
         <v>442</v>
       </c>
       <c r="Y256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'CarolaMertin',</v>
       </c>
       <c r="AA256" s="8" t="s">
@@ -31031,7 +31311,7 @@
         <v>443</v>
       </c>
       <c r="Y257" t="str">
-        <f t="shared" ref="Y257:Y320" si="7">"'"&amp;V257&amp;"',"</f>
+        <f t="shared" ref="Y257:Y320" si="8">"'"&amp;V257&amp;"',"</f>
         <v>'mongojunge',</v>
       </c>
       <c r="AA257" s="8" t="s">
@@ -31052,7 +31332,7 @@
         <v>444</v>
       </c>
       <c r="Y258" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Burschenschaft',</v>
       </c>
       <c r="AA258" s="8" t="s">
@@ -31073,7 +31353,7 @@
         <v>446</v>
       </c>
       <c r="Y259" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Falconsmember',</v>
       </c>
       <c r="AA259" s="8" t="s">
@@ -31094,7 +31374,7 @@
         <v>447</v>
       </c>
       <c r="Y260" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'mrgoodnews',</v>
       </c>
       <c r="AA260" s="8" t="s">
@@ -31115,7 +31395,7 @@
         <v>448</v>
       </c>
       <c r="Y261" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'ThorOdinsonDR',</v>
       </c>
       <c r="AA261" s="8" t="s">
@@ -31136,7 +31416,7 @@
         <v>449</v>
       </c>
       <c r="Y262" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Seinschein7',</v>
       </c>
       <c r="AA262" s="8" t="s">
@@ -31157,7 +31437,7 @@
         <v>450</v>
       </c>
       <c r="Y263" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Boesmensch60488',</v>
       </c>
       <c r="AA263" s="8" t="s">
@@ -31178,7 +31458,7 @@
         <v>452</v>
       </c>
       <c r="Y264" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'umbilicussuevia',</v>
       </c>
       <c r="AA264" s="8" t="s">
@@ -31199,7 +31479,7 @@
         <v>453</v>
       </c>
       <c r="Y265" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'GrexitNow',</v>
       </c>
       <c r="AA265" s="8" t="s">
@@ -31220,7 +31500,7 @@
         <v>455</v>
       </c>
       <c r="Y266" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Nessie43',</v>
       </c>
       <c r="AA266" s="8" t="s">
@@ -31241,7 +31521,7 @@
         <v>456</v>
       </c>
       <c r="Y267" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'DrMinimax',</v>
       </c>
       <c r="AA267" s="8" t="s">
@@ -31262,7 +31542,7 @@
         <v>457</v>
       </c>
       <c r="Y268" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Zarah_Zylinder',</v>
       </c>
       <c r="AA268" s="8" t="s">
@@ -31283,7 +31563,7 @@
         <v>458</v>
       </c>
       <c r="Y269" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'derschmidtjens',</v>
       </c>
       <c r="AA269" s="8" t="s">
@@ -31304,7 +31584,7 @@
         <v>460</v>
       </c>
       <c r="Y270" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Skototaxis',</v>
       </c>
       <c r="AA270" s="8" t="s">
@@ -31325,7 +31605,7 @@
         <v>461</v>
       </c>
       <c r="Y271" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'schmidja2017',</v>
       </c>
       <c r="AA271" s="8" t="s">
@@ -31346,7 +31626,7 @@
         <v>462</v>
       </c>
       <c r="Y272" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'MeineHauptstadt',</v>
       </c>
       <c r="AA272" s="8" t="s">
@@ -31367,7 +31647,7 @@
         <v>464</v>
       </c>
       <c r="Y273" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'MamfredoMawi',</v>
       </c>
       <c r="AA273" s="8" t="s">
@@ -31388,7 +31668,7 @@
         <v>466</v>
       </c>
       <c r="Y274" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AndreeZiebell',</v>
       </c>
       <c r="AA274" s="8" t="s">
@@ -31409,7 +31689,7 @@
         <v>467</v>
       </c>
       <c r="Y275" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'NanoFi44',</v>
       </c>
       <c r="AA275" s="8" t="s">
@@ -31430,7 +31710,7 @@
         <v>468</v>
       </c>
       <c r="Y276" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'darktweep',</v>
       </c>
       <c r="AA276" s="8" t="s">
@@ -31451,7 +31731,7 @@
         <v>469</v>
       </c>
       <c r="Y277" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'frag_Dietrun',</v>
       </c>
       <c r="AA277" s="8" t="s">
@@ -31472,7 +31752,7 @@
         <v>471</v>
       </c>
       <c r="Y278" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'JeannetteLeipz2',</v>
       </c>
       <c r="AA278" s="8" t="s">
@@ -31493,7 +31773,7 @@
         <v>472</v>
       </c>
       <c r="Y279" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'haljam26',</v>
       </c>
       <c r="AA279" s="8" t="s">
@@ -31514,7 +31794,7 @@
         <v>473</v>
       </c>
       <c r="Y280" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'utopia23_',</v>
       </c>
       <c r="AA280" s="8" t="s">
@@ -31535,7 +31815,7 @@
         <v>474</v>
       </c>
       <c r="Y281" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Westhim',</v>
       </c>
       <c r="AA281" s="8" t="s">
@@ -31556,7 +31836,7 @@
         <v>475</v>
       </c>
       <c r="Y282" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'ausbilders',</v>
       </c>
       <c r="AA282" s="8" t="s">
@@ -31577,7 +31857,7 @@
         <v>476</v>
       </c>
       <c r="Y283" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'buendnis',</v>
       </c>
       <c r="AA283" s="8" t="s">
@@ -31598,7 +31878,7 @@
         <v>477</v>
       </c>
       <c r="Y284" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'tomygieb',</v>
       </c>
       <c r="AA284" s="8" t="s">
@@ -31619,7 +31899,7 @@
         <v>478</v>
       </c>
       <c r="Y285" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'tizian52',</v>
       </c>
       <c r="AA285" s="8" t="s">
@@ -31640,7 +31920,7 @@
         <v>479</v>
       </c>
       <c r="Y286" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'MaurersSchorsch',</v>
       </c>
       <c r="AA286" s="8" t="s">
@@ -31661,7 +31941,7 @@
         <v>480</v>
       </c>
       <c r="Y287" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'SwitchAngel1975',</v>
       </c>
       <c r="AA287" s="8" t="s">
@@ -31682,7 +31962,7 @@
         <v>483</v>
       </c>
       <c r="Y288" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Systemerkel',</v>
       </c>
       <c r="AA288" s="8" t="s">
@@ -31703,7 +31983,7 @@
         <v>484</v>
       </c>
       <c r="Y289" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'NorgePrivacy',</v>
       </c>
       <c r="AA289" s="8" t="s">
@@ -31724,7 +32004,7 @@
         <v>485</v>
       </c>
       <c r="Y290" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Bernemerbub',</v>
       </c>
       <c r="AA290" s="8" t="s">
@@ -31745,7 +32025,7 @@
         <v>486</v>
       </c>
       <c r="Y291" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'B_Denklich',</v>
       </c>
       <c r="AA291" s="8" t="s">
@@ -31766,7 +32046,7 @@
         <v>487</v>
       </c>
       <c r="Y292" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'rocknord',</v>
       </c>
       <c r="AA292" s="8" t="s">
@@ -31787,7 +32067,7 @@
         <v>488</v>
       </c>
       <c r="Y293" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Botchamba',</v>
       </c>
       <c r="AA293" s="8" t="s">
@@ -31808,7 +32088,7 @@
         <v>489</v>
       </c>
       <c r="Y294" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'baronofstone',</v>
       </c>
       <c r="AA294" s="8" t="s">
@@ -31829,7 +32109,7 @@
         <v>490</v>
       </c>
       <c r="Y295" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Cor_Scipio',</v>
       </c>
       <c r="AA295" s="8" t="s">
@@ -31850,7 +32130,7 @@
         <v>492</v>
       </c>
       <c r="Y296" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'miguel7788',</v>
       </c>
       <c r="AA296" s="8" t="s">
@@ -31868,7 +32148,7 @@
         <v>493</v>
       </c>
       <c r="Y297" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Kanonenfutter82',</v>
       </c>
       <c r="AA297" s="8" t="s">
@@ -31886,7 +32166,7 @@
         <v>494</v>
       </c>
       <c r="Y298" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'InDerSee',</v>
       </c>
       <c r="AA298" s="8" t="s">
@@ -31904,7 +32184,7 @@
         <v>495</v>
       </c>
       <c r="Y299" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Snape_Sama',</v>
       </c>
       <c r="AA299" s="8" t="s">
@@ -31922,7 +32202,7 @@
         <v>496</v>
       </c>
       <c r="Y300" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'123buzios',</v>
       </c>
       <c r="AA300" s="8" t="s">
@@ -31940,7 +32220,7 @@
         <v>497</v>
       </c>
       <c r="Y301" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Neodeutscher',</v>
       </c>
       <c r="AA301" s="8" t="s">
@@ -31958,7 +32238,7 @@
         <v>498</v>
       </c>
       <c r="Y302" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'vonRoehling',</v>
       </c>
       <c r="AA302" s="8" t="s">
@@ -31976,7 +32256,7 @@
         <v>500</v>
       </c>
       <c r="Y303" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AlterUhu',</v>
       </c>
       <c r="AA303" s="8" t="s">
@@ -31994,7 +32274,7 @@
         <v>502</v>
       </c>
       <c r="Y304" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'pantau70847839',</v>
       </c>
       <c r="AA304" s="8" t="s">
@@ -32012,7 +32292,7 @@
         <v>503</v>
       </c>
       <c r="Y305" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'woli2017',</v>
       </c>
       <c r="AA305" s="8" t="s">
@@ -32030,7 +32310,7 @@
         <v>504</v>
       </c>
       <c r="Y306" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'v_palme',</v>
       </c>
       <c r="AA306" s="8" t="s">
@@ -32048,7 +32328,7 @@
         <v>506</v>
       </c>
       <c r="Y307" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Hexlepia',</v>
       </c>
       <c r="AA307" s="8" t="s">
@@ -32066,7 +32346,7 @@
         <v>507</v>
       </c>
       <c r="Y308" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'hatmitnixzutun',</v>
       </c>
       <c r="AA308" s="8" t="s">
@@ -32084,7 +32364,7 @@
         <v>508</v>
       </c>
       <c r="Y309" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'kingknorr',</v>
       </c>
       <c r="AA309" s="8" t="s">
@@ -32102,7 +32382,7 @@
         <v>509</v>
       </c>
       <c r="Y310" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'aotearoa12345',</v>
       </c>
       <c r="AA310" s="8" t="s">
@@ -32120,7 +32400,7 @@
         <v>510</v>
       </c>
       <c r="Y311" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'bulgehot',</v>
       </c>
       <c r="AA311" s="8" t="s">
@@ -32138,7 +32418,7 @@
         <v>511</v>
       </c>
       <c r="Y312" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'stopp_merkel',</v>
       </c>
       <c r="AA312" s="8" t="s">
@@ -32156,7 +32436,7 @@
         <v>513</v>
       </c>
       <c r="Y313" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AfD_Freunde',</v>
       </c>
       <c r="AA313" s="8" t="s">
@@ -32174,7 +32454,7 @@
         <v>514</v>
       </c>
       <c r="Y314" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'OlQuit',</v>
       </c>
       <c r="AA314" s="8" t="s">
@@ -32192,7 +32472,7 @@
         <v>515</v>
       </c>
       <c r="Y315" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'eysvog3l',</v>
       </c>
       <c r="AA315" s="8" t="s">
@@ -32210,7 +32490,7 @@
         <v>516</v>
       </c>
       <c r="Y316" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'KaufmannTonia',</v>
       </c>
       <c r="AA316" s="8" t="s">
@@ -32228,7 +32508,7 @@
         <v>518</v>
       </c>
       <c r="Y317" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'crabonace',</v>
       </c>
       <c r="AA317" s="8" t="s">
@@ -32246,7 +32526,7 @@
         <v>519</v>
       </c>
       <c r="Y318" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AfD_Bayern',</v>
       </c>
       <c r="AA318" s="8" t="s">
@@ -32264,7 +32544,7 @@
         <v>520</v>
       </c>
       <c r="Y319" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Zukunftskinder',</v>
       </c>
       <c r="AA319" s="8" t="s">
@@ -32282,7 +32562,7 @@
         <v>521</v>
       </c>
       <c r="Y320" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'orakel',</v>
       </c>
       <c r="AA320" s="8" t="s">
@@ -32300,7 +32580,7 @@
         <v>522</v>
       </c>
       <c r="Y321" t="str">
-        <f t="shared" ref="Y321:Y384" si="8">"'"&amp;V321&amp;"',"</f>
+        <f t="shared" ref="Y321:Y384" si="9">"'"&amp;V321&amp;"',"</f>
         <v>'Aequilibratis',</v>
       </c>
       <c r="AA321" s="8" t="s">
@@ -32318,7 +32598,7 @@
         <v>523</v>
       </c>
       <c r="Y322" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'PinocchioPresse',</v>
       </c>
       <c r="AA322" s="8" t="s">
@@ -32336,7 +32616,7 @@
         <v>524</v>
       </c>
       <c r="Y323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'DPflugk',</v>
       </c>
       <c r="AA323" s="8" t="s">
@@ -32354,7 +32634,7 @@
         <v>525</v>
       </c>
       <c r="Y324" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'chrisjuko',</v>
       </c>
       <c r="AA324" s="8" t="s">
@@ -32372,7 +32652,7 @@
         <v>527</v>
       </c>
       <c r="Y325" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'realmilkfan',</v>
       </c>
       <c r="AA325" s="8" t="s">
@@ -32390,7 +32670,7 @@
         <v>529</v>
       </c>
       <c r="Y326" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'janine_2209',</v>
       </c>
       <c r="AA326" s="8" t="s">
@@ -32408,7 +32688,7 @@
         <v>530</v>
       </c>
       <c r="Y327" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Ralf__B',</v>
       </c>
       <c r="AA327" s="8" t="s">
@@ -32426,7 +32706,7 @@
         <v>531</v>
       </c>
       <c r="Y328" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Creactic',</v>
       </c>
       <c r="AA328" s="8" t="s">
@@ -32444,7 +32724,7 @@
         <v>532</v>
       </c>
       <c r="Y329" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'willygyn12',</v>
       </c>
       <c r="AA329" s="8" t="s">
@@ -32462,7 +32742,7 @@
         <v>533</v>
       </c>
       <c r="Y330" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'kritischepress1',</v>
       </c>
       <c r="AA330" s="8" t="s">
@@ -32480,7 +32760,7 @@
         <v>534</v>
       </c>
       <c r="Y331" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'JensMaierAfD',</v>
       </c>
       <c r="AA331" s="8" t="s">
@@ -32498,7 +32778,7 @@
         <v>535</v>
       </c>
       <c r="Y332" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'HolgerScherer',</v>
       </c>
       <c r="AA332" s="8" t="s">
@@ -32516,7 +32796,7 @@
         <v>537</v>
       </c>
       <c r="Y333" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'von_Gneisenau',</v>
       </c>
       <c r="AA333" s="8" t="s">
@@ -32534,7 +32814,7 @@
         <v>538</v>
       </c>
       <c r="Y334" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Junge_Freiheit_',</v>
       </c>
       <c r="AA334" s="8" t="s">
@@ -32552,7 +32832,7 @@
         <v>539</v>
       </c>
       <c r="Y335" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Schmidtstahl',</v>
       </c>
       <c r="AA335" s="8" t="s">
@@ -32570,7 +32850,7 @@
         <v>540</v>
       </c>
       <c r="Y336" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Troeglitz',</v>
       </c>
       <c r="AA336" s="8" t="s">
@@ -32588,7 +32868,7 @@
         <v>541</v>
       </c>
       <c r="Y337" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'C_lesDeuxEglise',</v>
       </c>
       <c r="AA337" s="8" t="s">
@@ -32606,7 +32886,7 @@
         <v>542</v>
       </c>
       <c r="Y338" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'meerlaurer',</v>
       </c>
       <c r="AA338" s="8" t="s">
@@ -32624,7 +32904,7 @@
         <v>543</v>
       </c>
       <c r="Y339" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'RechterSpinner',</v>
       </c>
       <c r="AA339" s="8" t="s">
@@ -32642,7 +32922,7 @@
         <v>544</v>
       </c>
       <c r="Y340" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'DjValentino45',</v>
       </c>
       <c r="AA340" s="8" t="s">
@@ -32660,7 +32940,7 @@
         <v>545</v>
       </c>
       <c r="Y341" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'karlkramer1',</v>
       </c>
       <c r="AA341" s="8" t="s">
@@ -32678,7 +32958,7 @@
         <v>547</v>
       </c>
       <c r="Y342" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'OStDTaft',</v>
       </c>
       <c r="AA342" s="8" t="s">
@@ -32696,7 +32976,7 @@
         <v>549</v>
       </c>
       <c r="Y343" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'popular33619',</v>
       </c>
       <c r="AA343" s="8" t="s">
@@ -32714,7 +32994,7 @@
         <v>550</v>
       </c>
       <c r="Y344" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'andere110',</v>
       </c>
       <c r="AA344" s="8" t="s">
@@ -32732,7 +33012,7 @@
         <v>551</v>
       </c>
       <c r="Y345" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'ChristianBaier1',</v>
       </c>
       <c r="AA345" s="8" t="s">
@@ -32750,7 +33030,7 @@
         <v>552</v>
       </c>
       <c r="Y346" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'matialkai',</v>
       </c>
       <c r="AA346" s="8" t="s">
@@ -32768,7 +33048,7 @@
         <v>553</v>
       </c>
       <c r="Y347" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'DonTraghi',</v>
       </c>
       <c r="AA347" s="8" t="s">
@@ -32786,7 +33066,7 @@
         <v>554</v>
       </c>
       <c r="Y348" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Lionicon1',</v>
       </c>
       <c r="AA348" s="8" t="s">
@@ -32804,7 +33084,7 @@
         <v>555</v>
       </c>
       <c r="Y349" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Gwittertott',</v>
       </c>
       <c r="AA349" s="8" t="s">
@@ -32822,7 +33102,7 @@
         <v>556</v>
       </c>
       <c r="Y350" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Tom1643F',</v>
       </c>
       <c r="AA350" s="8" t="s">
@@ -32840,7 +33120,7 @@
         <v>557</v>
       </c>
       <c r="Y351" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Rivanov5',</v>
       </c>
       <c r="AA351" s="8" t="s">
@@ -32858,7 +33138,7 @@
         <v>558</v>
       </c>
       <c r="Y352" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Neidhammel',</v>
       </c>
       <c r="AA352" s="8" t="s">
@@ -32876,7 +33156,7 @@
         <v>559</v>
       </c>
       <c r="Y353" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Paragraph1Ralph',</v>
       </c>
       <c r="AA353" s="8" t="s">
@@ -32894,7 +33174,7 @@
         <v>560</v>
       </c>
       <c r="Y354" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Milhous_vanH',</v>
       </c>
       <c r="AA354" s="8" t="s">
@@ -32912,7 +33192,7 @@
         <v>561</v>
       </c>
       <c r="Y355" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'denk_net_noch',</v>
       </c>
       <c r="AA355" s="8" t="s">
@@ -32930,7 +33210,7 @@
         <v>562</v>
       </c>
       <c r="Y356" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'patriot_ch',</v>
       </c>
       <c r="AA356" s="8" t="s">
@@ -32948,7 +33228,7 @@
         <v>563</v>
       </c>
       <c r="Y357" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'AueMicha',</v>
       </c>
       <c r="AA357" s="8" t="s">
@@ -32966,7 +33246,7 @@
         <v>565</v>
       </c>
       <c r="Y358" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'faho74',</v>
       </c>
       <c r="AA358" s="8" t="s">
@@ -32984,7 +33264,7 @@
         <v>567</v>
       </c>
       <c r="Y359" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'gerrie352',</v>
       </c>
       <c r="AA359" s="8" t="s">
@@ -33002,7 +33282,7 @@
         <v>569</v>
       </c>
       <c r="Y360" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'fckleft',</v>
       </c>
       <c r="AA360" s="8" t="s">
@@ -33020,7 +33300,7 @@
         <v>570</v>
       </c>
       <c r="Y361" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'ecclesiadei1',</v>
       </c>
       <c r="AA361" s="8" t="s">
@@ -33038,7 +33318,7 @@
         <v>571</v>
       </c>
       <c r="Y362" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'alisffm',</v>
       </c>
       <c r="AA362" s="8" t="s">
@@ -33056,7 +33336,7 @@
         <v>572</v>
       </c>
       <c r="Y363" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'keinfreiwild',</v>
       </c>
       <c r="AA363" s="8" t="s">
@@ -33074,7 +33354,7 @@
         <v>573</v>
       </c>
       <c r="Y364" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'pipi_netanyahoo',</v>
       </c>
       <c r="AA364" s="8" t="s">
@@ -33092,7 +33372,7 @@
         <v>574</v>
       </c>
       <c r="Y365" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'harztonne',</v>
       </c>
       <c r="AA365" s="8" t="s">
@@ -33110,7 +33390,7 @@
         <v>575</v>
       </c>
       <c r="Y366" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'DeltaFiveEcho',</v>
       </c>
       <c r="AA366" s="8" t="s">
@@ -33128,7 +33408,7 @@
         <v>579</v>
       </c>
       <c r="Y367" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Mountaindream5',</v>
       </c>
       <c r="AA367" s="8" t="s">
@@ -33146,7 +33426,7 @@
         <v>581</v>
       </c>
       <c r="Y368" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'tommyleewaters',</v>
       </c>
       <c r="AA368" s="8" t="s">
@@ -33164,7 +33444,7 @@
         <v>582</v>
       </c>
       <c r="Y369" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'uwe_guenther',</v>
       </c>
       <c r="AA369" s="8" t="s">
@@ -33182,7 +33462,7 @@
         <v>583</v>
       </c>
       <c r="Y370" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'abc321xyblabla',</v>
       </c>
       <c r="AA370" s="8" t="s">
@@ -33200,7 +33480,7 @@
         <v>584</v>
       </c>
       <c r="Y371" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'fnkreisunna',</v>
       </c>
       <c r="AA371" s="8" t="s">
@@ -33218,7 +33498,7 @@
         <v>585</v>
       </c>
       <c r="Y372" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'StefanS56831841',</v>
       </c>
       <c r="AA372" s="8" t="s">
@@ -33236,7 +33516,7 @@
         <v>587</v>
       </c>
       <c r="Y373" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'savesoelse',</v>
       </c>
       <c r="AA373" s="8" t="s">
@@ -33254,7 +33534,7 @@
         <v>588</v>
       </c>
       <c r="Y374" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Macbeth0815',</v>
       </c>
       <c r="AA374" s="8" t="s">
@@ -33272,7 +33552,7 @@
         <v>589</v>
       </c>
       <c r="Y375" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'olschews1',</v>
       </c>
       <c r="AA375" s="8" t="s">
@@ -33290,7 +33570,7 @@
         <v>590</v>
       </c>
       <c r="Y376" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'emrich_5933',</v>
       </c>
       <c r="AA376" s="8" t="s">
@@ -33308,7 +33588,7 @@
         <v>591</v>
       </c>
       <c r="Y377" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'harry61871047',</v>
       </c>
       <c r="AA377" s="8" t="s">
@@ -33326,7 +33606,7 @@
         <v>592</v>
       </c>
       <c r="Y378" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'ebobatcanaille',</v>
       </c>
       <c r="AA378" s="8" t="s">
@@ -33344,7 +33624,7 @@
         <v>593</v>
       </c>
       <c r="Y379" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'gertrudrichter1',</v>
       </c>
       <c r="AA379" s="8" t="s">
@@ -33362,7 +33642,7 @@
         <v>594</v>
       </c>
       <c r="Y380" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'RikiMasorati',</v>
       </c>
       <c r="AA380" s="8" t="s">
@@ -33378,7 +33658,7 @@
         <v>597</v>
       </c>
       <c r="Y381" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Berndvendetta',</v>
       </c>
       <c r="AA381" s="8" t="s">
@@ -33396,7 +33676,7 @@
         <v>598</v>
       </c>
       <c r="Y382" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'wegecon',</v>
       </c>
       <c r="AA382" s="8" t="s">
@@ -33414,7 +33694,7 @@
         <v>599</v>
       </c>
       <c r="Y383" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'kreuzebra86',</v>
       </c>
       <c r="AA383" s="8" t="s">
@@ -33432,7 +33712,7 @@
         <v>600</v>
       </c>
       <c r="Y384" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Taykra',</v>
       </c>
       <c r="AA384" s="8" t="s">
@@ -33450,7 +33730,7 @@
         <v>602</v>
       </c>
       <c r="Y385" t="str">
-        <f t="shared" ref="Y385:Y448" si="9">"'"&amp;V385&amp;"',"</f>
+        <f t="shared" ref="Y385:Y448" si="10">"'"&amp;V385&amp;"',"</f>
         <v>'PilgramsWords',</v>
       </c>
       <c r="AA385" s="8" t="s">
@@ -33468,7 +33748,7 @@
         <v>603</v>
       </c>
       <c r="Y386" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'AfDBrandenburg',</v>
       </c>
       <c r="AA386" s="8" t="s">
@@ -33486,7 +33766,7 @@
         <v>604</v>
       </c>
       <c r="Y387" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'afdmunich',</v>
       </c>
       <c r="AA387" s="8" t="s">
@@ -33504,7 +33784,7 @@
         <v>605</v>
       </c>
       <c r="Y388" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'MehmetAzul',</v>
       </c>
       <c r="AA388" s="8" t="s">
@@ -33522,7 +33802,7 @@
         <v>606</v>
       </c>
       <c r="Y389" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'mockylock50',</v>
       </c>
       <c r="AA389" s="8" t="s">
@@ -33540,7 +33820,7 @@
         <v>607</v>
       </c>
       <c r="Y390" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'BiibiiSilvi',</v>
       </c>
       <c r="AA390" s="8" t="s">
@@ -33558,7 +33838,7 @@
         <v>608</v>
       </c>
       <c r="Y391" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'rplantiko',</v>
       </c>
       <c r="AA391" s="8" t="s">
@@ -33576,7 +33856,7 @@
         <v>610</v>
       </c>
       <c r="Y392" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'hahaaaaaz',</v>
       </c>
       <c r="AA392" s="8" t="s">
@@ -33594,7 +33874,7 @@
         <v>612</v>
       </c>
       <c r="Y393" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'rtrf2001',</v>
       </c>
       <c r="AA393" s="8" t="s">
@@ -33612,7 +33892,7 @@
         <v>613</v>
       </c>
       <c r="Y394" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'schwarzermai',</v>
       </c>
       <c r="AA394" s="8" t="s">
@@ -33630,7 +33910,7 @@
         <v>615</v>
       </c>
       <c r="Y395" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Frizcatcom',</v>
       </c>
       <c r="AA395" s="8" t="s">
@@ -33648,7 +33928,7 @@
         <v>616</v>
       </c>
       <c r="Y396" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'WillRobar',</v>
       </c>
       <c r="AA396" s="8" t="s">
@@ -33666,7 +33946,7 @@
         <v>617</v>
       </c>
       <c r="Y397" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'AsylwatchDE',</v>
       </c>
       <c r="AA397" s="8" t="s">
@@ -33684,7 +33964,7 @@
         <v>618</v>
       </c>
       <c r="Y398" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Reibekuchen26',</v>
       </c>
       <c r="AA398" s="8" t="s">
@@ -33702,7 +33982,7 @@
         <v>619</v>
       </c>
       <c r="Y399" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Oberschnuff',</v>
       </c>
       <c r="AA399" s="8" t="s">
@@ -33720,7 +34000,7 @@
         <v>620</v>
       </c>
       <c r="Y400" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Meike_1683',</v>
       </c>
       <c r="AA400" s="8" t="s">
@@ -33738,7 +34018,7 @@
         <v>622</v>
       </c>
       <c r="Y401" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'UweReicht',</v>
       </c>
       <c r="AA401" s="8" t="s">
@@ -33756,7 +34036,7 @@
         <v>624</v>
       </c>
       <c r="Y402" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'HansRolfSchmidt',</v>
       </c>
       <c r="AA402" s="8" t="s">
@@ -33774,7 +34054,7 @@
         <v>625</v>
       </c>
       <c r="Y403" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'t_truthhh',</v>
       </c>
       <c r="AA403" s="8" t="s">
@@ -33792,7 +34072,7 @@
         <v>626</v>
       </c>
       <c r="Y404" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'HomeRogner',</v>
       </c>
       <c r="AA404" s="8" t="s">
@@ -33810,7 +34090,7 @@
         <v>628</v>
       </c>
       <c r="Y405" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'SookieS_13',</v>
       </c>
       <c r="AA405" s="8" t="s">
@@ -33828,7 +34108,7 @@
         <v>629</v>
       </c>
       <c r="Y406" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'DiaboliDiabo9',</v>
       </c>
       <c r="AA406" s="8" t="s">
@@ -33846,7 +34126,7 @@
         <v>630</v>
       </c>
       <c r="Y407" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Neuhier76',</v>
       </c>
       <c r="AA407" s="8" t="s">
@@ -33864,7 +34144,7 @@
         <v>631</v>
       </c>
       <c r="Y408" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'GBaersch',</v>
       </c>
       <c r="AA408" s="8" t="s">
@@ -33882,7 +34162,7 @@
         <v>632</v>
       </c>
       <c r="Y409" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'vilimsky',</v>
       </c>
       <c r="AA409" s="8" t="s">
@@ -33900,7 +34180,7 @@
         <v>633</v>
       </c>
       <c r="Y410" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'agm_alain',</v>
       </c>
       <c r="AA410" s="8" t="s">
@@ -33918,7 +34198,7 @@
         <v>634</v>
       </c>
       <c r="Y411" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'LinusManstein',</v>
       </c>
       <c r="AA411" s="8" t="s">
@@ -33936,7 +34216,7 @@
         <v>635</v>
       </c>
       <c r="Y412" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'rodolfostweets',</v>
       </c>
       <c r="AA412" s="8" t="s">
@@ -33954,7 +34234,7 @@
         <v>636</v>
       </c>
       <c r="Y413" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'VictoriaUngarn',</v>
       </c>
       <c r="AA413" s="8" t="s">
@@ -33972,7 +34252,7 @@
         <v>637</v>
       </c>
       <c r="Y414" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'westfale1815',</v>
       </c>
       <c r="AA414" s="8" t="s">
@@ -33990,7 +34270,7 @@
         <v>638</v>
       </c>
       <c r="Y415" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'heike_schultz',</v>
       </c>
       <c r="AA415" s="8" t="s">
@@ -34008,7 +34288,7 @@
         <v>639</v>
       </c>
       <c r="Y416" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'WegMitHartzern',</v>
       </c>
       <c r="AA416" s="8" t="s">
@@ -34026,7 +34306,7 @@
         <v>640</v>
       </c>
       <c r="Y417" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Rufer001',</v>
       </c>
       <c r="AA417" s="8" t="s">
@@ -34044,7 +34324,7 @@
         <v>641</v>
       </c>
       <c r="Y418" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'QuerKopfRobot',</v>
       </c>
       <c r="AA418" s="8" t="s">
@@ -34062,7 +34342,7 @@
         <v>642</v>
       </c>
       <c r="Y419" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'westfunker',</v>
       </c>
       <c r="AA419" s="8" t="s">
@@ -34080,7 +34360,7 @@
         <v>644</v>
       </c>
       <c r="Y420" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'HotteHorstmann',</v>
       </c>
       <c r="AA420" s="8" t="s">
@@ -34098,7 +34378,7 @@
         <v>646</v>
       </c>
       <c r="Y421" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ronaldglaeser',</v>
       </c>
       <c r="AA421" s="8" t="s">
@@ -34116,7 +34396,7 @@
         <v>647</v>
       </c>
       <c r="Y422" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'gmzipfel',</v>
       </c>
       <c r="AA422" s="8" t="s">
@@ -34134,7 +34414,7 @@
         <v>649</v>
       </c>
       <c r="Y423" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Antikulturalist',</v>
       </c>
       <c r="AA423" s="8" t="s">
@@ -34152,7 +34432,7 @@
         <v>650</v>
       </c>
       <c r="Y424" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'bloggi',</v>
       </c>
       <c r="AA424" s="8" t="s">
@@ -34170,7 +34450,7 @@
         <v>651</v>
       </c>
       <c r="Y425" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ChisNoria',</v>
       </c>
       <c r="AA425" s="8" t="s">
@@ -34188,7 +34468,7 @@
         <v>653</v>
       </c>
       <c r="Y426" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'martin_gutzeit',</v>
       </c>
       <c r="AA426" s="8" t="s">
@@ -34206,7 +34486,7 @@
         <v>654</v>
       </c>
       <c r="Y427" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Sharebenhaufen',</v>
       </c>
       <c r="AA427" s="8" t="s">
@@ -34224,7 +34504,7 @@
         <v>655</v>
       </c>
       <c r="Y428" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Schaun_mer_mal',</v>
       </c>
       <c r="AA428" s="8" t="s">
@@ -34242,7 +34522,7 @@
         <v>656</v>
       </c>
       <c r="Y429" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Heide1949',</v>
       </c>
       <c r="AA429" s="8" t="s">
@@ -34260,7 +34540,7 @@
         <v>657</v>
       </c>
       <c r="Y430" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'FritzSchulz',</v>
       </c>
       <c r="AA430" s="8" t="s">
@@ -34278,7 +34558,7 @@
         <v>658</v>
       </c>
       <c r="Y431" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'boeser_Michel',</v>
       </c>
       <c r="AA431" s="8" t="s">
@@ -34296,7 +34576,7 @@
         <v>660</v>
       </c>
       <c r="Y432" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'FfFrauki',</v>
       </c>
       <c r="AA432" s="8" t="s">
@@ -34314,7 +34594,7 @@
         <v>661</v>
       </c>
       <c r="Y433" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'KPK58P',</v>
       </c>
       <c r="AA433" s="8" t="s">
@@ -34332,7 +34612,7 @@
         <v>662</v>
       </c>
       <c r="Y434" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'michael_kappe',</v>
       </c>
       <c r="AA434" s="8" t="s">
@@ -34350,7 +34630,7 @@
         <v>663</v>
       </c>
       <c r="Y435" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'rdntzd',</v>
       </c>
       <c r="AA435" s="8" t="s">
@@ -34368,7 +34648,7 @@
         <v>664</v>
       </c>
       <c r="Y436" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Fluchtursache',</v>
       </c>
       <c r="AA436" s="8" t="s">
@@ -34386,7 +34666,7 @@
         <v>665</v>
       </c>
       <c r="Y437" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'CatEns',</v>
       </c>
       <c r="AA437" s="8" t="s">
@@ -34404,7 +34684,7 @@
         <v>666</v>
       </c>
       <c r="Y438" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'NancyPeggyMandy',</v>
       </c>
       <c r="AA438" s="8" t="s">
@@ -34422,7 +34702,7 @@
         <v>667</v>
       </c>
       <c r="Y439" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Gerhard42833386',</v>
       </c>
       <c r="AA439" s="8" t="s">
@@ -34440,7 +34720,7 @@
         <v>668</v>
       </c>
       <c r="Y440" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ReneFSL',</v>
       </c>
       <c r="AA440" s="8" t="s">
@@ -34458,7 +34738,7 @@
         <v>669</v>
       </c>
       <c r="Y441" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Thereminspieler',</v>
       </c>
       <c r="AA441" s="8" t="s">
@@ -34476,7 +34756,7 @@
         <v>670</v>
       </c>
       <c r="Y442" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'citius_fortius',</v>
       </c>
       <c r="AA442" s="8" t="s">
@@ -34494,7 +34774,7 @@
         <v>671</v>
       </c>
       <c r="Y443" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'rotbarsch69',</v>
       </c>
       <c r="AA443" s="8" t="s">
@@ -34512,7 +34792,7 @@
         <v>672</v>
       </c>
       <c r="Y444" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'mkphh',</v>
       </c>
       <c r="AA444" s="8" t="s">
@@ -34530,7 +34810,7 @@
         <v>674</v>
       </c>
       <c r="Y445" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'explicitanalysi',</v>
       </c>
       <c r="AA445" s="8" t="s">
@@ -34548,7 +34828,7 @@
         <v>676</v>
       </c>
       <c r="Y446" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'die_Schoene',</v>
       </c>
       <c r="AA446" s="8" t="s">
@@ -34566,7 +34846,7 @@
         <v>677</v>
       </c>
       <c r="Y447" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'HaNSausNklln',</v>
       </c>
       <c r="AA447" s="8" t="s">
@@ -34584,7 +34864,7 @@
         <v>678</v>
       </c>
       <c r="Y448" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'heike1502',</v>
       </c>
       <c r="AA448" s="8" t="s">
@@ -34602,7 +34882,7 @@
         <v>679</v>
       </c>
       <c r="Y449" t="str">
-        <f t="shared" ref="Y449:Y512" si="10">"'"&amp;V449&amp;"',"</f>
+        <f t="shared" ref="Y449:Y512" si="11">"'"&amp;V449&amp;"',"</f>
         <v>'habibibaba77',</v>
       </c>
       <c r="AA449" s="8" t="s">
@@ -34620,7 +34900,7 @@
         <v>680</v>
       </c>
       <c r="Y450" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'landhaustussy',</v>
       </c>
       <c r="AA450" s="8" t="s">
@@ -34638,7 +34918,7 @@
         <v>681</v>
       </c>
       <c r="Y451" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'R1070A',</v>
       </c>
       <c r="AA451" s="8" t="s">
@@ -34656,7 +34936,7 @@
         <v>682</v>
       </c>
       <c r="Y452" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Germans_4Trump',</v>
       </c>
       <c r="AA452" s="8" t="s">
@@ -34674,7 +34954,7 @@
         <v>683</v>
       </c>
       <c r="Y453" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Nicole161071',</v>
       </c>
       <c r="AA453" s="8" t="s">
@@ -34692,7 +34972,7 @@
         <v>684</v>
       </c>
       <c r="Y454" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'lukas_iff',</v>
       </c>
       <c r="AA454" s="8" t="s">
@@ -34710,7 +34990,7 @@
         <v>686</v>
       </c>
       <c r="Y455" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Pugnator_',</v>
       </c>
       <c r="AA455" s="8" t="s">
@@ -34728,7 +35008,7 @@
         <v>687</v>
       </c>
       <c r="Y456" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'profraika',</v>
       </c>
       <c r="AA456" s="8" t="s">
@@ -34746,7 +35026,7 @@
         <v>688</v>
       </c>
       <c r="Y457" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'nicolipi1',</v>
       </c>
       <c r="AA457" s="8" t="s">
@@ -34764,7 +35044,7 @@
         <v>689</v>
       </c>
       <c r="Y458" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'ibikus31',</v>
       </c>
       <c r="AA458" s="8" t="s">
@@ -34782,7 +35062,7 @@
         <v>690</v>
       </c>
       <c r="Y459" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'berlinwerbung',</v>
       </c>
       <c r="AA459" s="8" t="s">
@@ -34800,7 +35080,7 @@
         <v>694</v>
       </c>
       <c r="Y460" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'trident750',</v>
       </c>
       <c r="AA460" s="8" t="s">
@@ -34818,7 +35098,7 @@
         <v>695</v>
       </c>
       <c r="Y461" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'m4rgotkaesemann',</v>
       </c>
       <c r="AA461" s="8" t="s">
@@ -34836,7 +35116,7 @@
         <v>696</v>
       </c>
       <c r="Y462" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'AlexiaStellar',</v>
       </c>
       <c r="AA462" s="8" t="s">
@@ -34854,7 +35134,7 @@
         <v>697</v>
       </c>
       <c r="Y463" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Krakan_G',</v>
       </c>
       <c r="AA463" s="8" t="s">
@@ -34872,7 +35152,7 @@
         <v>698</v>
       </c>
       <c r="Y464" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Saxoniagerd',</v>
       </c>
       <c r="AA464" s="8" t="s">
@@ -34890,7 +35170,7 @@
         <v>699</v>
       </c>
       <c r="Y465" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Isnogud_',</v>
       </c>
       <c r="AA465" s="8" t="s">
@@ -34908,7 +35188,7 @@
         <v>700</v>
       </c>
       <c r="Y466" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'JKruetzkamp',</v>
       </c>
       <c r="AA466" s="8" t="s">
@@ -34926,7 +35206,7 @@
         <v>701</v>
       </c>
       <c r="Y467" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Pako24072012',</v>
       </c>
       <c r="AA467" s="8" t="s">
@@ -34944,7 +35224,7 @@
         <v>702</v>
       </c>
       <c r="Y468" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'PeterS16649683',</v>
       </c>
       <c r="AA468" s="8" t="s">
@@ -34962,7 +35242,7 @@
         <v>703</v>
       </c>
       <c r="Y469" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'JakobDiener',</v>
       </c>
       <c r="AA469" s="8" t="s">
@@ -34980,7 +35260,7 @@
         <v>704</v>
       </c>
       <c r="Y470" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'CyanidMichael',</v>
       </c>
       <c r="AA470" s="8" t="s">
@@ -34998,7 +35278,7 @@
         <v>705</v>
       </c>
       <c r="Y471" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HorstNRW',</v>
       </c>
       <c r="AA471" s="8" t="s">
@@ -35016,7 +35296,7 @@
         <v>706</v>
       </c>
       <c r="Y472" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Silv3r_1337',</v>
       </c>
       <c r="AA472" s="8" t="s">
@@ -35034,7 +35314,7 @@
         <v>708</v>
       </c>
       <c r="Y473" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'mboe0407',</v>
       </c>
       <c r="AA473" s="8" t="s">
@@ -35052,7 +35332,7 @@
         <v>709</v>
       </c>
       <c r="Y474" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Achim7671',</v>
       </c>
       <c r="AA474" s="8" t="s">
@@ -35070,7 +35350,7 @@
         <v>710</v>
       </c>
       <c r="Y475" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'LebenszeichenNS',</v>
       </c>
       <c r="AA475" s="8" t="s">
@@ -35088,7 +35368,7 @@
         <v>711</v>
       </c>
       <c r="Y476" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'f_kierkegaard',</v>
       </c>
       <c r="AA476" s="8" t="s">
@@ -35106,7 +35386,7 @@
         <v>712</v>
       </c>
       <c r="Y477" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'JoeMontana99',</v>
       </c>
       <c r="AA477" s="8" t="s">
@@ -35124,7 +35404,7 @@
         <v>714</v>
       </c>
       <c r="Y478" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'kritischergeist',</v>
       </c>
       <c r="AA478" s="8" t="s">
@@ -35142,7 +35422,7 @@
         <v>716</v>
       </c>
       <c r="Y479" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'WHetzler',</v>
       </c>
       <c r="AA479" s="8" t="s">
@@ -35160,7 +35440,7 @@
         <v>717</v>
       </c>
       <c r="Y480" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'zvlrnghrsm',</v>
       </c>
       <c r="AA480" s="8" t="s">
@@ -35178,7 +35458,7 @@
         <v>718</v>
       </c>
       <c r="Y481" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'SATANEins',</v>
       </c>
       <c r="AA481" s="8" t="s">
@@ -35196,7 +35476,7 @@
         <v>719</v>
       </c>
       <c r="Y482" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'GeneralRene',</v>
       </c>
       <c r="AA482" s="8" t="s">
@@ -35214,7 +35494,7 @@
         <v>720</v>
       </c>
       <c r="Y483" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Toti_S63',</v>
       </c>
       <c r="AA483" s="8" t="s">
@@ -35232,7 +35512,7 @@
         <v>721</v>
       </c>
       <c r="Y484" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'NoSystemCarlo',</v>
       </c>
       <c r="AA484" s="8" t="s">
@@ -35250,7 +35530,7 @@
         <v>722</v>
       </c>
       <c r="Y485" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HartesGeld',</v>
       </c>
       <c r="AA485" s="8" t="s">
@@ -35268,7 +35548,7 @@
         <v>724</v>
       </c>
       <c r="Y486" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'andrittis',</v>
       </c>
       <c r="AA486" s="8" t="s">
@@ -35286,7 +35566,7 @@
         <v>725</v>
       </c>
       <c r="Y487" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Apoll0x',</v>
       </c>
       <c r="AA487" s="8" t="s">
@@ -35304,7 +35584,7 @@
         <v>727</v>
       </c>
       <c r="Y488" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Karo_rot',</v>
       </c>
       <c r="AA488" s="8" t="s">
@@ -35322,7 +35602,7 @@
         <v>728</v>
       </c>
       <c r="Y489" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'crazy4golf',</v>
       </c>
       <c r="AA489" s="8" t="s">
@@ -35340,7 +35620,7 @@
         <v>730</v>
       </c>
       <c r="Y490" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'pflegefrau',</v>
       </c>
       <c r="AA490" s="8" t="s">
@@ -35358,7 +35638,7 @@
         <v>731</v>
       </c>
       <c r="Y491" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Pegidizer',</v>
       </c>
       <c r="AA491" s="8" t="s">
@@ -35376,7 +35656,7 @@
         <v>732</v>
       </c>
       <c r="Y492" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'sobieski11',</v>
       </c>
       <c r="AA492" s="8" t="s">
@@ -35394,7 +35674,7 @@
         <v>733</v>
       </c>
       <c r="Y493" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Eth_n_Br_dberry',</v>
       </c>
       <c r="AA493" s="8" t="s">
@@ -35412,7 +35692,7 @@
         <v>734</v>
       </c>
       <c r="Y494" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'bluti86',</v>
       </c>
       <c r="AA494" s="8" t="s">
@@ -35430,7 +35710,7 @@
         <v>736</v>
       </c>
       <c r="Y495" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'bine1007',</v>
       </c>
       <c r="AA495" s="8" t="s">
@@ -35448,7 +35728,7 @@
         <v>738</v>
       </c>
       <c r="Y496" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'BlondJedi',</v>
       </c>
       <c r="AA496" s="8" t="s">
@@ -35466,7 +35746,7 @@
         <v>740</v>
       </c>
       <c r="Y497" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'GiantPaladin',</v>
       </c>
       <c r="AA497" s="8" t="s">
@@ -35484,7 +35764,7 @@
         <v>741</v>
       </c>
       <c r="Y498" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'FroschkoenigPep',</v>
       </c>
       <c r="AA498" s="8" t="s">
@@ -35502,7 +35782,7 @@
         <v>742</v>
       </c>
       <c r="Y499" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'ThomasGBauer',</v>
       </c>
       <c r="AA499" s="8" t="s">
@@ -35520,7 +35800,7 @@
         <v>743</v>
       </c>
       <c r="Y500" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'wg12307',</v>
       </c>
       <c r="AA500" s="8" t="s">
@@ -35538,7 +35818,7 @@
         <v>744</v>
       </c>
       <c r="Y501" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'KallePetersenII',</v>
       </c>
       <c r="AA501" s="8" t="s">
@@ -35556,7 +35836,7 @@
         <v>745</v>
       </c>
       <c r="Y502" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Laugarfjall2',</v>
       </c>
       <c r="AA502" s="8" t="s">
@@ -35574,7 +35854,7 @@
         <v>749</v>
       </c>
       <c r="Y503" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'GermanCrosshair',</v>
       </c>
       <c r="AA503" s="8" t="s">
@@ -35592,7 +35872,7 @@
         <v>750</v>
       </c>
       <c r="Y504" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Dirk20158',</v>
       </c>
       <c r="AA504" s="8" t="s">
@@ -35610,7 +35890,7 @@
         <v>751</v>
       </c>
       <c r="Y505" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'PalzBu',</v>
       </c>
       <c r="AA505" s="8" t="s">
@@ -35628,7 +35908,7 @@
         <v>752</v>
       </c>
       <c r="Y506" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'mario_edelmann',</v>
       </c>
       <c r="AA506" s="8" t="s">
@@ -35646,7 +35926,7 @@
         <v>753</v>
       </c>
       <c r="Y507" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'kigallus',</v>
       </c>
       <c r="AA507" s="8" t="s">
@@ -35664,7 +35944,7 @@
         <v>754</v>
       </c>
       <c r="Y508" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'AchimSpiegel',</v>
       </c>
       <c r="AA508" s="8" t="s">
@@ -35682,7 +35962,7 @@
         <v>756</v>
       </c>
       <c r="Y509" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'GegenKinderehen',</v>
       </c>
       <c r="AA509" s="8" t="s">
@@ -35700,7 +35980,7 @@
         <v>757</v>
       </c>
       <c r="Y510" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Grandel1',</v>
       </c>
       <c r="AA510" s="8" t="s">
@@ -35718,7 +35998,7 @@
         <v>758</v>
       </c>
       <c r="Y511" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'shrimpsdeluxe',</v>
       </c>
       <c r="AA511" s="8" t="s">
@@ -35736,7 +36016,7 @@
         <v>759</v>
       </c>
       <c r="Y512" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Sascha_Reiche',</v>
       </c>
       <c r="AA512" s="8" t="s">
@@ -35754,7 +36034,7 @@
         <v>760</v>
       </c>
       <c r="Y513" t="str">
-        <f t="shared" ref="Y513:Y576" si="11">"'"&amp;V513&amp;"',"</f>
+        <f t="shared" ref="Y513:Y576" si="12">"'"&amp;V513&amp;"',"</f>
         <v>'ma_gu123',</v>
       </c>
       <c r="AA513" s="8" t="s">
@@ -35772,7 +36052,7 @@
         <v>761</v>
       </c>
       <c r="Y514" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'R0BERTSpongebob',</v>
       </c>
       <c r="AA514" s="8" t="s">
@@ -35790,7 +36070,7 @@
         <v>762</v>
       </c>
       <c r="Y515" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Kiel_Sophienhof',</v>
       </c>
       <c r="AA515" s="8" t="s">
@@ -35808,7 +36088,7 @@
         <v>763</v>
       </c>
       <c r="Y516" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'friesenjens',</v>
       </c>
       <c r="AA516" s="8" t="s">
@@ -35826,7 +36106,7 @@
         <v>764</v>
       </c>
       <c r="Y517" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'diggy2015',</v>
       </c>
       <c r="AA517" s="8" t="s">
@@ -35844,7 +36124,7 @@
         <v>765</v>
       </c>
       <c r="Y518" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Waldkauz15',</v>
       </c>
       <c r="AA518" s="8" t="s">
@@ -35862,7 +36142,7 @@
         <v>766</v>
       </c>
       <c r="Y519" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Golo677',</v>
       </c>
       <c r="AA519" s="8" t="s">
@@ -35880,7 +36160,7 @@
         <v>768</v>
       </c>
       <c r="Y520" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'SebWebTop',</v>
       </c>
       <c r="AA520" s="8" t="s">
@@ -35898,7 +36178,7 @@
         <v>769</v>
       </c>
       <c r="Y521" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'KGehirn',</v>
       </c>
       <c r="AA521" s="8" t="s">
@@ -35916,7 +36196,7 @@
         <v>770</v>
       </c>
       <c r="Y522" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'DeisterEdith',</v>
       </c>
       <c r="AA522" s="8" t="s">
@@ -35934,7 +36214,7 @@
         <v>771</v>
       </c>
       <c r="Y523" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'legemecum',</v>
       </c>
       <c r="AA523" s="8" t="s">
@@ -35952,7 +36232,7 @@
         <v>773</v>
       </c>
       <c r="Y524" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'schulle60',</v>
       </c>
       <c r="AA524" s="8" t="s">
@@ -35970,7 +36250,7 @@
         <v>775</v>
       </c>
       <c r="Y525" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'ZeilerOli',</v>
       </c>
       <c r="AA525" s="8" t="s">
@@ -35988,7 +36268,7 @@
         <v>776</v>
       </c>
       <c r="Y526" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'UweWolff966',</v>
       </c>
       <c r="AA526" s="14" t="s">
@@ -36006,7 +36286,7 @@
         <v>777</v>
       </c>
       <c r="Y527" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Horst1941',</v>
       </c>
       <c r="AA527" s="8" t="s">
@@ -36024,7 +36304,7 @@
         <v>778</v>
       </c>
       <c r="Y528" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'MyCodeOfConduct',</v>
       </c>
       <c r="AA528" s="8" t="s">
@@ -36042,7 +36322,7 @@
         <v>779</v>
       </c>
       <c r="Y529" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'daspunkt',</v>
       </c>
       <c r="AA529" s="8" t="s">
@@ -36060,7 +36340,7 @@
         <v>780</v>
       </c>
       <c r="Y530" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'blacklabel_76',</v>
       </c>
       <c r="AA530" s="8" t="s">
@@ -36078,7 +36358,7 @@
         <v>781</v>
       </c>
       <c r="Y531" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'B_Saft',</v>
       </c>
       <c r="AA531" s="8" t="s">
@@ -36096,7 +36376,7 @@
         <v>782</v>
       </c>
       <c r="Y532" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'MaulwurfenInfoD',</v>
       </c>
       <c r="AA532" s="8" t="s">
@@ -36114,7 +36394,7 @@
         <v>783</v>
       </c>
       <c r="Y533" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'LebenMTL',</v>
       </c>
       <c r="AA533" s="8" t="s">
@@ -36132,7 +36412,7 @@
         <v>784</v>
       </c>
       <c r="Y534" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Neomammalia',</v>
       </c>
       <c r="AA534" s="8" t="s">
@@ -36150,7 +36430,7 @@
         <v>786</v>
       </c>
       <c r="Y535" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'unzensuriert',</v>
       </c>
       <c r="AA535" s="8" t="s">
@@ -36168,7 +36448,7 @@
         <v>787</v>
       </c>
       <c r="Y536" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GermanysHero',</v>
       </c>
       <c r="AA536" s="8" t="s">
@@ -36186,7 +36466,7 @@
         <v>788</v>
       </c>
       <c r="Y537" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'moinmoinsager',</v>
       </c>
       <c r="AA537" s="8" t="s">
@@ -36204,7 +36484,7 @@
         <v>789</v>
       </c>
       <c r="Y538" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Ernst1953Do',</v>
       </c>
       <c r="AA538" s="8" t="s">
@@ -36222,7 +36502,7 @@
         <v>790</v>
       </c>
       <c r="Y539" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Vilstal',</v>
       </c>
       <c r="AA539" s="8" t="s">
@@ -36240,7 +36520,7 @@
         <v>791</v>
       </c>
       <c r="Y540" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Mayday18568706',</v>
       </c>
       <c r="AA540" s="8" t="s">
@@ -36258,7 +36538,7 @@
         <v>792</v>
       </c>
       <c r="Y541" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Nichtkonformist',</v>
       </c>
       <c r="AA541" s="8" t="s">
@@ -36276,7 +36556,7 @@
         <v>793</v>
       </c>
       <c r="Y542" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'LangeHeiko',</v>
       </c>
       <c r="AA542" s="8" t="s">
@@ -36294,7 +36574,7 @@
         <v>794</v>
       </c>
       <c r="Y543" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'83Schildi',</v>
       </c>
       <c r="AA543" s="8" t="s">
@@ -36312,7 +36592,7 @@
         <v>795</v>
       </c>
       <c r="Y544" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Hotte1950',</v>
       </c>
       <c r="AA544" s="8" t="s">
@@ -36330,7 +36610,7 @@
         <v>796</v>
       </c>
       <c r="Y545" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'propagare',</v>
       </c>
       <c r="AA545" s="8" t="s">
@@ -36348,7 +36628,7 @@
         <v>797</v>
       </c>
       <c r="Y546" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Alt_Reichght',</v>
       </c>
       <c r="AA546" s="8" t="s">
@@ -36366,7 +36646,7 @@
         <v>799</v>
       </c>
       <c r="Y547" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'JBotanica',</v>
       </c>
       <c r="AA547" s="8" t="s">
@@ -36384,7 +36664,7 @@
         <v>801</v>
       </c>
       <c r="Y548" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'firstrodewitzer',</v>
       </c>
       <c r="AA548" s="8" t="s">
@@ -36402,7 +36682,7 @@
         <v>802</v>
       </c>
       <c r="Y549" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'peter_honig',</v>
       </c>
       <c r="AA549" s="8" t="s">
@@ -36420,7 +36700,7 @@
         <v>803</v>
       </c>
       <c r="Y550" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'derMylius',</v>
       </c>
       <c r="AA550" s="8" t="s">
@@ -36438,7 +36718,7 @@
         <v>804</v>
       </c>
       <c r="Y551" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'FForstmaier',</v>
       </c>
       <c r="AA551" s="8" t="s">
@@ -36456,7 +36736,7 @@
         <v>805</v>
       </c>
       <c r="Y552" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Peter_Nater',</v>
       </c>
       <c r="AA552" s="8" t="s">
@@ -36474,7 +36754,7 @@
         <v>807</v>
       </c>
       <c r="Y553" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Gothdad',</v>
       </c>
       <c r="AA553" s="8" t="s">
@@ -36492,7 +36772,7 @@
         <v>808</v>
       </c>
       <c r="Y554" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GSiebeke',</v>
       </c>
       <c r="AA554" s="8" t="s">
@@ -36510,7 +36790,7 @@
         <v>809</v>
       </c>
       <c r="Y555" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'SimonNatal',</v>
       </c>
       <c r="AA555" s="8" t="s">
@@ -36528,7 +36808,7 @@
         <v>810</v>
       </c>
       <c r="Y556" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'nabucco56',</v>
       </c>
       <c r="AA556" s="8" t="s">
@@ -36546,7 +36826,7 @@
         <v>812</v>
       </c>
       <c r="Y557" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Pegasusfeder',</v>
       </c>
       <c r="AA557" s="8" t="s">
@@ -36564,7 +36844,7 @@
         <v>813</v>
       </c>
       <c r="Y558" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Bigreiner',</v>
       </c>
       <c r="AA558" s="8" t="s">
@@ -36582,7 +36862,7 @@
         <v>814</v>
       </c>
       <c r="Y559" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'altern_inform',</v>
       </c>
       <c r="AA559" s="8" t="s">
@@ -36600,7 +36880,7 @@
         <v>815</v>
       </c>
       <c r="Y560" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'ChelseaEF11',</v>
       </c>
       <c r="AA560" s="8" t="s">
@@ -36618,7 +36898,7 @@
         <v>816</v>
       </c>
       <c r="Y561" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Hausfrau4ever',</v>
       </c>
       <c r="AA561" s="8" t="s">
@@ -36636,7 +36916,7 @@
         <v>817</v>
       </c>
       <c r="Y562" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Libelle2000R',</v>
       </c>
       <c r="AA562" s="8" t="s">
@@ -36654,7 +36934,7 @@
         <v>818</v>
       </c>
       <c r="Y563" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'rstrohmi',</v>
       </c>
       <c r="AA563" s="8" t="s">
@@ -36672,7 +36952,7 @@
         <v>819</v>
       </c>
       <c r="Y564" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'traumdiebe',</v>
       </c>
       <c r="AA564" s="8" t="s">
@@ -36690,7 +36970,7 @@
         <v>821</v>
       </c>
       <c r="Y565" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'ha_zett',</v>
       </c>
       <c r="AA565" s="8" t="s">
@@ -36708,7 +36988,7 @@
         <v>822</v>
       </c>
       <c r="Y566" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'M_N_Herrmann',</v>
       </c>
       <c r="AA566" s="8" t="s">
@@ -36726,7 +37006,7 @@
         <v>823</v>
       </c>
       <c r="Y567" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'piratenpower999',</v>
       </c>
       <c r="AA567" s="8" t="s">
@@ -36744,7 +37024,7 @@
         <v>824</v>
       </c>
       <c r="Y568" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'PIONICeer',</v>
       </c>
       <c r="AA568" s="8" t="s">
@@ -36762,7 +37042,7 @@
         <v>825</v>
       </c>
       <c r="Y569" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'__a_f_w__',</v>
       </c>
       <c r="AA569" s="8" t="s">
@@ -36780,7 +37060,7 @@
         <v>826</v>
       </c>
       <c r="Y570" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'KurtKladder',</v>
       </c>
       <c r="AA570" s="8" t="s">
@@ -36798,7 +37078,7 @@
         <v>827</v>
       </c>
       <c r="Y571" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'IvicDarko',</v>
       </c>
       <c r="AA571" s="8" t="s">
@@ -36816,7 +37096,7 @@
         <v>828</v>
       </c>
       <c r="Y572" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'titanvacht',</v>
       </c>
       <c r="AA572" s="8" t="s">
@@ -36834,7 +37114,7 @@
         <v>829</v>
       </c>
       <c r="Y573" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'BeluboxDebria',</v>
       </c>
       <c r="AA573" s="8" t="s">
@@ -36852,7 +37132,7 @@
         <v>830</v>
       </c>
       <c r="Y574" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'jklhiu',</v>
       </c>
       <c r="AA574" s="8" t="s">
@@ -36870,7 +37150,7 @@
         <v>831</v>
       </c>
       <c r="Y575" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Preiset_Kek',</v>
       </c>
       <c r="AA575" s="8" t="s">
@@ -36888,7 +37168,7 @@
         <v>833</v>
       </c>
       <c r="Y576" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'mrstone0856',</v>
       </c>
       <c r="AA576" s="8" t="s">
@@ -36904,7 +37184,7 @@
         <v>834</v>
       </c>
       <c r="Y577" t="str">
-        <f t="shared" ref="Y577:Y640" si="12">"'"&amp;V577&amp;"',"</f>
+        <f t="shared" ref="Y577:Y640" si="13">"'"&amp;V577&amp;"',"</f>
         <v>'FOSSpatents',</v>
       </c>
       <c r="AA577" s="8" t="s">
@@ -36922,7 +37202,7 @@
         <v>835</v>
       </c>
       <c r="Y578" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'gunnar_richert',</v>
       </c>
       <c r="AA578" s="8" t="s">
@@ -36940,7 +37220,7 @@
         <v>836</v>
       </c>
       <c r="Y579" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FreierAnon',</v>
       </c>
       <c r="AA579" s="8" t="s">
@@ -36958,7 +37238,7 @@
         <v>837</v>
       </c>
       <c r="Y580" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Heinrich_Krug',</v>
       </c>
       <c r="AA580" s="8" t="s">
@@ -36976,7 +37256,7 @@
         <v>838</v>
       </c>
       <c r="Y581" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'choolie211',</v>
       </c>
       <c r="AA581" s="8" t="s">
@@ -36994,7 +37274,7 @@
         <v>840</v>
       </c>
       <c r="Y582" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Schuetze_Arsch',</v>
       </c>
       <c r="AA582" s="8" t="s">
@@ -37012,7 +37292,7 @@
         <v>841</v>
       </c>
       <c r="Y583" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'xandyfit',</v>
       </c>
       <c r="AA583" s="8" t="s">
@@ -37030,7 +37310,7 @@
         <v>842</v>
       </c>
       <c r="Y584" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'KirchedhH',</v>
       </c>
       <c r="AA584" s="8" t="s">
@@ -37048,7 +37328,7 @@
         <v>843</v>
       </c>
       <c r="Y585" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Almoehy',</v>
       </c>
       <c r="AA585" s="8" t="s">
@@ -37066,7 +37346,7 @@
         <v>844</v>
       </c>
       <c r="Y586" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'PreussischBlau9',</v>
       </c>
       <c r="AA586" s="8" t="s">
@@ -37084,7 +37364,7 @@
         <v>846</v>
       </c>
       <c r="Y587" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'clydevpg',</v>
       </c>
       <c r="AA587" s="8" t="s">
@@ -37102,7 +37382,7 @@
         <v>847</v>
       </c>
       <c r="Y588" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'C4PEC0D',</v>
       </c>
       <c r="AA588" s="8" t="s">
@@ -37120,7 +37400,7 @@
         <v>848</v>
       </c>
       <c r="Y589" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'WilhelmusJanus',</v>
       </c>
       <c r="AA589" s="8" t="s">
@@ -37138,7 +37418,7 @@
         <v>849</v>
       </c>
       <c r="Y590" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'danny23032000',</v>
       </c>
       <c r="AA590" s="8" t="s">
@@ -37156,7 +37436,7 @@
         <v>850</v>
       </c>
       <c r="Y591" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'pseudros',</v>
       </c>
       <c r="AA591" s="8" t="s">
@@ -37174,7 +37454,7 @@
         <v>851</v>
       </c>
       <c r="Y592" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'machtjanix23',</v>
       </c>
       <c r="AA592" s="8" t="s">
@@ -37192,7 +37472,7 @@
         <v>852</v>
       </c>
       <c r="Y593" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'neoM1913',</v>
       </c>
       <c r="AA593" s="8" t="s">
@@ -37210,7 +37490,7 @@
         <v>853</v>
       </c>
       <c r="Y594" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'_ichnicht',</v>
       </c>
       <c r="AA594" s="8" t="s">
@@ -37228,7 +37508,7 @@
         <v>854</v>
       </c>
       <c r="Y595" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'ichhabwut',</v>
       </c>
       <c r="AA595" s="8" t="s">
@@ -37246,7 +37526,7 @@
         <v>857</v>
       </c>
       <c r="Y596" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Rita_Sauser',</v>
       </c>
       <c r="AA596" s="8" t="s">
@@ -37264,7 +37544,7 @@
         <v>858</v>
       </c>
       <c r="Y597" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Obrigkeit1',</v>
       </c>
       <c r="AA597" s="8" t="s">
@@ -37282,7 +37562,7 @@
         <v>859</v>
       </c>
       <c r="Y598" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'EmiliaC32',</v>
       </c>
       <c r="AA598" s="8" t="s">
@@ -37300,7 +37580,7 @@
         <v>860</v>
       </c>
       <c r="Y599" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'zugeras',</v>
       </c>
       <c r="AA599" s="8" t="s">
@@ -37318,7 +37598,7 @@
         <v>862</v>
       </c>
       <c r="Y600" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'JA_Deutschland',</v>
       </c>
       <c r="AA600" s="8" t="s">
@@ -37336,7 +37616,7 @@
         <v>863</v>
       </c>
       <c r="Y601" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Hermann3004',</v>
       </c>
       <c r="AA601" s="8" t="s">
@@ -37354,7 +37634,7 @@
         <v>864</v>
       </c>
       <c r="Y602" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Dauerquerulant',</v>
       </c>
       <c r="AA602" s="8" t="s">
@@ -37372,7 +37652,7 @@
         <v>865</v>
       </c>
       <c r="Y603" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'VolksWahrsager',</v>
       </c>
       <c r="AA603" s="8" t="s">
@@ -37390,7 +37670,7 @@
         <v>866</v>
       </c>
       <c r="Y604" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'stevvid',</v>
       </c>
       <c r="AA604" s="8" t="s">
@@ -37408,7 +37688,7 @@
         <v>867</v>
       </c>
       <c r="Y605" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FHO_Sierra6Lima',</v>
       </c>
       <c r="AA605" s="8" t="s">
@@ -37426,7 +37706,7 @@
         <v>868</v>
       </c>
       <c r="Y606" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Arrtrad',</v>
       </c>
       <c r="AA606" s="8" t="s">
@@ -37444,7 +37724,7 @@
         <v>869</v>
       </c>
       <c r="Y607" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'KerstinMilller',</v>
       </c>
       <c r="AA607" s="8" t="s">
@@ -37462,7 +37742,7 @@
         <v>871</v>
       </c>
       <c r="Y608" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'WeCon14',</v>
       </c>
       <c r="AA608" s="8" t="s">
@@ -37480,7 +37760,7 @@
         <v>872</v>
       </c>
       <c r="Y609" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FwOberhausen',</v>
       </c>
       <c r="AA609" s="8" t="s">
@@ -37498,7 +37778,7 @@
         <v>873</v>
       </c>
       <c r="Y610" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'ohboulderer',</v>
       </c>
       <c r="AA610" s="8" t="s">
@@ -37516,7 +37796,7 @@
         <v>874</v>
       </c>
       <c r="Y611" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'gagaberlin',</v>
       </c>
       <c r="AA611" s="8" t="s">
@@ -37534,7 +37814,7 @@
         <v>875</v>
       </c>
       <c r="Y612" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Lukas64F',</v>
       </c>
       <c r="AA612" s="8" t="s">
@@ -37552,7 +37832,7 @@
         <v>877</v>
       </c>
       <c r="Y613" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'rigo_troy',</v>
       </c>
       <c r="AA613" s="8" t="s">
@@ -37570,7 +37850,7 @@
         <v>878</v>
       </c>
       <c r="Y614" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'TravelBonn',</v>
       </c>
       <c r="AA614" s="8" t="s">
@@ -37588,7 +37868,7 @@
         <v>879</v>
       </c>
       <c r="Y615" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Filarete14',</v>
       </c>
       <c r="AA615" s="8" t="s">
@@ -37606,7 +37886,7 @@
         <v>880</v>
       </c>
       <c r="Y616" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Medienluegen',</v>
       </c>
       <c r="AA616" s="8" t="s">
@@ -37624,7 +37904,7 @@
         <v>881</v>
       </c>
       <c r="Y617" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'T0MLightyear',</v>
       </c>
       <c r="AA617" s="8" t="s">
@@ -37642,7 +37922,7 @@
         <v>882</v>
       </c>
       <c r="Y618" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Asylnachrichten',</v>
       </c>
       <c r="AA618" s="8" t="s">
@@ -37660,7 +37940,7 @@
         <v>885</v>
       </c>
       <c r="Y619" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Rotpille',</v>
       </c>
       <c r="AA619" s="8" t="s">
@@ -37678,7 +37958,7 @@
         <v>886</v>
       </c>
       <c r="Y620" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Politkritiker',</v>
       </c>
       <c r="AA620" s="8" t="s">
@@ -37696,7 +37976,7 @@
         <v>887</v>
       </c>
       <c r="Y621" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'SprechenUnsNoch',</v>
       </c>
       <c r="AA621" s="8" t="s">
@@ -37714,7 +37994,7 @@
         <v>888</v>
       </c>
       <c r="Y622" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'KrabatKabat',</v>
       </c>
       <c r="AA622" s="8" t="s">
@@ -37732,7 +38012,7 @@
         <v>889</v>
       </c>
       <c r="Y623" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'kwogerman7',</v>
       </c>
       <c r="AA623" s="8" t="s">
@@ -37750,7 +38030,7 @@
         <v>890</v>
       </c>
       <c r="Y624" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Zeruyu',</v>
       </c>
       <c r="AA624" s="8" t="s">
@@ -37768,7 +38048,7 @@
         <v>891</v>
       </c>
       <c r="Y625" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'zentrumspartei',</v>
       </c>
       <c r="AA625" s="8" t="s">
@@ -37786,7 +38066,7 @@
         <v>893</v>
       </c>
       <c r="Y626" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'67muellerPeter',</v>
       </c>
       <c r="AA626" s="8" t="s">
@@ -37804,7 +38084,7 @@
         <v>894</v>
       </c>
       <c r="Y627" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Aletheia156',</v>
       </c>
       <c r="AA627" s="8" t="s">
@@ -37822,7 +38102,7 @@
         <v>895</v>
       </c>
       <c r="Y628" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Pro_PEGIDA_',</v>
       </c>
       <c r="AA628" s="8" t="s">
@@ -37840,7 +38120,7 @@
         <v>896</v>
       </c>
       <c r="Y629" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Jan_Deichmohle',</v>
       </c>
       <c r="AA629" s="8" t="s">
@@ -37858,7 +38138,7 @@
         <v>897</v>
       </c>
       <c r="Y630" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'LibertasKleinod',</v>
       </c>
       <c r="AA630" s="8" t="s">
@@ -37876,7 +38156,7 @@
         <v>898</v>
       </c>
       <c r="Y631" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FactualLiberal',</v>
       </c>
       <c r="AA631" s="8" t="s">
@@ -37894,7 +38174,7 @@
         <v>899</v>
       </c>
       <c r="Y632" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'offbeat24',</v>
       </c>
       <c r="AA632" s="8" t="s">
@@ -37912,7 +38192,7 @@
         <v>900</v>
       </c>
       <c r="Y633" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'PhilPerlmutter',</v>
       </c>
       <c r="AA633" s="8" t="s">
@@ -37930,7 +38210,7 @@
         <v>901</v>
       </c>
       <c r="Y634" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'GoettscheChr',</v>
       </c>
       <c r="AA634" s="8" t="s">
@@ -37948,7 +38228,7 @@
         <v>902</v>
       </c>
       <c r="Y635" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'4Sonicc',</v>
       </c>
       <c r="AA635" s="8" t="s">
@@ -37966,7 +38246,7 @@
         <v>903</v>
       </c>
       <c r="Y636" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FroehlichKaiT',</v>
       </c>
       <c r="AA636" s="8" t="s">
@@ -37984,7 +38264,7 @@
         <v>904</v>
       </c>
       <c r="Y637" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Walter29340877',</v>
       </c>
       <c r="AA637" s="8" t="s">
@@ -38002,7 +38282,7 @@
         <v>905</v>
       </c>
       <c r="Y638" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'norbert55968075',</v>
       </c>
       <c r="AA638" s="8" t="s">
@@ -38020,7 +38300,7 @@
         <v>906</v>
       </c>
       <c r="Y639" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'BuergerLey',</v>
       </c>
       <c r="AA639" s="8" t="s">
@@ -38038,7 +38318,7 @@
         <v>907</v>
       </c>
       <c r="Y640" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'JotDora',</v>
       </c>
       <c r="AA640" s="8" t="s">
@@ -38056,7 +38336,7 @@
         <v>910</v>
       </c>
       <c r="Y641" t="str">
-        <f t="shared" ref="Y641:Y704" si="13">"'"&amp;V641&amp;"',"</f>
+        <f t="shared" ref="Y641:Y704" si="14">"'"&amp;V641&amp;"',"</f>
         <v>'OriginalRadi',</v>
       </c>
       <c r="AA641" s="8" t="s">
@@ -38074,7 +38354,7 @@
         <v>911</v>
       </c>
       <c r="Y642" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'RubenSpruck',</v>
       </c>
       <c r="AA642" s="8" t="s">
@@ -38092,7 +38372,7 @@
         <v>914</v>
       </c>
       <c r="Y643" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Frieda_Tweety',</v>
       </c>
       <c r="AA643" s="8" t="s">
@@ -38110,7 +38390,7 @@
         <v>915</v>
       </c>
       <c r="Y644" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FrDnkr',</v>
       </c>
       <c r="AA644" s="8" t="s">
@@ -38128,7 +38408,7 @@
         <v>916</v>
       </c>
       <c r="Y645" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'PaulePhanter',</v>
       </c>
       <c r="AA645" s="8" t="s">
@@ -38146,7 +38426,7 @@
         <v>917</v>
       </c>
       <c r="Y646" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'SchreibedenText',</v>
       </c>
       <c r="AA646" s="8" t="s">
@@ -38164,7 +38444,7 @@
         <v>918</v>
       </c>
       <c r="Y647" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Korifej1',</v>
       </c>
       <c r="AA647" s="8" t="s">
@@ -38182,7 +38462,7 @@
         <v>919</v>
       </c>
       <c r="Y648" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'NiemieckaPolity',</v>
       </c>
       <c r="AA648" s="8" t="s">
@@ -38200,7 +38480,7 @@
         <v>923</v>
       </c>
       <c r="Y649" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'agent_anny007',</v>
       </c>
       <c r="AA649" s="8" t="s">
@@ -38218,7 +38498,7 @@
         <v>924</v>
       </c>
       <c r="Y650" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'LenaSakuraBlume',</v>
       </c>
       <c r="AA650" s="8" t="s">
@@ -38236,7 +38516,7 @@
         <v>926</v>
       </c>
       <c r="Y651" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'godsoflazy',</v>
       </c>
       <c r="AA651" s="8" t="s">
@@ -38254,7 +38534,7 @@
         <v>927</v>
       </c>
       <c r="Y652" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'recon_quista',</v>
       </c>
       <c r="AA652" s="8" t="s">
@@ -38272,7 +38552,7 @@
         <v>928</v>
       </c>
       <c r="Y653" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'AncapDude',</v>
       </c>
       <c r="AA653" s="8" t="s">
@@ -38290,7 +38570,7 @@
         <v>929</v>
       </c>
       <c r="Y654" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Da_Digge',</v>
       </c>
       <c r="AA654" s="8" t="s">
@@ -38308,7 +38588,7 @@
         <v>930</v>
       </c>
       <c r="Y655" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Margit11',</v>
       </c>
       <c r="AA655" s="8" t="s">
@@ -38326,7 +38606,7 @@
         <v>931</v>
       </c>
       <c r="Y656" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'andreas77761',</v>
       </c>
       <c r="AA656" s="8" t="s">
@@ -38344,7 +38624,7 @@
         <v>932</v>
       </c>
       <c r="Y657" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'SireenAnimaSola',</v>
       </c>
       <c r="AA657" s="8" t="s">
@@ -38362,7 +38642,7 @@
         <v>933</v>
       </c>
       <c r="Y658" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'dabbelu',</v>
       </c>
       <c r="AA658" s="8" t="s">
@@ -38380,7 +38660,7 @@
         <v>934</v>
       </c>
       <c r="Y659" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'medec_29',</v>
       </c>
       <c r="AA659" s="8" t="s">
@@ -38398,7 +38678,7 @@
         <v>935</v>
       </c>
       <c r="Y660" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Mister_Ka',</v>
       </c>
       <c r="AA660" s="8" t="s">
@@ -38416,7 +38696,7 @@
         <v>936</v>
       </c>
       <c r="Y661" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FarSight3',</v>
       </c>
       <c r="AA661" s="8" t="s">
@@ -38434,7 +38714,7 @@
         <v>937</v>
       </c>
       <c r="Y662" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'_macmike',</v>
       </c>
       <c r="AA662" s="8" t="s">
@@ -38452,7 +38732,7 @@
         <v>938</v>
       </c>
       <c r="Y663" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'MarkusFieber',</v>
       </c>
       <c r="AA663" s="8" t="s">
@@ -38470,7 +38750,7 @@
         <v>939</v>
       </c>
       <c r="Y664" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'VictoriaFerna71',</v>
       </c>
       <c r="AA664" s="8" t="s">
@@ -38488,7 +38768,7 @@
         <v>941</v>
       </c>
       <c r="Y665" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Funny1963',</v>
       </c>
       <c r="AA665" s="8" t="s">
@@ -38506,7 +38786,7 @@
         <v>943</v>
       </c>
       <c r="Y666" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'ChicSancho',</v>
       </c>
       <c r="AA666" s="8" t="s">
@@ -38524,7 +38804,7 @@
         <v>945</v>
       </c>
       <c r="Y667" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'baerchi08',</v>
       </c>
       <c r="AA667" s="8" t="s">
@@ -38542,7 +38822,7 @@
         <v>946</v>
       </c>
       <c r="Y668" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'ha_schwa',</v>
       </c>
       <c r="AA668" s="8" t="s">
@@ -38560,7 +38840,7 @@
         <v>947</v>
       </c>
       <c r="Y669" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'AlexBfromG',</v>
       </c>
       <c r="AA669" s="8" t="s">
@@ -38578,7 +38858,7 @@
         <v>948</v>
       </c>
       <c r="Y670" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Andreas62582094',</v>
       </c>
       <c r="AA670" s="8" t="s">
@@ -38596,7 +38876,7 @@
         <v>949</v>
       </c>
       <c r="Y671" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'CapYossarian',</v>
       </c>
       <c r="AA671" s="8" t="s">
@@ -38614,7 +38894,7 @@
         <v>950</v>
       </c>
       <c r="Y672" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'carlclausewitz1',</v>
       </c>
       <c r="AA672" s="8" t="s">
@@ -38632,7 +38912,7 @@
         <v>951</v>
       </c>
       <c r="Y673" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'igor_brain',</v>
       </c>
       <c r="AA673" s="8" t="s">
@@ -38650,7 +38930,7 @@
         <v>952</v>
       </c>
       <c r="Y674" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Marcel02935041',</v>
       </c>
       <c r="AA674" s="8" t="s">
@@ -38668,7 +38948,7 @@
         <v>954</v>
       </c>
       <c r="Y675" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'bienchen6969',</v>
       </c>
       <c r="AA675" s="8" t="s">
@@ -38686,7 +38966,7 @@
         <v>956</v>
       </c>
       <c r="Y676" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'unblogd',</v>
       </c>
       <c r="AA676" s="8" t="s">
@@ -38704,7 +38984,7 @@
         <v>958</v>
       </c>
       <c r="Y677" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'PolitikWelt',</v>
       </c>
       <c r="AA677" s="8" t="s">
@@ -38722,7 +39002,7 @@
         <v>959</v>
       </c>
       <c r="Y678" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'JA_Bremen',</v>
       </c>
       <c r="AA678" s="8" t="s">
@@ -38740,7 +39020,7 @@
         <v>963</v>
       </c>
       <c r="Y679" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'aotto1968_2',</v>
       </c>
       <c r="AA679" s="8" t="s">
@@ -38758,7 +39038,7 @@
         <v>964</v>
       </c>
       <c r="Y680" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'earlybird2010',</v>
       </c>
       <c r="AA680" s="8" t="s">
@@ -38776,7 +39056,7 @@
         <v>965</v>
       </c>
       <c r="Y681" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'10DMark',</v>
       </c>
       <c r="AA681" s="8" t="s">
@@ -38794,7 +39074,7 @@
         <v>966</v>
       </c>
       <c r="Y682" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'kochbar1',</v>
       </c>
       <c r="AA682" s="8" t="s">
@@ -38812,7 +39092,7 @@
         <v>967</v>
       </c>
       <c r="Y683" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'willnurschreibn',</v>
       </c>
       <c r="AA683" s="8" t="s">
@@ -38830,7 +39110,7 @@
         <v>968</v>
       </c>
       <c r="Y684" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FreiheitHofer',</v>
       </c>
       <c r="AA684" s="8" t="s">
@@ -38848,7 +39128,7 @@
         <v>972</v>
       </c>
       <c r="Y685" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'charliealpha5',</v>
       </c>
       <c r="AA685" s="8" t="s">
@@ -38866,7 +39146,7 @@
         <v>973</v>
       </c>
       <c r="Y686" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'_MASKULIST',</v>
       </c>
       <c r="AA686" s="8" t="s">
@@ -38884,7 +39164,7 @@
         <v>974</v>
       </c>
       <c r="Y687" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Kontrastfarbe',</v>
       </c>
       <c r="AA687" s="8" t="s">
@@ -38902,7 +39182,7 @@
         <v>975</v>
       </c>
       <c r="Y688" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'quovadisschland',</v>
       </c>
       <c r="AA688" s="8" t="s">
@@ -38920,7 +39200,7 @@
         <v>976</v>
       </c>
       <c r="Y689" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'sohnes1',</v>
       </c>
       <c r="AA689" s="8" t="s">
@@ -38938,7 +39218,7 @@
         <v>977</v>
       </c>
       <c r="Y690" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Millerntor1',</v>
       </c>
       <c r="AA690" s="8" t="s">
@@ -38956,7 +39236,7 @@
         <v>978</v>
       </c>
       <c r="Y691" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'stefananderl',</v>
       </c>
       <c r="AA691" s="8" t="s">
@@ -38974,7 +39254,7 @@
         <v>979</v>
       </c>
       <c r="Y692" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'salzmanufaktur',</v>
       </c>
       <c r="AA692" s="8" t="s">
@@ -38992,7 +39272,7 @@
         <v>981</v>
       </c>
       <c r="Y693" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Islamkritik_',</v>
       </c>
       <c r="AA693" s="8" t="s">
@@ -39010,7 +39290,7 @@
         <v>983</v>
       </c>
       <c r="Y694" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'frankdrebin247',</v>
       </c>
       <c r="AA694" s="8" t="s">
@@ -39028,7 +39308,7 @@
         <v>985</v>
       </c>
       <c r="Y695" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Haie_Westhus',</v>
       </c>
       <c r="AA695" s="8" t="s">
@@ -39046,7 +39326,7 @@
         <v>987</v>
       </c>
       <c r="Y696" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'einAnalytiker',</v>
       </c>
       <c r="AA696" s="8" t="s">
@@ -39064,7 +39344,7 @@
         <v>988</v>
       </c>
       <c r="Y697" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Elke50870671',</v>
       </c>
       <c r="AA697" s="8" t="s">
@@ -39082,7 +39362,7 @@
         <v>989</v>
       </c>
       <c r="Y698" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Harald70199',</v>
       </c>
       <c r="AA698" s="8" t="s">
@@ -39100,7 +39380,7 @@
         <v>990</v>
       </c>
       <c r="Y699" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'sasbrau',</v>
       </c>
       <c r="AA699" s="8" t="s">
@@ -39118,7 +39398,7 @@
         <v>991</v>
       </c>
       <c r="Y700" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'__himmel___',</v>
       </c>
       <c r="AA700" s="8" t="s">
@@ -39136,7 +39416,7 @@
         <v>993</v>
       </c>
       <c r="Y701" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'beamller1',</v>
       </c>
       <c r="AA701" s="8" t="s">
@@ -39154,7 +39434,7 @@
         <v>994</v>
       </c>
       <c r="Y702" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Eddie_1412',</v>
       </c>
       <c r="AA702" s="8" t="s">
@@ -39172,7 +39452,7 @@
         <v>995</v>
       </c>
       <c r="Y703" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'oberguru55',</v>
       </c>
       <c r="AA703" s="8" t="s">
@@ -39190,7 +39470,7 @@
         <v>996</v>
       </c>
       <c r="Y704" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'_Denk__Mal_',</v>
       </c>
       <c r="AA704" s="8" t="s">
@@ -39208,7 +39488,7 @@
         <v>997</v>
       </c>
       <c r="Y705" t="str">
-        <f t="shared" ref="Y705:Y768" si="14">"'"&amp;V705&amp;"',"</f>
+        <f t="shared" ref="Y705:Y768" si="15">"'"&amp;V705&amp;"',"</f>
         <v>'Gomander2',</v>
       </c>
       <c r="AA705" s="8" t="s">
@@ -39226,7 +39506,7 @@
         <v>998</v>
       </c>
       <c r="Y706" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'paul_kleiber',</v>
       </c>
       <c r="AA706" s="8" t="s">
@@ -39244,7 +39524,7 @@
         <v>999</v>
       </c>
       <c r="Y707" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Catweazle123',</v>
       </c>
       <c r="AA707" s="8" t="s">
@@ -39262,7 +39542,7 @@
         <v>1001</v>
       </c>
       <c r="Y708" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'strangelove666',</v>
       </c>
       <c r="AA708" s="8" t="s">
@@ -39280,7 +39560,7 @@
         <v>1002</v>
       </c>
       <c r="Y709" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Alfiher',</v>
       </c>
       <c r="AA709" s="8" t="s">
@@ -39298,7 +39578,7 @@
         <v>1003</v>
       </c>
       <c r="Y710" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Gerechtigkeit01',</v>
       </c>
       <c r="AA710" s="8" t="s">
@@ -39316,7 +39596,7 @@
         <v>1004</v>
       </c>
       <c r="Y711" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'PunishersKill',</v>
       </c>
       <c r="AA711" s="8" t="s">
@@ -39334,7 +39614,7 @@
         <v>1005</v>
       </c>
       <c r="Y712" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'HaraldPetermann',</v>
       </c>
       <c r="AA712" s="8" t="s">
@@ -39352,7 +39632,7 @@
         <v>1006</v>
       </c>
       <c r="Y713" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'m4nuPRT',</v>
       </c>
       <c r="AA713" s="8" t="s">
@@ -39370,7 +39650,7 @@
         <v>1007</v>
       </c>
       <c r="Y714" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'JoergRMayer',</v>
       </c>
       <c r="AA714" s="8" t="s">
@@ -39388,7 +39668,7 @@
         <v>1008</v>
       </c>
       <c r="Y715" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'fritzmichel',</v>
       </c>
       <c r="AA715" s="8" t="s">
@@ -39406,7 +39686,7 @@
         <v>1010</v>
       </c>
       <c r="Y716" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Scotchi77',</v>
       </c>
       <c r="AA716" s="8" t="s">
@@ -39424,7 +39704,7 @@
         <v>1012</v>
       </c>
       <c r="Y717" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'NostraTuring',</v>
       </c>
       <c r="AA717" s="8" t="s">
@@ -39442,7 +39722,7 @@
         <v>1013</v>
       </c>
       <c r="Y718" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'reissmann',</v>
       </c>
       <c r="AA718" s="8" t="s">
@@ -39460,7 +39740,7 @@
         <v>1014</v>
       </c>
       <c r="Y719" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'kardasiapat',</v>
       </c>
       <c r="AA719" s="8" t="s">
@@ -39478,7 +39758,7 @@
         <v>1015</v>
       </c>
       <c r="Y720" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'BenFuror',</v>
       </c>
       <c r="AA720" s="8" t="s">
@@ -39496,7 +39776,7 @@
         <v>1016</v>
       </c>
       <c r="Y721" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'1Feedom',</v>
       </c>
       <c r="AA721" s="8" t="s">
@@ -39514,7 +39794,7 @@
         <v>1017</v>
       </c>
       <c r="Y722" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Freiwilligfrei',</v>
       </c>
       <c r="AA722" s="8" t="s">
@@ -39532,7 +39812,7 @@
         <v>1019</v>
       </c>
       <c r="Y723" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'tino_taffanek',</v>
       </c>
       <c r="AA723" s="8" t="s">
@@ -39550,7 +39830,7 @@
         <v>1021</v>
       </c>
       <c r="Y724" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'mariae_gloria',</v>
       </c>
       <c r="AA724" s="8" t="s">
@@ -39568,7 +39848,7 @@
         <v>1022</v>
       </c>
       <c r="Y725" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Deutschland77',</v>
       </c>
       <c r="AA725" s="8" t="s">
@@ -39586,7 +39866,7 @@
         <v>1023</v>
       </c>
       <c r="Y726" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Anonym2019',</v>
       </c>
       <c r="AA726" s="8" t="s">
@@ -39604,7 +39884,7 @@
         <v>1024</v>
       </c>
       <c r="Y727" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'dampfhanss',</v>
       </c>
       <c r="AA727" s="8" t="s">
@@ -39622,7 +39902,7 @@
         <v>1025</v>
       </c>
       <c r="Y728" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'ZipPi_lalala',</v>
       </c>
       <c r="AA728" s="8" t="s">
@@ -39640,7 +39920,7 @@
         <v>1026</v>
       </c>
       <c r="Y729" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Kiss_me_Kiara',</v>
       </c>
       <c r="AA729" s="8" t="s">
@@ -39658,7 +39938,7 @@
         <v>1027</v>
       </c>
       <c r="Y730" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'DerVaterlaender',</v>
       </c>
       <c r="AA730" s="8" t="s">
@@ -39676,7 +39956,7 @@
         <v>1029</v>
       </c>
       <c r="Y731" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'KatinkaTheis',</v>
       </c>
       <c r="AA731" s="8" t="s">
@@ -39694,7 +39974,7 @@
         <v>1030</v>
       </c>
       <c r="Y732" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Netztagebuch',</v>
       </c>
       <c r="AA732" s="8" t="s">
@@ -39712,7 +39992,7 @@
         <v>1034</v>
       </c>
       <c r="Y733" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'fladdermues',</v>
       </c>
       <c r="AA733" s="8" t="s">
@@ -39730,7 +40010,7 @@
         <v>1035</v>
       </c>
       <c r="Y734" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Guggulu',</v>
       </c>
       <c r="AA734" s="8" t="s">
@@ -39748,7 +40028,7 @@
         <v>1036</v>
       </c>
       <c r="Y735" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'mathematikos',</v>
       </c>
       <c r="AA735" s="8" t="s">
@@ -39766,7 +40046,7 @@
         <v>1037</v>
       </c>
       <c r="Y736" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'bestbettercheck',</v>
       </c>
       <c r="AA736" s="8" t="s">
@@ -39784,7 +40064,7 @@
         <v>1038</v>
       </c>
       <c r="Y737" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'DudeTheAbide',</v>
       </c>
       <c r="AA737" s="8" t="s">
@@ -39802,7 +40082,7 @@
         <v>1040</v>
       </c>
       <c r="Y738" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'C001D00D',</v>
       </c>
       <c r="AA738" s="8" t="s">
@@ -39820,7 +40100,7 @@
         <v>1041</v>
       </c>
       <c r="Y739" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'AfD_Muenster',</v>
       </c>
       <c r="AA739" s="8" t="s">
@@ -39838,7 +40118,7 @@
         <v>1042</v>
       </c>
       <c r="Y740" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'uwebecher',</v>
       </c>
       <c r="AA740" s="8" t="s">
@@ -39856,7 +40136,7 @@
         <v>1043</v>
       </c>
       <c r="Y741" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'thomaslauer10',</v>
       </c>
       <c r="AA741" s="8" t="s">
@@ -39874,7 +40154,7 @@
         <v>1044</v>
       </c>
       <c r="Y742" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'DJUHMHA',</v>
       </c>
       <c r="AA742" s="8" t="s">
@@ -39892,7 +40172,7 @@
         <v>1045</v>
       </c>
       <c r="Y743" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Juergen_Fritz',</v>
       </c>
       <c r="AA743" s="8" t="s">
@@ -39910,7 +40190,7 @@
         <v>1046</v>
       </c>
       <c r="Y744" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'andixy9',</v>
       </c>
       <c r="AA744" s="8" t="s">
@@ -39928,7 +40208,7 @@
         <v>1047</v>
       </c>
       <c r="Y745" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Caro22one',</v>
       </c>
       <c r="AA745" s="8" t="s">
@@ -39946,7 +40226,7 @@
         <v>1048</v>
       </c>
       <c r="Y746" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'exactlyobserved',</v>
       </c>
       <c r="AA746" s="8" t="s">
@@ -39964,7 +40244,7 @@
         <v>1049</v>
       </c>
       <c r="Y747" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Hrafnel',</v>
       </c>
       <c r="AA747" s="8" t="s">
@@ -39982,7 +40262,7 @@
         <v>1050</v>
       </c>
       <c r="Y748" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'dkdenz',</v>
       </c>
       <c r="AA748" s="8" t="s">
@@ -40000,7 +40280,7 @@
         <v>1051</v>
       </c>
       <c r="Y749" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'tomkoehler252',</v>
       </c>
       <c r="AA749" s="8" t="s">
@@ -40018,7 +40298,7 @@
         <v>1052</v>
       </c>
       <c r="Y750" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'ManfredHeer',</v>
       </c>
       <c r="AA750" s="8" t="s">
@@ -40036,7 +40316,7 @@
         <v>1054</v>
       </c>
       <c r="Y751" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'roger896',</v>
       </c>
       <c r="AA751" s="8" t="s">
@@ -40054,7 +40334,7 @@
         <v>1055</v>
       </c>
       <c r="Y752" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'RHamelth',</v>
       </c>
       <c r="AA752" s="8" t="s">
@@ -40072,7 +40352,7 @@
         <v>1057</v>
       </c>
       <c r="Y753" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'BalsigerAlex',</v>
       </c>
       <c r="AA753" s="8" t="s">
@@ -40090,7 +40370,7 @@
         <v>1058</v>
       </c>
       <c r="Y754" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'dortmundsrechte',</v>
       </c>
       <c r="AA754" s="8" t="s">
@@ -40108,7 +40388,7 @@
         <v>1059</v>
       </c>
       <c r="Y755" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'chungun88',</v>
       </c>
       <c r="AA755" s="8" t="s">
@@ -40126,7 +40406,7 @@
         <v>1061</v>
       </c>
       <c r="Y756" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'GreenDevil78',</v>
       </c>
       <c r="AA756" s="8" t="s">
@@ -40144,7 +40424,7 @@
         <v>1062</v>
       </c>
       <c r="Y757" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'DeutscherMiche5',</v>
       </c>
       <c r="AA757" s="8" t="s">
@@ -40162,7 +40442,7 @@
         <v>1063</v>
       </c>
       <c r="Y758" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'stopR2G',</v>
       </c>
       <c r="AA758" s="8" t="s">
@@ -40180,7 +40460,7 @@
         <v>1064</v>
       </c>
       <c r="Y759" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'unbequemes',</v>
       </c>
       <c r="AA759" s="8" t="s">
@@ -40198,7 +40478,7 @@
         <v>1065</v>
       </c>
       <c r="Y760" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'headdowner',</v>
       </c>
       <c r="AA760" s="8" t="s">
@@ -40216,7 +40496,7 @@
         <v>1066</v>
       </c>
       <c r="Y761" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Artikel_20_GG',</v>
       </c>
       <c r="AA761" s="8" t="s">
@@ -40234,7 +40514,7 @@
         <v>1068</v>
       </c>
       <c r="Y762" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'KritischerTroll',</v>
       </c>
       <c r="AA762" s="8" t="s">
@@ -40252,7 +40532,7 @@
         <v>1069</v>
       </c>
       <c r="Y763" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Huggy54MG',</v>
       </c>
       <c r="AA763" s="8" t="s">
@@ -40270,7 +40550,7 @@
         <v>1070</v>
       </c>
       <c r="Y764" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'PapillonvA1010',</v>
       </c>
       <c r="AA764" s="8" t="s">
@@ -40288,7 +40568,7 @@
         <v>1071</v>
       </c>
       <c r="Y765" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Saerdnaya',</v>
       </c>
       <c r="AA765" s="8" t="s">
@@ -40306,7 +40586,7 @@
         <v>1072</v>
       </c>
       <c r="Y766" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2103markus',</v>
       </c>
       <c r="AA766" s="8" t="s">
@@ -40322,7 +40602,7 @@
         <v>1073</v>
       </c>
       <c r="Y767" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'bvbfollower',</v>
       </c>
       <c r="AA767" s="8" t="s">
@@ -40340,7 +40620,7 @@
         <v>1074</v>
       </c>
       <c r="Y768" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'WIR_UNS',</v>
       </c>
       <c r="AA768" s="8" t="s">
@@ -40358,7 +40638,7 @@
         <v>1075</v>
       </c>
       <c r="Y769" t="str">
-        <f t="shared" ref="Y769:Y832" si="15">"'"&amp;V769&amp;"',"</f>
+        <f t="shared" ref="Y769:Y832" si="16">"'"&amp;V769&amp;"',"</f>
         <v>'myaccount47',</v>
       </c>
       <c r="AA769" s="8" t="s">
@@ -40376,7 +40656,7 @@
         <v>1078</v>
       </c>
       <c r="Y770" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'LangeNase',</v>
       </c>
       <c r="AA770" s="8" t="s">
@@ -40394,7 +40674,7 @@
         <v>1079</v>
       </c>
       <c r="Y771" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'jakrevedko',</v>
       </c>
       <c r="AA771" s="8" t="s">
@@ -40412,7 +40692,7 @@
         <v>1080</v>
       </c>
       <c r="Y772" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'GuidoDietel',</v>
       </c>
       <c r="AA772" s="8" t="s">
@@ -40430,7 +40710,7 @@
         <v>1083</v>
       </c>
       <c r="Y773" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'gezeitengang',</v>
       </c>
       <c r="AA773" s="8" t="s">
@@ -40448,7 +40728,7 @@
         <v>1084</v>
       </c>
       <c r="Y774" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'MrScopolamin',</v>
       </c>
       <c r="AA774" s="8" t="s">
@@ -40466,7 +40746,7 @@
         <v>1085</v>
       </c>
       <c r="Y775" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'AliceSchmarotze',</v>
       </c>
       <c r="AA775" s="8" t="s">
@@ -40484,7 +40764,7 @@
         <v>1086</v>
       </c>
       <c r="Y776" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'pleitier',</v>
       </c>
       <c r="AA776" s="8" t="s">
@@ -40502,7 +40782,7 @@
         <v>1087</v>
       </c>
       <c r="Y777" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'WernerKulikow',</v>
       </c>
       <c r="AA777" s="8" t="s">
@@ -40520,7 +40800,7 @@
         <v>1088</v>
       </c>
       <c r="Y778" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'handschi2',</v>
       </c>
       <c r="AA778" s="8" t="s">
@@ -40538,7 +40818,7 @@
         <v>1089</v>
       </c>
       <c r="Y779" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'OnTo2000',</v>
       </c>
       <c r="AA779" s="8" t="s">
@@ -40556,7 +40836,7 @@
         <v>1090</v>
       </c>
       <c r="Y780" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Ch_Bartling',</v>
       </c>
       <c r="AA780" s="8" t="s">
@@ -40574,7 +40854,7 @@
         <v>1093</v>
       </c>
       <c r="Y781" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Oidabazi',</v>
       </c>
       <c r="AA781" s="8" t="s">
@@ -40592,7 +40872,7 @@
         <v>1095</v>
       </c>
       <c r="Y782" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Volkskorrespdt',</v>
       </c>
       <c r="AA782" s="8" t="s">
@@ -40610,7 +40890,7 @@
         <v>1096</v>
       </c>
       <c r="Y783" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'tabanakelwanze',</v>
       </c>
       <c r="AA783" s="8" t="s">
@@ -40628,7 +40908,7 @@
         <v>1097</v>
       </c>
       <c r="Y784" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'ExZimbi',</v>
       </c>
       <c r="AA784" s="8" t="s">
@@ -40646,7 +40926,7 @@
         <v>1098</v>
       </c>
       <c r="Y785" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'HartwigKnoops',</v>
       </c>
       <c r="AA785" s="8" t="s">
@@ -40664,7 +40944,7 @@
         <v>1099</v>
       </c>
       <c r="Y786" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'MillaKeenan',</v>
       </c>
       <c r="AA786" s="8" t="s">
@@ -40682,7 +40962,7 @@
         <v>1100</v>
       </c>
       <c r="Y787" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'sara_dewe',</v>
       </c>
       <c r="AA787" s="8" t="s">
@@ -40700,7 +40980,7 @@
         <v>1101</v>
       </c>
       <c r="Y788" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Afd_OSN',</v>
       </c>
       <c r="AA788" s="8" t="s">
@@ -40718,7 +40998,7 @@
         <v>1102</v>
       </c>
       <c r="Y789" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'w203go',</v>
       </c>
       <c r="AA789" s="8" t="s">
@@ -40736,7 +41016,7 @@
         <v>1103</v>
       </c>
       <c r="Y790" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'twitt_Alfred',</v>
       </c>
       <c r="AA790" s="8" t="s">
@@ -40754,7 +41034,7 @@
         <v>1104</v>
       </c>
       <c r="Y791" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'p_fraup_',</v>
       </c>
       <c r="AA791" s="8" t="s">
@@ -40772,7 +41052,7 @@
         <v>1105</v>
       </c>
       <c r="Y792" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'padmodi',</v>
       </c>
       <c r="AA792" s="8" t="s">
@@ -40790,7 +41070,7 @@
         <v>1106</v>
       </c>
       <c r="Y793" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'KlausKontra',</v>
       </c>
       <c r="AA793" s="8" t="s">
@@ -40808,7 +41088,7 @@
         <v>1107</v>
       </c>
       <c r="Y794" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Mario_Hau_AfD',</v>
       </c>
       <c r="AA794" s="8" t="s">
@@ -40826,7 +41106,7 @@
         <v>1109</v>
       </c>
       <c r="Y795" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'MarcWallace18',</v>
       </c>
       <c r="AA795" s="8" t="s">
@@ -40844,7 +41124,7 @@
         <v>1110</v>
       </c>
       <c r="Y796" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'NoExtreme87',</v>
       </c>
       <c r="AA796" s="8" t="s">
@@ -40862,7 +41142,7 @@
         <v>1111</v>
       </c>
       <c r="Y797" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'aluhut__Akbar__',</v>
       </c>
       <c r="AA797" s="8" t="s">
@@ -40880,7 +41160,7 @@
         <v>1112</v>
       </c>
       <c r="Y798" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Aquinate2',</v>
       </c>
       <c r="AA798" s="8" t="s">
@@ -40898,7 +41178,7 @@
         <v>1113</v>
       </c>
       <c r="Y799" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'tulpenbieger',</v>
       </c>
       <c r="AA799" s="8" t="s">
@@ -40916,7 +41196,7 @@
         <v>1115</v>
       </c>
       <c r="Y800" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'floramargarina',</v>
       </c>
       <c r="AA800" s="8" t="s">
@@ -40934,7 +41214,7 @@
         <v>1116</v>
       </c>
       <c r="Y801" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'von_Ziehten',</v>
       </c>
       <c r="AA801" s="8" t="s">
@@ -40952,7 +41232,7 @@
         <v>1117</v>
       </c>
       <c r="Y802" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'wolfwal',</v>
       </c>
       <c r="AA802" s="8" t="s">
@@ -40970,7 +41250,7 @@
         <v>1118</v>
       </c>
       <c r="Y803" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'HikariGoi',</v>
       </c>
       <c r="AA803" s="8" t="s">
@@ -40988,7 +41268,7 @@
         <v>1119</v>
       </c>
       <c r="Y804" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Tomte_Tummetot',</v>
       </c>
       <c r="AA804" s="8" t="s">
@@ -41006,7 +41286,7 @@
         <v>1120</v>
       </c>
       <c r="Y805" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'JABVDuesseldorf',</v>
       </c>
       <c r="AA805" s="8" t="s">
@@ -41024,7 +41304,7 @@
         <v>1121</v>
       </c>
       <c r="Y806" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'PittivomDorf',</v>
       </c>
       <c r="AA806" s="8" t="s">
@@ -41042,7 +41322,7 @@
         <v>1122</v>
       </c>
       <c r="Y807" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'_Demokratie',</v>
       </c>
       <c r="AA807" s="8" t="s">
@@ -41060,7 +41340,7 @@
         <v>1123</v>
       </c>
       <c r="Y808" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Barvariano',</v>
       </c>
       <c r="AA808" s="8" t="s">
@@ -41078,7 +41358,7 @@
         <v>1126</v>
       </c>
       <c r="Y809" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'larafla0815',</v>
       </c>
       <c r="AA809" s="8" t="s">
@@ -41096,7 +41376,7 @@
         <v>1127</v>
       </c>
       <c r="Y810" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'flensi1',</v>
       </c>
       <c r="AA810" s="8" t="s">
@@ -41114,7 +41394,7 @@
         <v>1128</v>
       </c>
       <c r="Y811" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'ErikWuensche',</v>
       </c>
       <c r="AA811" s="8" t="s">
@@ -41132,7 +41412,7 @@
         <v>1129</v>
       </c>
       <c r="Y812" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'H_Erzbube',</v>
       </c>
       <c r="AA812" s="8" t="s">
@@ -41150,7 +41430,7 @@
         <v>1130</v>
       </c>
       <c r="Y813" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'MenNeedDogs',</v>
       </c>
       <c r="AA813" s="8" t="s">
@@ -41168,7 +41448,7 @@
         <v>1131</v>
       </c>
       <c r="Y814" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'VietusIL',</v>
       </c>
       <c r="AA814" s="8" t="s">
@@ -41186,7 +41466,7 @@
         <v>1132</v>
       </c>
       <c r="Y815" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Friedemannschu1',</v>
       </c>
       <c r="AA815" s="8" t="s">
@@ -41204,7 +41484,7 @@
         <v>1133</v>
       </c>
       <c r="Y816" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'HartmannLiane',</v>
       </c>
       <c r="AA816" s="8" t="s">
@@ -41222,7 +41502,7 @@
         <v>1134</v>
       </c>
       <c r="Y817" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'hax_pax_max',</v>
       </c>
       <c r="AA817" s="8" t="s">
@@ -41240,7 +41520,7 @@
         <v>1135</v>
       </c>
       <c r="Y818" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'sushimotos',</v>
       </c>
       <c r="AA818" s="8" t="s">
@@ -41258,7 +41538,7 @@
         <v>1137</v>
       </c>
       <c r="Y819" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Wundi68',</v>
       </c>
       <c r="AA819" s="8" t="s">
@@ -41276,7 +41556,7 @@
         <v>1138</v>
       </c>
       <c r="Y820" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'PaulLamperd',</v>
       </c>
       <c r="AA820" s="8" t="s">
@@ -41294,7 +41574,7 @@
         <v>1139</v>
       </c>
       <c r="Y821" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'AfDBerlin',</v>
       </c>
       <c r="AA821" s="8" t="s">
@@ -41312,7 +41592,7 @@
         <v>1141</v>
       </c>
       <c r="Y822" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'LucasHoffmann61',</v>
       </c>
       <c r="AA822" s="8" t="s">
@@ -41330,7 +41610,7 @@
         <v>1142</v>
       </c>
       <c r="Y823" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Susi_Sorgenvoll',</v>
       </c>
       <c r="AA823" s="8" t="s">
@@ -41348,7 +41628,7 @@
         <v>1143</v>
       </c>
       <c r="Y824" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'rostein45',</v>
       </c>
       <c r="AA824" s="8" t="s">
@@ -41366,7 +41646,7 @@
         <v>1144</v>
       </c>
       <c r="Y825" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'LOLitsmo',</v>
       </c>
       <c r="AA825" s="8" t="s">
@@ -41384,7 +41664,7 @@
         <v>1145</v>
       </c>
       <c r="Y826" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'KrahMax',</v>
       </c>
       <c r="AA826" s="8" t="s">
@@ -41402,7 +41682,7 @@
         <v>1146</v>
       </c>
       <c r="Y827" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'kinderpsych',</v>
       </c>
       <c r="AA827" s="8" t="s">
@@ -41420,7 +41700,7 @@
         <v>1147</v>
       </c>
       <c r="Y828" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'SverigAfD',</v>
       </c>
       <c r="AA828" s="8" t="s">
@@ -41438,7 +41718,7 @@
         <v>1148</v>
       </c>
       <c r="Y829" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'JenomProsty2016',</v>
       </c>
       <c r="AA829" s="8" t="s">
@@ -41456,7 +41736,7 @@
         <v>1149</v>
       </c>
       <c r="Y830" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'0815Lucky0815',</v>
       </c>
       <c r="AA830" s="8" t="s">
@@ -41474,7 +41754,7 @@
         <v>1150</v>
       </c>
       <c r="Y831" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'VoxFriburgensis',</v>
       </c>
       <c r="AA831" s="8" t="s">
@@ -41492,7 +41772,7 @@
         <v>1151</v>
       </c>
       <c r="Y832" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'BlickAchse',</v>
       </c>
       <c r="AA832" s="8" t="s">
@@ -41510,7 +41790,7 @@
         <v>1152</v>
       </c>
       <c r="Y833" t="str">
-        <f t="shared" ref="Y833:Y885" si="16">"'"&amp;V833&amp;"',"</f>
+        <f t="shared" ref="Y833:Y885" si="17">"'"&amp;V833&amp;"',"</f>
         <v>'Johannes135',</v>
       </c>
       <c r="AA833" s="8" t="s">
@@ -41528,7 +41808,7 @@
         <v>1153</v>
       </c>
       <c r="Y834" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'kwisatz_h',</v>
       </c>
       <c r="AA834" s="8" t="s">
@@ -41546,7 +41826,7 @@
         <v>1154</v>
       </c>
       <c r="Y835" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'r00chN',</v>
       </c>
       <c r="AA835" s="8" t="s">
@@ -41564,7 +41844,7 @@
         <v>1155</v>
       </c>
       <c r="Y836" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Unbequem_hoch_3',</v>
       </c>
       <c r="AA836" s="8" t="s">
@@ -41582,7 +41862,7 @@
         <v>1156</v>
       </c>
       <c r="Y837" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'_Piroska',</v>
       </c>
       <c r="AA837" s="8" t="s">
@@ -41600,7 +41880,7 @@
         <v>1157</v>
       </c>
       <c r="Y838" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'VFF77',</v>
       </c>
       <c r="AA838" s="8" t="s">
@@ -41618,7 +41898,7 @@
         <v>1158</v>
       </c>
       <c r="Y839" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'FrauGattin',</v>
       </c>
       <c r="AA839" s="8" t="s">
@@ -41636,7 +41916,7 @@
         <v>1159</v>
       </c>
       <c r="Y840" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Hohensyburg',</v>
       </c>
       <c r="AA840" s="8" t="s">
@@ -41654,7 +41934,7 @@
         <v>1160</v>
       </c>
       <c r="Y841" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'_PatMurphy_',</v>
       </c>
       <c r="AA841" s="8" t="s">
@@ -41672,7 +41952,7 @@
         <v>1161</v>
       </c>
       <c r="Y842" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'teite99',</v>
       </c>
       <c r="AA842" s="8" t="s">
@@ -41690,7 +41970,7 @@
         <v>1162</v>
       </c>
       <c r="Y843" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Yoshihjl',</v>
       </c>
       <c r="AA843" s="8" t="s">
@@ -41708,7 +41988,7 @@
         <v>1163</v>
       </c>
       <c r="Y844" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'An_taeus',</v>
       </c>
       <c r="AA844" s="8" t="s">
@@ -41726,7 +42006,7 @@
         <v>1166</v>
       </c>
       <c r="Y845" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Follow_th3',</v>
       </c>
       <c r="AA845" s="8" t="s">
@@ -41744,7 +42024,7 @@
         <v>1167</v>
       </c>
       <c r="Y846" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Craftergut',</v>
       </c>
       <c r="AA846" s="8" t="s">
@@ -41762,7 +42042,7 @@
         <v>1168</v>
       </c>
       <c r="Y847" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'teleherzog',</v>
       </c>
       <c r="AA847" s="8" t="s">
@@ -41780,7 +42060,7 @@
         <v>1169</v>
       </c>
       <c r="Y848" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Lauro_Doc',</v>
       </c>
       <c r="AA848" s="8" t="s">
@@ -41798,7 +42078,7 @@
         <v>1171</v>
       </c>
       <c r="Y849" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'heinemo',</v>
       </c>
       <c r="AA849" s="8" t="s">
@@ -41816,7 +42096,7 @@
         <v>1173</v>
       </c>
       <c r="Y850" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'_Murphyne',</v>
       </c>
       <c r="AA850" s="8" t="s">
@@ -41834,7 +42114,7 @@
         <v>1175</v>
       </c>
       <c r="Y851" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'finis_euro',</v>
       </c>
       <c r="AA851" s="8" t="s">
@@ -41852,7 +42132,7 @@
         <v>1176</v>
       </c>
       <c r="Y852" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'0987677_49',</v>
       </c>
       <c r="AA852" s="8" t="s">
@@ -41870,7 +42150,7 @@
         <v>1177</v>
       </c>
       <c r="Y853" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'peter789_',</v>
       </c>
       <c r="AA853" s="8" t="s">
@@ -41888,7 +42168,7 @@
         <v>1178</v>
       </c>
       <c r="Y854" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'randomname77777',</v>
       </c>
       <c r="AA854" s="8" t="s">
@@ -41906,7 +42186,7 @@
         <v>1179</v>
       </c>
       <c r="Y855" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'ralflmuller',</v>
       </c>
       <c r="AA855" s="8" t="s">
@@ -41924,7 +42204,7 @@
         <v>1180</v>
       </c>
       <c r="Y856" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'MartinStoll11',</v>
       </c>
       <c r="AA856" s="8" t="s">
@@ -41942,7 +42222,7 @@
         <v>1181</v>
       </c>
       <c r="Y857" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'AnoMo70',</v>
       </c>
       <c r="AA857" s="8" t="s">
@@ -41960,7 +42240,7 @@
         <v>1182</v>
       </c>
       <c r="Y858" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Honk2016',</v>
       </c>
       <c r="AA858" s="8" t="s">
@@ -41978,7 +42258,7 @@
         <v>1183</v>
       </c>
       <c r="Y859" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Falklandfuchs',</v>
       </c>
       <c r="AA859" s="8" t="s">
@@ -41996,7 +42276,7 @@
         <v>1184</v>
       </c>
       <c r="Y860" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Ropde_',</v>
       </c>
       <c r="AA860" s="8" t="s">
@@ -42014,7 +42294,7 @@
         <v>1185</v>
       </c>
       <c r="Y861" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Frannylicious79',</v>
       </c>
       <c r="AA861" s="8" t="s">
@@ -42032,7 +42312,7 @@
         <v>1187</v>
       </c>
       <c r="Y862" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'WhoIsInGermany0',</v>
       </c>
       <c r="AA862" s="8" t="s">
@@ -42050,7 +42330,7 @@
         <v>1188</v>
       </c>
       <c r="Y863" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Ruhr_Poet',</v>
       </c>
       <c r="AA863" s="8" t="s">
@@ -42068,7 +42348,7 @@
         <v>1189</v>
       </c>
       <c r="Y864" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Rumsucher',</v>
       </c>
       <c r="AA864" s="8" t="s">
@@ -42086,7 +42366,7 @@
         <v>1190</v>
       </c>
       <c r="Y865" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'elysagab',</v>
       </c>
       <c r="AA865" s="8" t="s">
@@ -42104,7 +42384,7 @@
         <v>1191</v>
       </c>
       <c r="Y866" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Schmitt4711',</v>
       </c>
       <c r="AA866" s="8" t="s">
@@ -42122,7 +42402,7 @@
         <v>1192</v>
       </c>
       <c r="Y867" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'nasanasal',</v>
       </c>
       <c r="AA867" s="8" t="s">
@@ -42140,7 +42420,7 @@
         <v>1193</v>
       </c>
       <c r="Y868" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Imageberatungen',</v>
       </c>
       <c r="AA868" s="8" t="s">
@@ -42158,7 +42438,7 @@
         <v>1194</v>
       </c>
       <c r="Y869" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'BergerBergerie',</v>
       </c>
       <c r="AA869" s="8" t="s">
@@ -42176,7 +42456,7 @@
         <v>1195</v>
       </c>
       <c r="Y870" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'123Lenchen',</v>
       </c>
       <c r="AA870" s="8" t="s">
@@ -42194,7 +42474,7 @@
         <v>1196</v>
       </c>
       <c r="Y871" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'zentralversand',</v>
       </c>
       <c r="AA871" s="8" t="s">
@@ -42212,7 +42492,7 @@
         <v>1197</v>
       </c>
       <c r="Y872" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Politologe22',</v>
       </c>
       <c r="AA872" s="8" t="s">
@@ -42230,7 +42510,7 @@
         <v>1198</v>
       </c>
       <c r="Y873" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Montauk_23',</v>
       </c>
       <c r="AA873" s="8" t="s">
@@ -42248,7 +42528,7 @@
         <v>1199</v>
       </c>
       <c r="Y874" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Claudia_xy',</v>
       </c>
       <c r="AA874" s="8" t="s">
@@ -42266,7 +42546,7 @@
         <v>1200</v>
       </c>
       <c r="Y875" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Zora_211212',</v>
       </c>
       <c r="AA875" s="8" t="s">
@@ -42284,7 +42564,7 @@
         <v>1201</v>
       </c>
       <c r="Y876" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'wilcon58',</v>
       </c>
       <c r="AA876" s="8" t="s">
@@ -42302,7 +42582,7 @@
         <v>1203</v>
       </c>
       <c r="Y877" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'frywynd',</v>
       </c>
       <c r="AA877" s="8" t="s">
@@ -42320,7 +42600,7 @@
         <v>1204</v>
       </c>
       <c r="Y878" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'AfDKreisMK',</v>
       </c>
       <c r="AA878" s="8" t="s">
@@ -42338,7 +42618,7 @@
         <v>1205</v>
       </c>
       <c r="Y879" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'SchattenprinzM',</v>
       </c>
       <c r="AA879" s="8" t="s">
@@ -42356,7 +42636,7 @@
         <v>1206</v>
       </c>
       <c r="Y880" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'AntifaTaunus',</v>
       </c>
       <c r="AA880" s="8" t="s">
@@ -42374,7 +42654,7 @@
         <v>1207</v>
       </c>
       <c r="Y881" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'UnzufriedenerB',</v>
       </c>
       <c r="AA881" s="8" t="s">
@@ -42392,7 +42672,7 @@
         <v>1208</v>
       </c>
       <c r="Y882" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'XAgathon',</v>
       </c>
       <c r="AA882" s="8" t="s">
@@ -42410,7 +42690,7 @@
         <v>1209</v>
       </c>
       <c r="Y883" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Johann_Hoelzl',</v>
       </c>
       <c r="AA883" s="8" t="s">
@@ -42428,7 +42708,7 @@
         <v>1210</v>
       </c>
       <c r="Y884" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'totul69',</v>
       </c>
       <c r="AA884" s="8" t="s">
@@ -42446,7 +42726,7 @@
         <v>1212</v>
       </c>
       <c r="Y885" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'jakobalt',</v>
       </c>
       <c r="AA885" s="8" t="s">

--- a/Documentation/böhmermannliste Kopie.xlsx
+++ b/Documentation/böhmermannliste Kopie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lisa/Desktop/Seminar/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2187BF-4767-4943-8FEE-FAC12DDBC3D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E53A35-D24A-734C-9884-0AC8AF4B85EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="4720" windowWidth="28800" windowHeight="17540" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
+    <workbookView xWindow="40" yWindow="1720" windowWidth="28800" windowHeight="17540" xr2:uid="{FC8150D4-3350-9642-8667-88427C15149C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5950" uniqueCount="2929">
   <si>
     <r>
       <t>Patriot</t>
@@ -23303,9 +23303,6 @@
   </si>
   <si>
     <t>HeidiHofer06</t>
-  </si>
-  <si>
-    <t>Luisa_maletzki</t>
   </si>
   <si>
     <t>lmaolililu</t>
@@ -23551,7 +23548,27 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -23915,8 +23932,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AA1456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G70"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23949,7 +23966,7 @@
         <v>99</v>
       </c>
       <c r="K1" t="str">
-        <f xml:space="preserve"> "'" &amp; H1 &amp; "',"</f>
+        <f t="shared" ref="K1:K10" si="0" xml:space="preserve"> "'" &amp; H1 &amp; "',"</f>
         <v>'Deutscher_17',</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -23962,7 +23979,7 @@
         <v>99</v>
       </c>
       <c r="Y1" t="str">
-        <f t="shared" ref="Y1:Y64" si="0">"'"&amp;V1&amp;"',"</f>
+        <f t="shared" ref="Y1:Y64" si="1">"'"&amp;V1&amp;"',"</f>
         <v>'Deutscher_17',</v>
       </c>
       <c r="AA1" s="8" t="s">
@@ -23977,21 +23994,21 @@
         <v>2852</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="1" xml:space="preserve"> "'" &amp; D2 &amp; "',"</f>
+        <f t="shared" ref="E2:E65" si="2" xml:space="preserve"> "'" &amp; D2 &amp; "',"</f>
         <v>'Hera22112013',</v>
       </c>
       <c r="F2" t="s">
         <v>379</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="2" xml:space="preserve"> "'"&amp;F2&amp;"',"</f>
+        <f t="shared" ref="G2:G65" si="3" xml:space="preserve"> "'"&amp;F2&amp;"',"</f>
         <v>'IsidorMeyer1',</v>
       </c>
       <c r="H2" t="s">
         <v>100</v>
       </c>
       <c r="K2" t="str">
-        <f xml:space="preserve"> "'" &amp; H2 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'Itschi1',</v>
       </c>
       <c r="O2" s="8" t="s">
@@ -24004,7 +24021,7 @@
         <v>100</v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Itschi1',</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -24019,21 +24036,21 @@
         <v>379</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'IsidorMeyer1',</v>
       </c>
       <c r="F3" t="s">
         <v>2853</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Chasty_t',</v>
       </c>
       <c r="H3" t="s">
         <v>101</v>
       </c>
       <c r="K3" t="str">
-        <f xml:space="preserve"> "'" &amp; H3 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'Lepanto_',</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -24046,7 +24063,7 @@
         <v>101</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Lepanto_',</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -24061,21 +24078,21 @@
         <v>2853</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Chasty_t',</v>
       </c>
       <c r="F4" t="s">
         <v>2854</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'JaNuWatn',</v>
       </c>
       <c r="H4" t="s">
         <v>102</v>
       </c>
       <c r="K4" t="str">
-        <f xml:space="preserve"> "'" &amp; H4 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'Luisa_Maletzki',</v>
       </c>
       <c r="O4" s="8" t="s">
@@ -24088,7 +24105,7 @@
         <v>102</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Luisa_Maletzki',</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -24103,21 +24120,21 @@
         <v>1033</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Dunkeldenk',</v>
       </c>
       <c r="F5" t="s">
         <v>2855</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'sandmango2005',</v>
       </c>
       <c r="H5" t="s">
         <v>103</v>
       </c>
       <c r="K5" t="str">
-        <f xml:space="preserve"> "'" &amp; H5 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'kevin_hevin_21',</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -24130,7 +24147,7 @@
         <v>103</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'kevin_hevin_21',</v>
       </c>
       <c r="AA5" s="8" t="s">
@@ -24145,21 +24162,21 @@
         <v>2854</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'JaNuWatn',</v>
       </c>
       <c r="F6" t="s">
         <v>2857</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'mona_rumpel',</v>
       </c>
       <c r="H6" t="s">
         <v>104</v>
       </c>
       <c r="K6" t="str">
-        <f xml:space="preserve"> "'" &amp; H6 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'gerlex',</v>
       </c>
       <c r="O6" s="8" t="s">
@@ -24172,7 +24189,7 @@
         <v>104</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'gerlex',</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -24187,21 +24204,21 @@
         <v>2855</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'sandmango2005',</v>
       </c>
       <c r="F7" t="s">
         <v>2861</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'LC180666',</v>
       </c>
       <c r="H7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="str">
-        <f xml:space="preserve"> "'" &amp; H7 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'EldonNick',</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -24214,7 +24231,7 @@
         <v>105</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'EldonNick',</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -24229,21 +24246,21 @@
         <v>2856</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MadFWagner',</v>
       </c>
       <c r="F8" t="s">
         <v>2862</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'fop4651',</v>
       </c>
       <c r="H8" t="s">
         <v>106</v>
       </c>
       <c r="K8" t="str">
-        <f xml:space="preserve"> "'" &amp; H8 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'Wilhelm_Koerner',</v>
       </c>
       <c r="O8" s="8" t="s">
@@ -24256,7 +24273,7 @@
         <v>106</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Wilhelm_Koerner',</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -24271,21 +24288,21 @@
         <v>2857</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'mona_rumpel',</v>
       </c>
       <c r="F9" t="s">
         <v>2863</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'chris_p79',</v>
       </c>
       <c r="H9" t="s">
         <v>107</v>
       </c>
       <c r="K9" t="str">
-        <f xml:space="preserve"> "'" &amp; H9 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'aka_Ganymed',</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -24298,7 +24315,7 @@
         <v>107</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'aka_Ganymed',</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -24313,21 +24330,21 @@
         <v>2858</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'ramses_der_lll',</v>
       </c>
       <c r="F10" t="s">
         <v>1042</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'uwebecher',</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K10" t="str">
-        <f xml:space="preserve"> "'" &amp; H10 &amp; "',"</f>
+        <f t="shared" si="0"/>
         <v>'phalanx_europa',</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -24340,7 +24357,7 @@
         <v>108</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'phalanx_europa',</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -24355,14 +24372,14 @@
         <v>2859</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'henrik_verwoerd',</v>
       </c>
       <c r="F11" t="s">
         <v>2867</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Ayse_0815',</v>
       </c>
       <c r="H11" t="s">
@@ -24382,7 +24399,7 @@
         <v>110</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'ruhr_area51',</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -24397,14 +24414,14 @@
         <v>2860</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'FFritzsche2',</v>
       </c>
       <c r="F12" t="s">
         <v>778</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'MyCodeOfConduct',</v>
       </c>
       <c r="H12" t="s">
@@ -24424,7 +24441,7 @@
         <v>111</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Rosskar1',</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -24439,14 +24456,14 @@
         <v>2861</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'LC180666',</v>
       </c>
       <c r="F13" t="s">
         <v>2871</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'X9donernesto',</v>
       </c>
       <c r="H13" t="s">
@@ -24466,7 +24483,7 @@
         <v>113</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'_enochwasright',</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -24481,14 +24498,14 @@
         <v>2862</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'fop4651',</v>
       </c>
       <c r="F14" t="s">
         <v>2872</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'blaupfeil',</v>
       </c>
       <c r="H14" t="s">
@@ -24508,7 +24525,7 @@
         <v>114</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Theodoretiker',</v>
       </c>
       <c r="AA14" s="8" t="s">
@@ -24523,14 +24540,14 @@
         <v>2863</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'chris_p79',</v>
       </c>
       <c r="F15" t="s">
         <v>2873</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Renft1964',</v>
       </c>
       <c r="H15" t="s">
@@ -24550,7 +24567,7 @@
         <v>115</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'realNEWZBLOG',</v>
       </c>
       <c r="AA15" s="8" t="s">
@@ -24565,14 +24582,14 @@
         <v>2864</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'WilhelmTell77',</v>
       </c>
       <c r="F16" t="s">
         <v>2874</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Grazywalking',</v>
       </c>
       <c r="H16" t="s">
@@ -24592,7 +24609,7 @@
         <v>117</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'McTabbish',</v>
       </c>
       <c r="AA16" s="8" t="s">
@@ -24607,14 +24624,14 @@
         <v>2865</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NikoLaus1977',</v>
       </c>
       <c r="F17" t="s">
         <v>2875</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'FvdMosselaar',</v>
       </c>
       <c r="H17" t="s">
@@ -24633,7 +24650,7 @@
         <v>118</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'supermampf',</v>
       </c>
       <c r="AA17" s="8" t="s">
@@ -24648,14 +24665,14 @@
         <v>2866</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'bo_hermaine',</v>
       </c>
       <c r="F18" t="s">
         <v>2876</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'cornelia_cagol',</v>
       </c>
       <c r="H18" t="s">
@@ -24674,7 +24691,7 @@
         <v>119</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'RMichael2000',</v>
       </c>
       <c r="AA18" s="8" t="s">
@@ -24689,14 +24706,14 @@
         <v>1042</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'uwebecher',</v>
       </c>
       <c r="F19" t="s">
         <v>2877</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Boelscheline',</v>
       </c>
       <c r="H19" t="s">
@@ -24715,7 +24732,7 @@
         <v>120</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'kekdich',</v>
       </c>
       <c r="AA19" s="8" t="s">
@@ -24730,14 +24747,14 @@
         <v>2867</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Ayse_0815',</v>
       </c>
       <c r="F20" t="s">
         <v>2879</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'kchak79',</v>
       </c>
       <c r="H20" t="s">
@@ -24756,7 +24773,7 @@
         <v>2734</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'enythen',</v>
       </c>
       <c r="AA20" s="8" t="s">
@@ -24771,14 +24788,14 @@
         <v>778</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MyCodeOfConduct',</v>
       </c>
       <c r="F21" t="s">
         <v>2882</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'KarlHalasz',</v>
       </c>
       <c r="H21" t="s">
@@ -24797,7 +24814,7 @@
         <v>126</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'politoreality',</v>
       </c>
       <c r="AA21" s="8" t="s">
@@ -24812,14 +24829,14 @@
         <v>2868</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Matthias_Kt',</v>
       </c>
       <c r="F22" t="s">
         <v>1062</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'DeutscherMiche5',</v>
       </c>
       <c r="H22" t="s">
@@ -24838,7 +24855,7 @@
         <v>128</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Chreuper',</v>
       </c>
       <c r="AA22" s="8" t="s">
@@ -24853,14 +24870,14 @@
         <v>2869</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'DatOlli64',</v>
       </c>
       <c r="F23" t="s">
         <v>2883</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'NightRalph',</v>
       </c>
       <c r="H23" t="s">
@@ -24879,7 +24896,7 @@
         <v>129</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Jeb_Ident',</v>
       </c>
       <c r="AA23" s="8" t="s">
@@ -24894,14 +24911,14 @@
         <v>2870</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'6pack88',</v>
       </c>
       <c r="F24" t="s">
         <v>2884</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'safe_ID35',</v>
       </c>
       <c r="H24" t="s">
@@ -24920,7 +24937,7 @@
         <v>130</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'asorent',</v>
       </c>
       <c r="AA24" s="8" t="s">
@@ -24935,14 +24952,14 @@
         <v>2871</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'X9donernesto',</v>
       </c>
       <c r="F25" t="s">
         <v>2885</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'FalkRodig',</v>
       </c>
       <c r="H25" t="s">
@@ -24961,7 +24978,7 @@
         <v>131</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'trueY4K',</v>
       </c>
       <c r="AA25" s="8" t="s">
@@ -24976,14 +24993,14 @@
         <v>2872</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'blaupfeil',</v>
       </c>
       <c r="F26" t="s">
         <v>2886</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'HamburgerDeern4',</v>
       </c>
       <c r="H26" t="s">
@@ -25002,7 +25019,7 @@
         <v>2735</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'MerkelFan666',</v>
       </c>
       <c r="AA26" s="8" t="s">
@@ -25017,14 +25034,14 @@
         <v>2873</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Renft1964',</v>
       </c>
       <c r="F27" t="s">
         <v>2887</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'StolzesVolk',</v>
       </c>
       <c r="H27" t="s">
@@ -25043,7 +25060,7 @@
         <v>134</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'TeutemanTuts',</v>
       </c>
       <c r="AA27" s="8" t="s">
@@ -25058,14 +25075,14 @@
         <v>2874</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Grazywalking',</v>
       </c>
       <c r="F28" t="s">
         <v>2888</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Logiker01',</v>
       </c>
       <c r="H28" t="s">
@@ -25084,7 +25101,7 @@
         <v>136</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'LordZentrum',</v>
       </c>
       <c r="AA28" s="8" t="s">
@@ -25099,14 +25116,14 @@
         <v>2875</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'FvdMosselaar',</v>
       </c>
       <c r="F29" t="s">
         <v>2889</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'NationalerBoy14',</v>
       </c>
       <c r="H29" t="s">
@@ -25125,7 +25142,7 @@
         <v>137</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'TheDefi4nt',</v>
       </c>
       <c r="AA29" s="8" t="s">
@@ -25140,14 +25157,14 @@
         <v>2876</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'cornelia_cagol',</v>
       </c>
       <c r="F30" t="s">
         <v>2890</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'wakeupinfo',</v>
       </c>
       <c r="H30" t="s">
@@ -25166,7 +25183,7 @@
         <v>138</v>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'HeiligeRevolte',</v>
       </c>
       <c r="AA30" s="8" t="s">
@@ -25181,14 +25198,14 @@
         <v>2877</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Boelscheline',</v>
       </c>
       <c r="F31" t="s">
         <v>2891</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'HeidiHofer06',</v>
       </c>
       <c r="H31" t="s">
@@ -25207,7 +25224,7 @@
         <v>140</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Paganaer',</v>
       </c>
       <c r="AA31" s="8" t="s">
@@ -25222,14 +25239,14 @@
         <v>2878</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SchafDas',</v>
       </c>
       <c r="F32" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'BERLINER1404',</v>
       </c>
       <c r="H32" t="s">
@@ -25248,7 +25265,7 @@
         <v>142</v>
       </c>
       <c r="Y32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'LangeRII',</v>
       </c>
       <c r="AA32" s="8" t="s">
@@ -25263,14 +25280,14 @@
         <v>2879</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'kchak79',</v>
       </c>
       <c r="F33" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'dfoqF5yazTb1YI3',</v>
       </c>
       <c r="H33" t="s">
@@ -25289,7 +25306,7 @@
         <v>2736</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'franziskam108',</v>
       </c>
       <c r="AA33" s="8" t="s">
@@ -25304,14 +25321,14 @@
         <v>2880</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'schweizerguy',</v>
       </c>
       <c r="F34" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'hdiesterweg',</v>
       </c>
       <c r="H34" t="s">
@@ -25330,7 +25347,7 @@
         <v>145</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'PepeBismarck',</v>
       </c>
       <c r="AA34" s="8" t="s">
@@ -25345,14 +25362,14 @@
         <v>2881</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'MaximilianHenr5',</v>
       </c>
       <c r="F35" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Mica4711',</v>
       </c>
       <c r="H35" t="s">
@@ -25371,7 +25388,7 @@
         <v>146</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'LudwigErhard2',</v>
       </c>
       <c r="AA35" s="8" t="s">
@@ -25386,14 +25403,14 @@
         <v>2882</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'KarlHalasz',</v>
       </c>
       <c r="F36" t="s">
         <v>269</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'FiveFaker',</v>
       </c>
       <c r="H36" t="s">
@@ -25412,7 +25429,7 @@
         <v>147</v>
       </c>
       <c r="Y36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Urleere',</v>
       </c>
       <c r="AA36" s="8" t="s">
@@ -25427,14 +25444,14 @@
         <v>1062</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'DeutscherMiche5',</v>
       </c>
       <c r="F37" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'morawnski',</v>
       </c>
       <c r="H37" t="s">
@@ -25453,7 +25470,7 @@
         <v>148</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'NorikNordlicht',</v>
       </c>
       <c r="AA37" s="8" t="s">
@@ -25468,14 +25485,14 @@
         <v>2883</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NightRalph',</v>
       </c>
       <c r="F38" t="s">
         <v>193</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'KimmyBertsch',</v>
       </c>
       <c r="H38" t="s">
@@ -25494,7 +25511,7 @@
         <v>149</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'koeterrasse',</v>
       </c>
       <c r="AA38" s="8" t="s">
@@ -25509,14 +25526,14 @@
         <v>2884</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'safe_ID35',</v>
       </c>
       <c r="F39" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'SigfriedArthur',</v>
       </c>
       <c r="H39" t="s">
@@ -25535,7 +25552,7 @@
         <v>150</v>
       </c>
       <c r="Y39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'analogsubground',</v>
       </c>
       <c r="AA39" s="8" t="s">
@@ -25550,14 +25567,14 @@
         <v>2885</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'FalkRodig',</v>
       </c>
       <c r="F40" t="s">
         <v>170</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'dgsportler',</v>
       </c>
       <c r="H40" t="s">
@@ -25576,7 +25593,7 @@
         <v>152</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Silgetown',</v>
       </c>
       <c r="AA40" s="8" t="s">
@@ -25591,14 +25608,14 @@
         <v>2886</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'HamburgerDeern4',</v>
       </c>
       <c r="F41" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'DKekser',</v>
       </c>
       <c r="H41" t="s">
@@ -25617,7 +25634,7 @@
         <v>153</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'mick_denis',</v>
       </c>
       <c r="AA41" s="8" t="s">
@@ -25632,14 +25649,14 @@
         <v>2887</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'StolzesVolk',</v>
       </c>
       <c r="F42" t="s">
         <v>226</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'MichaelSellne11',</v>
       </c>
       <c r="H42" t="s">
@@ -25658,7 +25675,7 @@
         <v>155</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Robert30521605',</v>
       </c>
       <c r="AA42" s="8" t="s">
@@ -25673,14 +25690,14 @@
         <v>468</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'darktweep',</v>
       </c>
       <c r="F43" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'MadDocFoster',</v>
       </c>
       <c r="H43" t="s">
@@ -25699,7 +25716,7 @@
         <v>156</v>
       </c>
       <c r="Y43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Metadiskurs1',</v>
       </c>
       <c r="AA43" s="8" t="s">
@@ -25714,14 +25731,14 @@
         <v>2888</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Logiker01',</v>
       </c>
       <c r="F44" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'richito81',</v>
       </c>
       <c r="H44" t="s">
@@ -25740,7 +25757,7 @@
         <v>158</v>
       </c>
       <c r="Y44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Rheinpfeil67',</v>
       </c>
       <c r="AA44" s="8" t="s">
@@ -25755,14 +25772,14 @@
         <v>2889</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'NationalerBoy14',</v>
       </c>
       <c r="F45" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'G0RI1982',</v>
       </c>
       <c r="H45" t="s">
@@ -25781,7 +25798,7 @@
         <v>160</v>
       </c>
       <c r="Y45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'ald3rs0n',</v>
       </c>
       <c r="AA45" s="8" t="s">
@@ -25796,14 +25813,14 @@
         <v>2890</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'wakeupinfo',</v>
       </c>
       <c r="F46" t="s">
         <v>211</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Vergesslichr',</v>
       </c>
       <c r="H46" t="s">
@@ -25822,7 +25839,7 @@
         <v>161</v>
       </c>
       <c r="Y46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Fatima_Najar',</v>
       </c>
       <c r="AA46" s="8" t="s">
@@ -25837,14 +25854,14 @@
         <v>2891</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'HeidiHofer06',</v>
       </c>
       <c r="F47" t="s">
         <v>152</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Silgetown',</v>
       </c>
       <c r="H47" t="s">
@@ -25863,7 +25880,7 @@
         <v>162</v>
       </c>
       <c r="Y47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'VisithorQ',</v>
       </c>
       <c r="AA47" s="8" t="s">
@@ -25875,17 +25892,17 @@
         <v>47</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>2892</v>
+        <v>102</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>'Luisa_maletzki',</v>
+        <f t="shared" si="2"/>
+        <v>'Luisa_Maletzki',</v>
       </c>
       <c r="F48" t="s">
         <v>228</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'tueringi24972',</v>
       </c>
       <c r="H48" t="s">
@@ -25904,7 +25921,7 @@
         <v>163</v>
       </c>
       <c r="Y48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'BerundoKun',</v>
       </c>
       <c r="AA48" s="8" t="s">
@@ -25916,17 +25933,17 @@
         <v>48</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'lmaolililu',</v>
       </c>
       <c r="F49" t="s">
         <v>253</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'hh119933',</v>
       </c>
       <c r="H49" t="s">
@@ -25945,7 +25962,7 @@
         <v>164</v>
       </c>
       <c r="Y49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Stefan_RW84',</v>
       </c>
       <c r="AA49" s="8" t="s">
@@ -25957,17 +25974,17 @@
         <v>49</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'BERLINER1404',</v>
       </c>
       <c r="F50" t="s">
         <v>284</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'AnchardAran',</v>
       </c>
       <c r="H50" t="s">
@@ -25986,7 +26003,7 @@
         <v>165</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'E_Fall_Planer',</v>
       </c>
       <c r="AA50" s="8" t="s">
@@ -25998,17 +26015,17 @@
         <v>50</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'HuhnUschi',</v>
       </c>
       <c r="F51" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'gruenebanane1',</v>
       </c>
       <c r="H51" t="s">
@@ -26027,7 +26044,7 @@
         <v>168</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Tiuri1983',</v>
       </c>
       <c r="AA51" s="8" t="s">
@@ -26039,17 +26056,17 @@
         <v>51</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'dfoqF5yazTb1YI3',</v>
       </c>
       <c r="F52" t="s">
         <v>147</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Urleere',</v>
       </c>
       <c r="H52" t="s">
@@ -26068,7 +26085,7 @@
         <v>170</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'dgsportler',</v>
       </c>
       <c r="AA52" s="8" t="s">
@@ -26080,17 +26097,17 @@
         <v>52</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'nansen_harald',</v>
       </c>
       <c r="F53" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'AvalancheGerman',</v>
       </c>
       <c r="H53" t="s">
@@ -26109,7 +26126,7 @@
         <v>171</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Widerstand3',</v>
       </c>
       <c r="AA53" s="8" t="s">
@@ -26121,17 +26138,17 @@
         <v>53</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'WalhallaWachter',</v>
       </c>
       <c r="F54" t="s">
         <v>128</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Chreuper',</v>
       </c>
       <c r="H54" t="s">
@@ -26150,7 +26167,7 @@
         <v>172</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'realPeterV',</v>
       </c>
       <c r="AA54" s="8" t="s">
@@ -26162,17 +26179,17 @@
         <v>54</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'hdiesterweg',</v>
       </c>
       <c r="F55" t="s">
         <v>99</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Deutscher_17',</v>
       </c>
       <c r="H55" t="s">
@@ -26191,7 +26208,7 @@
         <v>173</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'de_ewake',</v>
       </c>
       <c r="AA55" s="8" t="s">
@@ -26203,17 +26220,17 @@
         <v>55</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'PrinzPrint7',</v>
       </c>
       <c r="F56" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'DeutscheFarben',</v>
       </c>
       <c r="H56" t="s">
@@ -26232,7 +26249,7 @@
         <v>174</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'IdentitarianL',</v>
       </c>
       <c r="AA56" s="8" t="s">
@@ -26244,17 +26261,17 @@
         <v>56</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'svensationismus',</v>
       </c>
       <c r="F57" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Sachsen_17',</v>
       </c>
       <c r="H57" t="s">
@@ -26273,7 +26290,7 @@
         <v>176</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'QubitusQ',</v>
       </c>
       <c r="AA57" s="8" t="s">
@@ -26285,17 +26302,17 @@
         <v>57</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'peterkah12',</v>
       </c>
       <c r="F58" t="s">
         <v>271</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'g_oschi',</v>
       </c>
       <c r="H58" t="s">
@@ -26314,7 +26331,7 @@
         <v>177</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'ChrissoJacobsen',</v>
       </c>
       <c r="AA58" s="8" t="s">
@@ -26326,17 +26343,17 @@
         <v>58</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'Mica4711',</v>
       </c>
       <c r="F59" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'JustAnotherReco',</v>
       </c>
       <c r="H59" t="s">
@@ -26355,7 +26372,7 @@
         <v>178</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1407jule',</v>
       </c>
       <c r="AA59" s="8" t="s">
@@ -26370,14 +26387,14 @@
         <v>269</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'FiveFaker',</v>
       </c>
       <c r="F60" t="s">
         <v>285</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'MicKurti',</v>
       </c>
       <c r="H60" t="s">
@@ -26396,7 +26413,7 @@
         <v>181</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'RGLarp12',</v>
       </c>
       <c r="AA60" s="8" t="s">
@@ -26408,17 +26425,17 @@
         <v>60</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'morawnski',</v>
       </c>
       <c r="F61" t="s">
         <v>210</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'AbdulMansoor01',</v>
       </c>
       <c r="H61" t="s">
@@ -26437,7 +26454,7 @@
         <v>182</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'Johann_Weiler',</v>
       </c>
       <c r="AA61" s="8" t="s">
@@ -26449,17 +26466,17 @@
         <v>61</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SalvatoreDiVito',</v>
       </c>
       <c r="F62" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Der_Erzgebirger',</v>
       </c>
       <c r="H62" t="s">
@@ -26478,7 +26495,7 @@
         <v>183</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'AnonymforFredom',</v>
       </c>
       <c r="AA62" s="8" t="s">
@@ -26493,14 +26510,14 @@
         <v>193</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'KimmyBertsch',</v>
       </c>
       <c r="F63" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'homemimy',</v>
       </c>
       <c r="H63" t="s">
@@ -26519,7 +26536,7 @@
         <v>185</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'MartinNeubaue10',</v>
       </c>
       <c r="AA63" s="8" t="s">
@@ -26534,14 +26551,14 @@
         <v>146</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'LudwigErhard2',</v>
       </c>
       <c r="F64" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'BjrnHansen18',</v>
       </c>
       <c r="H64" t="s">
@@ -26560,7 +26577,7 @@
         <v>186</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'er1k_w',</v>
       </c>
       <c r="AA64" s="8" t="s">
@@ -26572,17 +26589,17 @@
         <v>64</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'SigfriedArthur',</v>
       </c>
       <c r="F65" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'77abraxas77',</v>
       </c>
       <c r="H65" t="s">
@@ -26601,7 +26618,7 @@
         <v>187</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" ref="Y65:Y128" si="3">"'"&amp;V65&amp;"',"</f>
+        <f t="shared" ref="Y65:Y128" si="4">"'"&amp;V65&amp;"',"</f>
         <v>'Aufklrer1',</v>
       </c>
       <c r="AA65" s="8" t="s">
@@ -26616,14 +26633,14 @@
         <v>170</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E106" si="4" xml:space="preserve"> "'" &amp; D66 &amp; "',"</f>
+        <f t="shared" ref="E66:E106" si="5" xml:space="preserve"> "'" &amp; D66 &amp; "',"</f>
         <v>'dgsportler',</v>
       </c>
       <c r="F66" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G70" si="5" xml:space="preserve"> "'"&amp;F66&amp;"',"</f>
+        <f t="shared" ref="G66:G70" si="6" xml:space="preserve"> "'"&amp;F66&amp;"',"</f>
         <v>'jesper_vangroot',</v>
       </c>
       <c r="H66" t="s">
@@ -26642,7 +26659,7 @@
         <v>189</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'einsmannimmond',</v>
       </c>
       <c r="AA66" s="8" t="s">
@@ -26654,17 +26671,17 @@
         <v>66</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'DKekser',</v>
       </c>
       <c r="F67" t="s">
         <v>197</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PaulAbr89089961',</v>
       </c>
       <c r="H67" t="s">
@@ -26683,7 +26700,7 @@
         <v>190</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Kek_von_D',</v>
       </c>
       <c r="AA67" s="8" t="s">
@@ -26698,14 +26715,14 @@
         <v>226</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'MichaelSellne11',</v>
       </c>
       <c r="F68" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'PeterWitzbold',</v>
       </c>
       <c r="H68" t="s">
@@ -26724,7 +26741,7 @@
         <v>191</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'grimm_grimm1',</v>
       </c>
       <c r="AA68" s="8" t="s">
@@ -26736,17 +26753,17 @@
         <v>68</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'EarlyTurner444',</v>
       </c>
       <c r="F69" t="s">
         <v>194</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'MalWieder_real',</v>
       </c>
       <c r="H69" t="s">
@@ -26765,7 +26782,7 @@
         <v>192</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Svenja012',</v>
       </c>
       <c r="AA69" s="8" t="s">
@@ -26777,17 +26794,17 @@
         <v>69</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'MadDocFoster',</v>
       </c>
       <c r="F70" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>'Deutschland_17',</v>
       </c>
       <c r="H70" t="s">
@@ -26806,7 +26823,7 @@
         <v>193</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'KimmyBertsch',</v>
       </c>
       <c r="AA70" s="8" t="s">
@@ -26818,10 +26835,10 @@
         <v>169</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'richito81',</v>
       </c>
       <c r="H71" s="7" t="s">
@@ -26840,7 +26857,7 @@
         <v>194</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'MalWieder_real',</v>
       </c>
       <c r="AA71" s="8" t="s">
@@ -26852,10 +26869,10 @@
         <v>70</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'G0RI1982',</v>
       </c>
       <c r="H72" t="s">
@@ -26874,7 +26891,7 @@
         <v>195</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'MaxPan21064515',</v>
       </c>
       <c r="AA72" s="8" t="s">
@@ -26889,7 +26906,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'LuetzowsJagd',</v>
       </c>
       <c r="H73" t="s">
@@ -26908,7 +26925,7 @@
         <v>197</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'PaulAbr89089961',</v>
       </c>
       <c r="AA73" s="8" t="s">
@@ -26923,7 +26940,7 @@
         <v>211</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Vergesslichr',</v>
       </c>
       <c r="H74" t="s">
@@ -26942,7 +26959,7 @@
         <v>198</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'AlbertDenilzer',</v>
       </c>
       <c r="AA74" s="8" t="s">
@@ -26954,10 +26971,10 @@
         <v>73</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Miss_Morpheus',</v>
       </c>
       <c r="H75" t="s">
@@ -26976,7 +26993,7 @@
         <v>201</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Shimmy_ryhmes',</v>
       </c>
       <c r="AA75" s="8" t="s">
@@ -26991,7 +27008,7 @@
         <v>152</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Silgetown',</v>
       </c>
       <c r="H76" t="s">
@@ -27010,7 +27027,7 @@
         <v>202</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'HaddadAlam',</v>
       </c>
       <c r="AA76" s="8" t="s">
@@ -27025,7 +27042,7 @@
         <v>228</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'tueringi24972',</v>
       </c>
       <c r="H77" t="s">
@@ -27044,7 +27061,7 @@
         <v>203</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'TS_Quint',</v>
       </c>
       <c r="AA77" s="8" t="s">
@@ -27059,7 +27076,7 @@
         <v>253</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'hh119933',</v>
       </c>
       <c r="H78" t="s">
@@ -27078,7 +27095,7 @@
         <v>204</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'AnniNyirfa',</v>
       </c>
       <c r="AA78" s="8" t="s">
@@ -27093,7 +27110,7 @@
         <v>284</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'AnchardAran',</v>
       </c>
       <c r="H79" t="s">
@@ -27112,7 +27129,7 @@
         <v>205</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'ThisIsEuropa84',</v>
       </c>
       <c r="AA79" s="8" t="s">
@@ -27127,7 +27144,7 @@
         <v>135</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'SeppDahte',</v>
       </c>
       <c r="H80" t="s">
@@ -27146,7 +27163,7 @@
         <v>206</v>
       </c>
       <c r="Y80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Mjoelnir16',</v>
       </c>
       <c r="AA80" s="8" t="s">
@@ -27158,10 +27175,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'gruenebanane1',</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -27180,7 +27197,7 @@
         <v>207</v>
       </c>
       <c r="Y81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'NeroVonAarfeste',</v>
       </c>
       <c r="AA81" s="8" t="s">
@@ -27195,7 +27212,7 @@
         <v>147</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Urleere',</v>
       </c>
       <c r="H82" t="s">
@@ -27214,7 +27231,7 @@
         <v>208</v>
       </c>
       <c r="Y82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'RenateBiller',</v>
       </c>
       <c r="AA82" s="8" t="s">
@@ -27226,10 +27243,10 @@
         <v>81</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'AvalancheGerman',</v>
       </c>
       <c r="H83" t="s">
@@ -27248,7 +27265,7 @@
         <v>209</v>
       </c>
       <c r="Y83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Venatorezz',</v>
       </c>
       <c r="AA83" s="8" t="s">
@@ -27263,7 +27280,7 @@
         <v>128</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Chreuper',</v>
       </c>
       <c r="H84" t="s">
@@ -27282,7 +27299,7 @@
         <v>210</v>
       </c>
       <c r="Y84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'AbdulMansoor01',</v>
       </c>
       <c r="AA84" s="8" t="s">
@@ -27297,7 +27314,7 @@
         <v>99</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Deutscher_17',</v>
       </c>
       <c r="H85" t="s">
@@ -27316,7 +27333,7 @@
         <v>211</v>
       </c>
       <c r="Y85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Vergesslichr',</v>
       </c>
       <c r="AA85" s="8" t="s">
@@ -27328,10 +27345,10 @@
         <v>84</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Adler184',</v>
       </c>
       <c r="H86" t="s">
@@ -27350,7 +27367,7 @@
         <v>212</v>
       </c>
       <c r="Y86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Vier51',</v>
       </c>
       <c r="AA86" s="8" t="s">
@@ -27362,10 +27379,10 @@
         <v>85</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'DeutscheFarben',</v>
       </c>
       <c r="H87" t="s">
@@ -27384,7 +27401,7 @@
         <v>214</v>
       </c>
       <c r="Y87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Bender145288',</v>
       </c>
       <c r="AA87" s="8" t="s">
@@ -27396,10 +27413,10 @@
         <v>86</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Sachsen_17',</v>
       </c>
       <c r="H88" t="s">
@@ -27418,7 +27435,7 @@
         <v>216</v>
       </c>
       <c r="Y88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'NamHumanum',</v>
       </c>
       <c r="AA88" s="8" t="s">
@@ -27433,7 +27450,7 @@
         <v>271</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'g_oschi',</v>
       </c>
       <c r="H89" t="s">
@@ -27452,7 +27469,7 @@
         <v>217</v>
       </c>
       <c r="Y89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'1989_basti',</v>
       </c>
       <c r="AA89" s="8" t="s">
@@ -27464,10 +27481,10 @@
         <v>88</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'JustAnotherReco',</v>
       </c>
       <c r="H90" t="s">
@@ -27486,7 +27503,7 @@
         <v>220</v>
       </c>
       <c r="Y90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'frank_seiner',</v>
       </c>
       <c r="AA90" s="8" t="s">
@@ -27501,7 +27518,7 @@
         <v>285</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'MicKurti',</v>
       </c>
       <c r="H91" t="s">
@@ -27520,7 +27537,7 @@
         <v>221</v>
       </c>
       <c r="Y91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Fimu152',</v>
       </c>
       <c r="AA91" s="8" t="s">
@@ -27532,10 +27549,10 @@
         <v>90</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Shimmy_rhymes',</v>
       </c>
       <c r="H92" t="s">
@@ -27554,7 +27571,7 @@
         <v>222</v>
       </c>
       <c r="Y92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'lumi_ib',</v>
       </c>
       <c r="AA92" s="8" t="s">
@@ -27569,7 +27586,7 @@
         <v>210</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'AbdulMansoor01',</v>
       </c>
       <c r="H93" t="s">
@@ -27588,7 +27605,7 @@
         <v>223</v>
       </c>
       <c r="Y93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'petros_el',</v>
       </c>
       <c r="AA93" s="8" t="s">
@@ -27600,10 +27617,10 @@
         <v>92</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Der_Erzgebirger',</v>
       </c>
       <c r="H94" t="s">
@@ -27622,7 +27639,7 @@
         <v>226</v>
       </c>
       <c r="Y94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'MichaelSellne11',</v>
       </c>
       <c r="AA94" s="8" t="s">
@@ -27634,10 +27651,10 @@
         <v>93</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'homemimy',</v>
       </c>
       <c r="H95" t="s">
@@ -27656,7 +27673,7 @@
         <v>227</v>
       </c>
       <c r="Y95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'KaiservonGottII',</v>
       </c>
       <c r="AA95" s="8" t="s">
@@ -27668,10 +27685,10 @@
         <v>94</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'66Boreas',</v>
       </c>
       <c r="H96" t="s">
@@ -27690,7 +27707,7 @@
         <v>228</v>
       </c>
       <c r="Y96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'tueringi24972',</v>
       </c>
       <c r="AA96" s="8" t="s">
@@ -27702,10 +27719,10 @@
         <v>95</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'BjrnHansen18',</v>
       </c>
       <c r="H97" t="s">
@@ -27724,7 +27741,7 @@
         <v>229</v>
       </c>
       <c r="Y97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Alfredthe2nd',</v>
       </c>
       <c r="AA97" s="8" t="s">
@@ -27736,10 +27753,10 @@
         <v>96</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'77abraxas77',</v>
       </c>
       <c r="H98" t="s">
@@ -27758,7 +27775,7 @@
         <v>230</v>
       </c>
       <c r="Y98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'ancorinan',</v>
       </c>
       <c r="AA98" s="8" t="s">
@@ -27770,10 +27787,10 @@
         <v>97</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'jesper_vangroot',</v>
       </c>
       <c r="H99" t="s">
@@ -27792,7 +27809,7 @@
         <v>232</v>
       </c>
       <c r="Y99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'affenzirkusx',</v>
       </c>
       <c r="AA99" s="8" t="s">
@@ -27807,7 +27824,7 @@
         <v>218</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'CyberCrusader14',</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -27826,7 +27843,7 @@
         <v>233</v>
       </c>
       <c r="Y100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Twinterbi',</v>
       </c>
       <c r="AA100" s="8" t="s">
@@ -27841,7 +27858,7 @@
         <v>197</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'PaulAbr89089961',</v>
       </c>
       <c r="K101" s="8" t="s">
@@ -27857,7 +27874,7 @@
         <v>234</v>
       </c>
       <c r="Y101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'GerSoeren',</v>
       </c>
       <c r="AA101" s="8" t="s">
@@ -27869,10 +27886,10 @@
         <v>201</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'reimgration',</v>
       </c>
       <c r="K102" s="8" t="s">
@@ -27888,7 +27905,7 @@
         <v>235</v>
       </c>
       <c r="Y102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'IKHammer',</v>
       </c>
       <c r="AA102" s="8" t="s">
@@ -27900,10 +27917,10 @@
         <v>202</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'PeterWitzbold',</v>
       </c>
       <c r="K103" s="8" t="s">
@@ -27919,7 +27936,7 @@
         <v>236</v>
       </c>
       <c r="Y103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Ich_Ichsen',</v>
       </c>
       <c r="AA103" s="8" t="s">
@@ -27934,7 +27951,7 @@
         <v>194</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'MalWieder_real',</v>
       </c>
       <c r="K104" s="8" t="s">
@@ -27950,7 +27967,7 @@
         <v>237</v>
       </c>
       <c r="Y104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Heinz10X',</v>
       </c>
       <c r="AA104" s="8" t="s">
@@ -27962,10 +27979,10 @@
         <v>204</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'FatihTlatoaniXa',</v>
       </c>
       <c r="K105" s="8" t="s">
@@ -27981,7 +27998,7 @@
         <v>238</v>
       </c>
       <c r="Y105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Claudia_Hin24',</v>
       </c>
       <c r="AA105" s="8" t="s">
@@ -27993,10 +28010,10 @@
         <v>205</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>'Deutschland_17',</v>
       </c>
       <c r="K106" s="8" t="s">
@@ -28012,7 +28029,7 @@
         <v>239</v>
       </c>
       <c r="Y106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Alex84426552',</v>
       </c>
       <c r="AA106" s="8" t="s">
@@ -28036,7 +28053,7 @@
         <v>242</v>
       </c>
       <c r="Y107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Politikunverdr1',</v>
       </c>
       <c r="AA107" s="8" t="s">
@@ -28060,7 +28077,7 @@
         <v>243</v>
       </c>
       <c r="Y108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Ultimo_Ratio28',</v>
       </c>
       <c r="AA108" s="8" t="s">
@@ -28084,7 +28101,7 @@
         <v>244</v>
       </c>
       <c r="Y109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'AfDsupp55',</v>
       </c>
       <c r="AA109" s="8" t="s">
@@ -28108,7 +28125,7 @@
         <v>245</v>
       </c>
       <c r="Y110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Nico1999g',</v>
       </c>
       <c r="AA110" s="8" t="s">
@@ -28132,7 +28149,7 @@
         <v>250</v>
       </c>
       <c r="Y111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'HannesRaunhaus',</v>
       </c>
       <c r="AA111" s="8" t="s">
@@ -28156,7 +28173,7 @@
         <v>251</v>
       </c>
       <c r="Y112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'vizionpat',</v>
       </c>
       <c r="AA112" s="8" t="s">
@@ -28180,7 +28197,7 @@
         <v>252</v>
       </c>
       <c r="Y113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'PatRiot767',</v>
       </c>
       <c r="AA113" s="8" t="s">
@@ -28204,7 +28221,7 @@
         <v>253</v>
       </c>
       <c r="Y114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'hh119933',</v>
       </c>
       <c r="AA114" s="8" t="s">
@@ -28228,7 +28245,7 @@
         <v>254</v>
       </c>
       <c r="Y115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'FreierKek',</v>
       </c>
       <c r="AA115" s="8" t="s">
@@ -28252,7 +28269,7 @@
         <v>255</v>
       </c>
       <c r="Y116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'vendettafsnrev',</v>
       </c>
       <c r="AA116" s="8" t="s">
@@ -28276,7 +28293,7 @@
         <v>256</v>
       </c>
       <c r="Y117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'nicky_chelli',</v>
       </c>
       <c r="AA117" s="8" t="s">
@@ -28300,7 +28317,7 @@
         <v>257</v>
       </c>
       <c r="Y118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Hildega42607916',</v>
       </c>
       <c r="AA118" s="8" t="s">
@@ -28324,7 +28341,7 @@
         <v>258</v>
       </c>
       <c r="Y119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Morrigain2017',</v>
       </c>
       <c r="AA119" s="8" t="s">
@@ -28348,7 +28365,7 @@
         <v>259</v>
       </c>
       <c r="Y120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'epiphyt',</v>
       </c>
       <c r="AA120" s="8" t="s">
@@ -28372,7 +28389,7 @@
         <v>260</v>
       </c>
       <c r="Y121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Kruzifiziert',</v>
       </c>
       <c r="AA121" s="8" t="s">
@@ -28396,7 +28413,7 @@
         <v>261</v>
       </c>
       <c r="Y122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Werwolf_GER',</v>
       </c>
       <c r="AA122" s="8" t="s">
@@ -28420,7 +28437,7 @@
         <v>262</v>
       </c>
       <c r="Y123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'NewRheinberger',</v>
       </c>
       <c r="AA123" s="8" t="s">
@@ -28444,7 +28461,7 @@
         <v>265</v>
       </c>
       <c r="Y124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Mario_Sin12',</v>
       </c>
       <c r="AA124" s="8" t="s">
@@ -28468,7 +28485,7 @@
         <v>266</v>
       </c>
       <c r="Y125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'niklas_ee',</v>
       </c>
       <c r="AA125" s="8" t="s">
@@ -28492,7 +28509,7 @@
         <v>268</v>
       </c>
       <c r="Y126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'mulmius',</v>
       </c>
       <c r="AA126" s="8" t="s">
@@ -28516,7 +28533,7 @@
         <v>269</v>
       </c>
       <c r="Y127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'FiveFaker',</v>
       </c>
       <c r="AA127" s="8" t="s">
@@ -28540,7 +28557,7 @@
         <v>270</v>
       </c>
       <c r="Y128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'HeideggerNow',</v>
       </c>
       <c r="AA128" s="8" t="s">
@@ -28564,7 +28581,7 @@
         <v>271</v>
       </c>
       <c r="Y129" t="str">
-        <f t="shared" ref="Y129:Y192" si="6">"'"&amp;V129&amp;"',"</f>
+        <f t="shared" ref="Y129:Y192" si="7">"'"&amp;V129&amp;"',"</f>
         <v>'g_oschi',</v>
       </c>
       <c r="AA129" s="8" t="s">
@@ -28588,7 +28605,7 @@
         <v>272</v>
       </c>
       <c r="Y130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'GermanicusMaxus',</v>
       </c>
       <c r="AA130" s="8" t="s">
@@ -28612,7 +28629,7 @@
         <v>273</v>
       </c>
       <c r="Y131" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'MissSalander88',</v>
       </c>
       <c r="AA131" s="8" t="s">
@@ -28636,7 +28653,7 @@
         <v>274</v>
       </c>
       <c r="Y132" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'PeterBergmann14',</v>
       </c>
       <c r="AA132" s="8" t="s">
@@ -28660,7 +28677,7 @@
         <v>275</v>
       </c>
       <c r="Y133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'LARPingKraut',</v>
       </c>
       <c r="AA133" s="8" t="s">
@@ -28684,7 +28701,7 @@
         <v>276</v>
       </c>
       <c r="Y134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FriedrichsOrden',</v>
       </c>
       <c r="AA134" s="8" t="s">
@@ -28708,7 +28725,7 @@
         <v>277</v>
       </c>
       <c r="Y135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Amygdala712',</v>
       </c>
       <c r="AA135" s="8" t="s">
@@ -28732,7 +28749,7 @@
         <v>278</v>
       </c>
       <c r="Y136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AlexHannoi1896',</v>
       </c>
       <c r="AA136" s="8" t="s">
@@ -28756,7 +28773,7 @@
         <v>280</v>
       </c>
       <c r="Y137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Marius1094',</v>
       </c>
       <c r="AA137" s="8" t="s">
@@ -28780,7 +28797,7 @@
         <v>281</v>
       </c>
       <c r="Y138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FeuerifritG',</v>
       </c>
       <c r="AA138" s="8" t="s">
@@ -28804,7 +28821,7 @@
         <v>282</v>
       </c>
       <c r="Y139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Tragetreuetrach',</v>
       </c>
       <c r="AA139" s="8" t="s">
@@ -28828,7 +28845,7 @@
         <v>283</v>
       </c>
       <c r="Y140" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Silvermachine24',</v>
       </c>
       <c r="AA140" s="8" t="s">
@@ -28852,7 +28869,7 @@
         <v>284</v>
       </c>
       <c r="Y141" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AnchardAran',</v>
       </c>
       <c r="AA141" s="8" t="s">
@@ -28876,7 +28893,7 @@
         <v>285</v>
       </c>
       <c r="Y142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'MicKurti',</v>
       </c>
       <c r="AA142" s="8" t="s">
@@ -28900,7 +28917,7 @@
         <v>287</v>
       </c>
       <c r="Y143" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Hermann1870',</v>
       </c>
       <c r="AA143" s="8" t="s">
@@ -28924,7 +28941,7 @@
         <v>288</v>
       </c>
       <c r="Y144" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'DanielIII3',</v>
       </c>
       <c r="AA144" s="8" t="s">
@@ -28948,7 +28965,7 @@
         <v>2737</v>
       </c>
       <c r="Y145" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'JoanaCotar ',</v>
       </c>
       <c r="AA145" s="8" t="s">
@@ -28972,7 +28989,7 @@
         <v>2738</v>
       </c>
       <c r="Y146" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Yuma_lein ',</v>
       </c>
       <c r="AA146" s="8" t="s">
@@ -28996,7 +29013,7 @@
         <v>2739</v>
       </c>
       <c r="Y147" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'NobileSeba ',</v>
       </c>
       <c r="AA147" s="8" t="s">
@@ -29020,7 +29037,7 @@
         <v>2740</v>
       </c>
       <c r="Y148" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Junge_Freiheit ',</v>
       </c>
       <c r="AA148" s="8" t="s">
@@ -29044,7 +29061,7 @@
         <v>2741</v>
       </c>
       <c r="Y149" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'SomeXT ',</v>
       </c>
       <c r="AA149" s="8" t="s">
@@ -29068,7 +29085,7 @@
         <v>2742</v>
       </c>
       <c r="Y150" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'APatzwahl ',</v>
       </c>
       <c r="AA150" s="8" t="s">
@@ -29089,7 +29106,7 @@
         <v>2743</v>
       </c>
       <c r="Y151" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'SteinbachErika ',</v>
       </c>
       <c r="AA151" s="8" t="s">
@@ -29110,7 +29127,7 @@
         <v>2744</v>
       </c>
       <c r="Y152" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'neuthfer ',</v>
       </c>
       <c r="AA152" s="8" t="s">
@@ -29131,7 +29148,7 @@
         <v>2745</v>
       </c>
       <c r="Y153" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'christianlueth ',</v>
       </c>
       <c r="AA153" s="8" t="s">
@@ -29152,7 +29169,7 @@
         <v>2746</v>
       </c>
       <c r="Y154" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'vespasianus69bc',</v>
       </c>
       <c r="AA154" s="8" t="s">
@@ -29173,7 +29190,7 @@
         <v>2747</v>
       </c>
       <c r="Y155" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfDKompakt ',</v>
       </c>
       <c r="AA155" s="8" t="s">
@@ -29194,7 +29211,7 @@
         <v>2748</v>
       </c>
       <c r="Y156" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'FraukePetry ',</v>
       </c>
       <c r="AA156" s="8" t="s">
@@ -29215,7 +29232,7 @@
         <v>2749</v>
       </c>
       <c r="Y157" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'ri3dl',</v>
       </c>
       <c r="AA157" s="8" t="s">
@@ -29236,7 +29253,7 @@
         <v>2750</v>
       </c>
       <c r="Y158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Martin_Sellner ',</v>
       </c>
       <c r="AA158" s="8" t="s">
@@ -29257,7 +29274,7 @@
         <v>2751</v>
       </c>
       <c r="Y159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfD_Support ',</v>
       </c>
       <c r="AA159" s="8" t="s">
@@ -29278,7 +29295,7 @@
         <v>2752</v>
       </c>
       <c r="Y160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'huldave23',</v>
       </c>
       <c r="AA160" s="8" t="s">
@@ -29299,7 +29316,7 @@
         <v>2753</v>
       </c>
       <c r="Y161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'aufklaerer2017',</v>
       </c>
       <c r="AA161" s="8" t="s">
@@ -29320,7 +29337,7 @@
         <v>2754</v>
       </c>
       <c r="Y162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'BjoernHoecke ',</v>
       </c>
       <c r="AA162" s="8" t="s">
@@ -29341,7 +29358,7 @@
         <v>2755</v>
       </c>
       <c r="Y163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'PatrickLenart ',</v>
       </c>
       <c r="AA163" s="8" t="s">
@@ -29362,7 +29379,7 @@
         <v>2756</v>
       </c>
       <c r="Y164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'ShakRiet ',</v>
       </c>
       <c r="AA164" s="8" t="s">
@@ -29383,7 +29400,7 @@
         <v>2757</v>
       </c>
       <c r="Y165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'EstelleSmith64',</v>
       </c>
       <c r="AA165" s="8" t="s">
@@ -29404,7 +29421,7 @@
         <v>2758</v>
       </c>
       <c r="Y166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'UbbelohdeBerlin ',</v>
       </c>
       <c r="AA166" s="8" t="s">
@@ -29425,7 +29442,7 @@
         <v>2759</v>
       </c>
       <c r="Y167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'lawyerberlin ',</v>
       </c>
       <c r="AA167" s="8" t="s">
@@ -29446,7 +29463,7 @@
         <v>2760</v>
       </c>
       <c r="Y168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'DrDavidBerger ',</v>
       </c>
       <c r="AA168" s="8" t="s">
@@ -29467,7 +29484,7 @@
         <v>2761</v>
       </c>
       <c r="Y169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Hartes_Geld ',</v>
       </c>
       <c r="AA169" s="8" t="s">
@@ -29488,7 +29505,7 @@
         <v>2762</v>
       </c>
       <c r="Y170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfD_Chan ',</v>
       </c>
       <c r="AA170" s="8" t="s">
@@ -29509,7 +29526,7 @@
         <v>2763</v>
       </c>
       <c r="Y171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'ReneTruninger ',</v>
       </c>
       <c r="AA171" s="8" t="s">
@@ -29530,7 +29547,7 @@
         <v>2764</v>
       </c>
       <c r="Y172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'MiriamOzen ',</v>
       </c>
       <c r="AA172" s="8" t="s">
@@ -29551,7 +29568,7 @@
         <v>2765</v>
       </c>
       <c r="Y173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'PauleHasi13',</v>
       </c>
       <c r="AA173" s="8" t="s">
@@ -29572,7 +29589,7 @@
         <v>2766</v>
       </c>
       <c r="Y174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'PoggenburgAndre ',</v>
       </c>
       <c r="AA174" s="8" t="s">
@@ -29593,7 +29610,7 @@
         <v>2767</v>
       </c>
       <c r="Y175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Kranzschwinger ',</v>
       </c>
       <c r="AA175" s="8" t="s">
@@ -29614,7 +29631,7 @@
         <v>2768</v>
       </c>
       <c r="Y176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Bedb_Puetz ',</v>
       </c>
       <c r="AA176" s="15" t="s">
@@ -29635,7 +29652,7 @@
         <v>2769</v>
       </c>
       <c r="Y177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'HughBronson_AfD ',</v>
       </c>
       <c r="AA177" s="8" t="s">
@@ -29656,7 +29673,7 @@
         <v>2770</v>
       </c>
       <c r="Y178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'haraldlaatsch ',</v>
       </c>
       <c r="AA178" s="8" t="s">
@@ -29677,7 +29694,7 @@
         <v>2771</v>
       </c>
       <c r="Y179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'politoreality ',</v>
       </c>
       <c r="AA179" s="8" t="s">
@@ -29698,7 +29715,7 @@
         <v>2772</v>
       </c>
       <c r="Y180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'ThomasGrallla ',</v>
       </c>
       <c r="AA180" s="8" t="s">
@@ -29719,7 +29736,7 @@
         <v>2773</v>
       </c>
       <c r="Y181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'hamaro777',</v>
       </c>
       <c r="AA181" s="8" t="s">
@@ -29740,7 +29757,7 @@
         <v>2774</v>
       </c>
       <c r="Y182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'JoeyGerlach ',</v>
       </c>
       <c r="AA182" s="8" t="s">
@@ -29761,7 +29778,7 @@
         <v>2775</v>
       </c>
       <c r="Y183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Joerg_Meuthen ',</v>
       </c>
       <c r="AA183" s="8" t="s">
@@ -29782,7 +29799,7 @@
         <v>2776</v>
       </c>
       <c r="Y184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'dushanwegner ',</v>
       </c>
       <c r="AA184" s="8" t="s">
@@ -29803,7 +29820,7 @@
         <v>2777</v>
       </c>
       <c r="Y185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'IngoNorge ',</v>
       </c>
       <c r="AA185" s="8" t="s">
@@ -29824,7 +29841,7 @@
         <v>2778</v>
       </c>
       <c r="Y186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfD_Bv_HH_Nord ',</v>
       </c>
       <c r="AA186" s="8" t="s">
@@ -29845,7 +29862,7 @@
         <v>2779</v>
       </c>
       <c r="Y187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'AfDFraktionAGH ',</v>
       </c>
       <c r="AA187" s="8" t="s">
@@ -29866,7 +29883,7 @@
         <v>2780</v>
       </c>
       <c r="Y188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'rove_we ',</v>
       </c>
       <c r="AA188" s="8" t="s">
@@ -29887,7 +29904,7 @@
         <v>2781</v>
       </c>
       <c r="Y189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'Beatrix_vStorch ',</v>
       </c>
       <c r="AA189" s="8" t="s">
@@ -29908,7 +29925,7 @@
         <v>2782</v>
       </c>
       <c r="Y190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'OliverJanich ',</v>
       </c>
       <c r="AA190" s="8" t="s">
@@ -29927,7 +29944,7 @@
         <v>2783</v>
       </c>
       <c r="Y191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'krippmarie ',</v>
       </c>
       <c r="AA191" s="8" t="s">
@@ -29946,7 +29963,7 @@
         <v>2784</v>
       </c>
       <c r="Y192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>'krk979',</v>
       </c>
       <c r="AA192" s="8" t="s">
@@ -29967,7 +29984,7 @@
         <v>2785</v>
       </c>
       <c r="Y193" t="str">
-        <f t="shared" ref="Y193:Y256" si="7">"'"&amp;V193&amp;"',"</f>
+        <f t="shared" ref="Y193:Y256" si="8">"'"&amp;V193&amp;"',"</f>
         <v>'AfD ',</v>
       </c>
       <c r="AA193" s="8" t="s">
@@ -29988,7 +30005,7 @@
         <v>2786</v>
       </c>
       <c r="Y194" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Laura_in_Joy ',</v>
       </c>
       <c r="AA194" s="8" t="s">
@@ -30009,7 +30026,7 @@
         <v>2787</v>
       </c>
       <c r="Y195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Varg_I_Veum ',</v>
       </c>
       <c r="AA195" s="8" t="s">
@@ -30030,7 +30047,7 @@
         <v>2788</v>
       </c>
       <c r="Y196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Sortex ',</v>
       </c>
       <c r="AA196" s="8" t="s">
@@ -30051,7 +30068,7 @@
         <v>2789</v>
       </c>
       <c r="Y197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'djrpglol ',</v>
       </c>
       <c r="AA197" s="8" t="s">
@@ -30072,7 +30089,7 @@
         <v>2790</v>
       </c>
       <c r="Y198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'GtzFrmming ',</v>
       </c>
       <c r="AA198" s="8" t="s">
@@ -30093,7 +30110,7 @@
         <v>2791</v>
       </c>
       <c r="Y199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Frank_Pasemann ',</v>
       </c>
       <c r="AA199" s="8" t="s">
@@ -30114,7 +30131,7 @@
         <v>2792</v>
       </c>
       <c r="Y200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'COMPACTMagazin ',</v>
       </c>
       <c r="AA200" s="8" t="s">
@@ -30135,7 +30152,7 @@
         <v>2793</v>
       </c>
       <c r="Y201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'RolandTichy ',</v>
       </c>
       <c r="AA201" s="8" t="s">
@@ -30156,7 +30173,7 @@
         <v>369</v>
       </c>
       <c r="Y202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'JStaltenberg',</v>
       </c>
       <c r="AA202" s="8" t="s">
@@ -30177,7 +30194,7 @@
         <v>370</v>
       </c>
       <c r="Y203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Grals_Hueter',</v>
       </c>
       <c r="AA203" s="8" t="s">
@@ -30198,7 +30215,7 @@
         <v>371</v>
       </c>
       <c r="Y204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'PastillenFelixx',</v>
       </c>
       <c r="AA204" s="8" t="s">
@@ -30219,7 +30236,7 @@
         <v>373</v>
       </c>
       <c r="Y205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'P_I',</v>
       </c>
       <c r="AA205" s="8" t="s">
@@ -30240,7 +30257,7 @@
         <v>374</v>
       </c>
       <c r="Y206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'wegmitspam2',</v>
       </c>
       <c r="AA206" s="8" t="s">
@@ -30261,7 +30278,7 @@
         <v>375</v>
       </c>
       <c r="Y207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'peterbeta69',</v>
       </c>
       <c r="AA207" s="8" t="s">
@@ -30282,7 +30299,7 @@
         <v>376</v>
       </c>
       <c r="Y208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'RatInYourBoot',</v>
       </c>
       <c r="AA208" s="8" t="s">
@@ -30303,7 +30320,7 @@
         <v>379</v>
       </c>
       <c r="Y209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'IsidorMeyer1',</v>
       </c>
       <c r="AA209" s="8" t="s">
@@ -30324,7 +30341,7 @@
         <v>380</v>
       </c>
       <c r="Y210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Meckerschwabe',</v>
       </c>
       <c r="AA210" s="8" t="s">
@@ -30345,7 +30362,7 @@
         <v>381</v>
       </c>
       <c r="Y211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'reliep_dave',</v>
       </c>
       <c r="AA211" s="8" t="s">
@@ -30366,7 +30383,7 @@
         <v>382</v>
       </c>
       <c r="Y212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Empfehlung1',</v>
       </c>
       <c r="AA212" s="8" t="s">
@@ -30387,7 +30404,7 @@
         <v>383</v>
       </c>
       <c r="Y213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'OdmantSuperstar',</v>
       </c>
       <c r="AA213" s="8" t="s">
@@ -30408,7 +30425,7 @@
         <v>384</v>
       </c>
       <c r="Y214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'FcmMicha1',</v>
       </c>
       <c r="AA214" s="8" t="s">
@@ -30429,7 +30446,7 @@
         <v>385</v>
       </c>
       <c r="Y215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'theotherroots',</v>
       </c>
       <c r="AA215" s="8" t="s">
@@ -30450,7 +30467,7 @@
         <v>386</v>
       </c>
       <c r="Y216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'rolf_walser',</v>
       </c>
       <c r="AA216" s="8" t="s">
@@ -30471,7 +30488,7 @@
         <v>387</v>
       </c>
       <c r="Y217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'mephistophi',</v>
       </c>
       <c r="AA217" s="8" t="s">
@@ -30492,7 +30509,7 @@
         <v>388</v>
       </c>
       <c r="Y218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'RiftHeraldine',</v>
       </c>
       <c r="AA218" s="8" t="s">
@@ -30513,7 +30530,7 @@
         <v>391</v>
       </c>
       <c r="Y219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AfD_HD',</v>
       </c>
       <c r="AA219" s="8" t="s">
@@ -30534,7 +30551,7 @@
         <v>392</v>
       </c>
       <c r="Y220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'packofant',</v>
       </c>
       <c r="AA220" s="8" t="s">
@@ -30555,7 +30572,7 @@
         <v>393</v>
       </c>
       <c r="Y221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'RauteDesGrauens',</v>
       </c>
       <c r="AA221" s="8" t="s">
@@ -30576,7 +30593,7 @@
         <v>394</v>
       </c>
       <c r="Y222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Europolitikum',</v>
       </c>
       <c r="AA222" s="8" t="s">
@@ -30597,7 +30614,7 @@
         <v>395</v>
       </c>
       <c r="Y223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'FreiesNetzHarz',</v>
       </c>
       <c r="AA223" s="8" t="s">
@@ -30618,7 +30635,7 @@
         <v>396</v>
       </c>
       <c r="Y224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'junkde17',</v>
       </c>
       <c r="AA224" s="8" t="s">
@@ -30639,7 +30656,7 @@
         <v>397</v>
       </c>
       <c r="Y225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'montagsdemoGIDA',</v>
       </c>
       <c r="AA225" s="8" t="s">
@@ -30660,7 +30677,7 @@
         <v>399</v>
       </c>
       <c r="Y226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Rambonelli',</v>
       </c>
       <c r="AA226" s="8" t="s">
@@ -30681,7 +30698,7 @@
         <v>400</v>
       </c>
       <c r="Y227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'kossonosow',</v>
       </c>
       <c r="AA227" s="8" t="s">
@@ -30702,7 +30719,7 @@
         <v>402</v>
       </c>
       <c r="Y228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'gunfunner',</v>
       </c>
       <c r="AA228" s="8" t="s">
@@ -30723,7 +30740,7 @@
         <v>404</v>
       </c>
       <c r="Y229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'ThuleErik',</v>
       </c>
       <c r="AA229" s="8" t="s">
@@ -30744,7 +30761,7 @@
         <v>405</v>
       </c>
       <c r="Y230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AchimW',</v>
       </c>
       <c r="AA230" s="8" t="s">
@@ -30765,7 +30782,7 @@
         <v>408</v>
       </c>
       <c r="Y231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Koschda77',</v>
       </c>
       <c r="AA231" s="8" t="s">
@@ -30786,7 +30803,7 @@
         <v>411</v>
       </c>
       <c r="Y232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Adventure_Ost',</v>
       </c>
       <c r="AA232" s="8" t="s">
@@ -30807,7 +30824,7 @@
         <v>412</v>
       </c>
       <c r="Y233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'anur_chrik',</v>
       </c>
       <c r="AA233" s="8" t="s">
@@ -30828,7 +30845,7 @@
         <v>413</v>
       </c>
       <c r="Y234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'TPEssen',</v>
       </c>
       <c r="AA234" s="8" t="s">
@@ -30849,7 +30866,7 @@
         <v>414</v>
       </c>
       <c r="Y235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'AbagnaleF',</v>
       </c>
       <c r="AA235" s="8" t="s">
@@ -30870,7 +30887,7 @@
         <v>415</v>
       </c>
       <c r="Y236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'kugelfisch',</v>
       </c>
       <c r="AA236" s="8" t="s">
@@ -30891,7 +30908,7 @@
         <v>417</v>
       </c>
       <c r="Y237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'plasticfinger',</v>
       </c>
       <c r="AA237" s="8" t="s">
@@ -30912,7 +30929,7 @@
         <v>418</v>
       </c>
       <c r="Y238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'liberty2k15',</v>
       </c>
       <c r="AA238" s="8" t="s">
@@ -30933,7 +30950,7 @@
         <v>420</v>
       </c>
       <c r="Y239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'brandenburgDE',</v>
       </c>
       <c r="AA239" s="8" t="s">
@@ -30954,7 +30971,7 @@
         <v>421</v>
       </c>
       <c r="Y240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'EnglerMD',</v>
       </c>
       <c r="AA240" s="8" t="s">
@@ -30975,7 +30992,7 @@
         <v>423</v>
       </c>
       <c r="Y241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'sx200a',</v>
       </c>
       <c r="AA241" s="8" t="s">
@@ -30996,7 +31013,7 @@
         <v>424</v>
       </c>
       <c r="Y242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'sitara695',</v>
       </c>
       <c r="AA242" s="8" t="s">
@@ -31017,7 +31034,7 @@
         <v>425</v>
       </c>
       <c r="Y243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Vivi_Virtual',</v>
       </c>
       <c r="AA243" s="15" t="s">
@@ -31038,7 +31055,7 @@
         <v>427</v>
       </c>
       <c r="Y244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'FranzChristia15',</v>
       </c>
       <c r="AA244" s="8" t="s">
@@ -31059,7 +31076,7 @@
         <v>428</v>
       </c>
       <c r="Y245" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Frau_Al3X',</v>
       </c>
       <c r="AA245" s="8" t="s">
@@ -31080,7 +31097,7 @@
         <v>429</v>
       </c>
       <c r="Y246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'manzinus66',</v>
       </c>
       <c r="AA246" s="8" t="s">
@@ -31101,7 +31118,7 @@
         <v>430</v>
       </c>
       <c r="Y247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'gerry6868',</v>
       </c>
       <c r="AA247" s="8" t="s">
@@ -31122,7 +31139,7 @@
         <v>432</v>
       </c>
       <c r="Y248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Carl_____Smith',</v>
       </c>
       <c r="AA248" s="8" t="s">
@@ -31143,7 +31160,7 @@
         <v>433</v>
       </c>
       <c r="Y249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'xela_jena',</v>
       </c>
       <c r="AA249" s="8" t="s">
@@ -31164,7 +31181,7 @@
         <v>434</v>
       </c>
       <c r="Y250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'roem1212',</v>
       </c>
       <c r="AA250" s="8" t="s">
@@ -31185,7 +31202,7 @@
         <v>435</v>
       </c>
       <c r="Y251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'wasistzeitgeist',</v>
       </c>
       <c r="AA251" s="8" t="s">
@@ -31206,7 +31223,7 @@
         <v>436</v>
       </c>
       <c r="Y252" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'BRadsavljevic',</v>
       </c>
       <c r="AA252" s="8" t="s">
@@ -31227,7 +31244,7 @@
         <v>437</v>
       </c>
       <c r="Y253" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'MVallendar',</v>
       </c>
       <c r="AA253" s="8" t="s">
@@ -31248,7 +31265,7 @@
         <v>440</v>
       </c>
       <c r="Y254" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'tweecix',</v>
       </c>
       <c r="AA254" s="8" t="s">
@@ -31269,7 +31286,7 @@
         <v>441</v>
       </c>
       <c r="Y255" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'Zeit_fuer_AfD',</v>
       </c>
       <c r="AA255" s="8" t="s">
@@ -31290,7 +31307,7 @@
         <v>442</v>
       </c>
       <c r="Y256" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>'CarolaMertin',</v>
       </c>
       <c r="AA256" s="8" t="s">
@@ -31311,7 +31328,7 @@
         <v>443</v>
       </c>
       <c r="Y257" t="str">
-        <f t="shared" ref="Y257:Y320" si="8">"'"&amp;V257&amp;"',"</f>
+        <f t="shared" ref="Y257:Y320" si="9">"'"&amp;V257&amp;"',"</f>
         <v>'mongojunge',</v>
       </c>
       <c r="AA257" s="8" t="s">
@@ -31332,7 +31349,7 @@
         <v>444</v>
       </c>
       <c r="Y258" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Burschenschaft',</v>
       </c>
       <c r="AA258" s="8" t="s">
@@ -31353,7 +31370,7 @@
         <v>446</v>
       </c>
       <c r="Y259" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Falconsmember',</v>
       </c>
       <c r="AA259" s="8" t="s">
@@ -31374,7 +31391,7 @@
         <v>447</v>
       </c>
       <c r="Y260" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'mrgoodnews',</v>
       </c>
       <c r="AA260" s="8" t="s">
@@ -31395,7 +31412,7 @@
         <v>448</v>
       </c>
       <c r="Y261" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'ThorOdinsonDR',</v>
       </c>
       <c r="AA261" s="8" t="s">
@@ -31416,7 +31433,7 @@
         <v>449</v>
       </c>
       <c r="Y262" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Seinschein7',</v>
       </c>
       <c r="AA262" s="8" t="s">
@@ -31437,7 +31454,7 @@
         <v>450</v>
       </c>
       <c r="Y263" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Boesmensch60488',</v>
       </c>
       <c r="AA263" s="8" t="s">
@@ -31458,7 +31475,7 @@
         <v>452</v>
       </c>
       <c r="Y264" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'umbilicussuevia',</v>
       </c>
       <c r="AA264" s="8" t="s">
@@ -31479,7 +31496,7 @@
         <v>453</v>
       </c>
       <c r="Y265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'GrexitNow',</v>
       </c>
       <c r="AA265" s="8" t="s">
@@ -31500,7 +31517,7 @@
         <v>455</v>
       </c>
       <c r="Y266" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Nessie43',</v>
       </c>
       <c r="AA266" s="8" t="s">
@@ -31521,7 +31538,7 @@
         <v>456</v>
       </c>
       <c r="Y267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'DrMinimax',</v>
       </c>
       <c r="AA267" s="8" t="s">
@@ -31542,7 +31559,7 @@
         <v>457</v>
       </c>
       <c r="Y268" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Zarah_Zylinder',</v>
       </c>
       <c r="AA268" s="8" t="s">
@@ -31563,7 +31580,7 @@
         <v>458</v>
       </c>
       <c r="Y269" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'derschmidtjens',</v>
       </c>
       <c r="AA269" s="8" t="s">
@@ -31584,7 +31601,7 @@
         <v>460</v>
       </c>
       <c r="Y270" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Skototaxis',</v>
       </c>
       <c r="AA270" s="8" t="s">
@@ -31605,7 +31622,7 @@
         <v>461</v>
       </c>
       <c r="Y271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'schmidja2017',</v>
       </c>
       <c r="AA271" s="8" t="s">
@@ -31626,7 +31643,7 @@
         <v>462</v>
       </c>
       <c r="Y272" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'MeineHauptstadt',</v>
       </c>
       <c r="AA272" s="8" t="s">
@@ -31647,7 +31664,7 @@
         <v>464</v>
       </c>
       <c r="Y273" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'MamfredoMawi',</v>
       </c>
       <c r="AA273" s="8" t="s">
@@ -31668,7 +31685,7 @@
         <v>466</v>
       </c>
       <c r="Y274" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'AndreeZiebell',</v>
       </c>
       <c r="AA274" s="8" t="s">
@@ -31689,7 +31706,7 @@
         <v>467</v>
       </c>
       <c r="Y275" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'NanoFi44',</v>
       </c>
       <c r="AA275" s="8" t="s">
@@ -31710,7 +31727,7 @@
         <v>468</v>
       </c>
       <c r="Y276" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'darktweep',</v>
       </c>
       <c r="AA276" s="8" t="s">
@@ -31731,7 +31748,7 @@
         <v>469</v>
       </c>
       <c r="Y277" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'frag_Dietrun',</v>
       </c>
       <c r="AA277" s="8" t="s">
@@ -31752,7 +31769,7 @@
         <v>471</v>
       </c>
       <c r="Y278" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'JeannetteLeipz2',</v>
       </c>
       <c r="AA278" s="8" t="s">
@@ -31773,7 +31790,7 @@
         <v>472</v>
       </c>
       <c r="Y279" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'haljam26',</v>
       </c>
       <c r="AA279" s="8" t="s">
@@ -31794,7 +31811,7 @@
         <v>473</v>
       </c>
       <c r="Y280" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'utopia23_',</v>
       </c>
       <c r="AA280" s="8" t="s">
@@ -31815,7 +31832,7 @@
         <v>474</v>
       </c>
       <c r="Y281" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Westhim',</v>
       </c>
       <c r="AA281" s="8" t="s">
@@ -31836,7 +31853,7 @@
         <v>475</v>
       </c>
       <c r="Y282" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'ausbilders',</v>
       </c>
       <c r="AA282" s="8" t="s">
@@ -31857,7 +31874,7 @@
         <v>476</v>
       </c>
       <c r="Y283" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'buendnis',</v>
       </c>
       <c r="AA283" s="8" t="s">
@@ -31878,7 +31895,7 @@
         <v>477</v>
       </c>
       <c r="Y284" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'tomygieb',</v>
       </c>
       <c r="AA284" s="8" t="s">
@@ -31899,7 +31916,7 @@
         <v>478</v>
       </c>
       <c r="Y285" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'tizian52',</v>
       </c>
       <c r="AA285" s="8" t="s">
@@ -31920,7 +31937,7 @@
         <v>479</v>
       </c>
       <c r="Y286" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'MaurersSchorsch',</v>
       </c>
       <c r="AA286" s="8" t="s">
@@ -31941,7 +31958,7 @@
         <v>480</v>
       </c>
       <c r="Y287" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'SwitchAngel1975',</v>
       </c>
       <c r="AA287" s="8" t="s">
@@ -31962,7 +31979,7 @@
         <v>483</v>
       </c>
       <c r="Y288" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Systemerkel',</v>
       </c>
       <c r="AA288" s="8" t="s">
@@ -31983,7 +32000,7 @@
         <v>484</v>
       </c>
       <c r="Y289" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'NorgePrivacy',</v>
       </c>
       <c r="AA289" s="8" t="s">
@@ -32004,7 +32021,7 @@
         <v>485</v>
       </c>
       <c r="Y290" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Bernemerbub',</v>
       </c>
       <c r="AA290" s="8" t="s">
@@ -32025,7 +32042,7 @@
         <v>486</v>
       </c>
       <c r="Y291" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'B_Denklich',</v>
       </c>
       <c r="AA291" s="8" t="s">
@@ -32046,7 +32063,7 @@
         <v>487</v>
       </c>
       <c r="Y292" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'rocknord',</v>
       </c>
       <c r="AA292" s="8" t="s">
@@ -32067,7 +32084,7 @@
         <v>488</v>
       </c>
       <c r="Y293" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Botchamba',</v>
       </c>
       <c r="AA293" s="8" t="s">
@@ -32088,7 +32105,7 @@
         <v>489</v>
       </c>
       <c r="Y294" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'baronofstone',</v>
       </c>
       <c r="AA294" s="8" t="s">
@@ -32109,7 +32126,7 @@
         <v>490</v>
       </c>
       <c r="Y295" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Cor_Scipio',</v>
       </c>
       <c r="AA295" s="8" t="s">
@@ -32130,7 +32147,7 @@
         <v>492</v>
       </c>
       <c r="Y296" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'miguel7788',</v>
       </c>
       <c r="AA296" s="8" t="s">
@@ -32148,7 +32165,7 @@
         <v>493</v>
       </c>
       <c r="Y297" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Kanonenfutter82',</v>
       </c>
       <c r="AA297" s="8" t="s">
@@ -32166,7 +32183,7 @@
         <v>494</v>
       </c>
       <c r="Y298" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'InDerSee',</v>
       </c>
       <c r="AA298" s="8" t="s">
@@ -32184,7 +32201,7 @@
         <v>495</v>
       </c>
       <c r="Y299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Snape_Sama',</v>
       </c>
       <c r="AA299" s="8" t="s">
@@ -32202,7 +32219,7 @@
         <v>496</v>
       </c>
       <c r="Y300" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'123buzios',</v>
       </c>
       <c r="AA300" s="8" t="s">
@@ -32220,7 +32237,7 @@
         <v>497</v>
       </c>
       <c r="Y301" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Neodeutscher',</v>
       </c>
       <c r="AA301" s="8" t="s">
@@ -32238,7 +32255,7 @@
         <v>498</v>
       </c>
       <c r="Y302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'vonRoehling',</v>
       </c>
       <c r="AA302" s="8" t="s">
@@ -32256,7 +32273,7 @@
         <v>500</v>
       </c>
       <c r="Y303" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'AlterUhu',</v>
       </c>
       <c r="AA303" s="8" t="s">
@@ -32274,7 +32291,7 @@
         <v>502</v>
       </c>
       <c r="Y304" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'pantau70847839',</v>
       </c>
       <c r="AA304" s="8" t="s">
@@ -32292,7 +32309,7 @@
         <v>503</v>
       </c>
       <c r="Y305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'woli2017',</v>
       </c>
       <c r="AA305" s="8" t="s">
@@ -32310,7 +32327,7 @@
         <v>504</v>
       </c>
       <c r="Y306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'v_palme',</v>
       </c>
       <c r="AA306" s="8" t="s">
@@ -32328,7 +32345,7 @@
         <v>506</v>
       </c>
       <c r="Y307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Hexlepia',</v>
       </c>
       <c r="AA307" s="8" t="s">
@@ -32346,7 +32363,7 @@
         <v>507</v>
       </c>
       <c r="Y308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'hatmitnixzutun',</v>
       </c>
       <c r="AA308" s="8" t="s">
@@ -32364,7 +32381,7 @@
         <v>508</v>
       </c>
       <c r="Y309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'kingknorr',</v>
       </c>
       <c r="AA309" s="8" t="s">
@@ -32382,7 +32399,7 @@
         <v>509</v>
       </c>
       <c r="Y310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'aotearoa12345',</v>
       </c>
       <c r="AA310" s="8" t="s">
@@ -32400,7 +32417,7 @@
         <v>510</v>
       </c>
       <c r="Y311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'bulgehot',</v>
       </c>
       <c r="AA311" s="8" t="s">
@@ -32418,7 +32435,7 @@
         <v>511</v>
       </c>
       <c r="Y312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'stopp_merkel',</v>
       </c>
       <c r="AA312" s="8" t="s">
@@ -32436,7 +32453,7 @@
         <v>513</v>
       </c>
       <c r="Y313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'AfD_Freunde',</v>
       </c>
       <c r="AA313" s="8" t="s">
@@ -32454,7 +32471,7 @@
         <v>514</v>
       </c>
       <c r="Y314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'OlQuit',</v>
       </c>
       <c r="AA314" s="8" t="s">
@@ -32472,7 +32489,7 @@
         <v>515</v>
       </c>
       <c r="Y315" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'eysvog3l',</v>
       </c>
       <c r="AA315" s="8" t="s">
@@ -32490,7 +32507,7 @@
         <v>516</v>
       </c>
       <c r="Y316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'KaufmannTonia',</v>
       </c>
       <c r="AA316" s="8" t="s">
@@ -32508,7 +32525,7 @@
         <v>518</v>
       </c>
       <c r="Y317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'crabonace',</v>
       </c>
       <c r="AA317" s="8" t="s">
@@ -32526,7 +32543,7 @@
         <v>519</v>
       </c>
       <c r="Y318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'AfD_Bayern',</v>
       </c>
       <c r="AA318" s="8" t="s">
@@ -32544,7 +32561,7 @@
         <v>520</v>
       </c>
       <c r="Y319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'Zukunftskinder',</v>
       </c>
       <c r="AA319" s="8" t="s">
@@ -32562,7 +32579,7 @@
         <v>521</v>
       </c>
       <c r="Y320" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'orakel',</v>
       </c>
       <c r="AA320" s="8" t="s">
@@ -32580,7 +32597,7 @@
         <v>522</v>
       </c>
       <c r="Y321" t="str">
-        <f t="shared" ref="Y321:Y384" si="9">"'"&amp;V321&amp;"',"</f>
+        <f t="shared" ref="Y321:Y384" si="10">"'"&amp;V321&amp;"',"</f>
         <v>'Aequilibratis',</v>
       </c>
       <c r="AA321" s="8" t="s">
@@ -32598,7 +32615,7 @@
         <v>523</v>
       </c>
       <c r="Y322" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'PinocchioPresse',</v>
       </c>
       <c r="AA322" s="8" t="s">
@@ -32616,7 +32633,7 @@
         <v>524</v>
       </c>
       <c r="Y323" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'DPflugk',</v>
       </c>
       <c r="AA323" s="8" t="s">
@@ -32634,7 +32651,7 @@
         <v>525</v>
       </c>
       <c r="Y324" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'chrisjuko',</v>
       </c>
       <c r="AA324" s="8" t="s">
@@ -32652,7 +32669,7 @@
         <v>527</v>
       </c>
       <c r="Y325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'realmilkfan',</v>
       </c>
       <c r="AA325" s="8" t="s">
@@ -32670,7 +32687,7 @@
         <v>529</v>
       </c>
       <c r="Y326" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'janine_2209',</v>
       </c>
       <c r="AA326" s="8" t="s">
@@ -32688,7 +32705,7 @@
         <v>530</v>
       </c>
       <c r="Y327" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Ralf__B',</v>
       </c>
       <c r="AA327" s="8" t="s">
@@ -32706,7 +32723,7 @@
         <v>531</v>
       </c>
       <c r="Y328" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Creactic',</v>
       </c>
       <c r="AA328" s="8" t="s">
@@ -32724,7 +32741,7 @@
         <v>532</v>
       </c>
       <c r="Y329" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'willygyn12',</v>
       </c>
       <c r="AA329" s="8" t="s">
@@ -32742,7 +32759,7 @@
         <v>533</v>
       </c>
       <c r="Y330" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'kritischepress1',</v>
       </c>
       <c r="AA330" s="8" t="s">
@@ -32760,7 +32777,7 @@
         <v>534</v>
       </c>
       <c r="Y331" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'JensMaierAfD',</v>
       </c>
       <c r="AA331" s="8" t="s">
@@ -32778,7 +32795,7 @@
         <v>535</v>
       </c>
       <c r="Y332" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'HolgerScherer',</v>
       </c>
       <c r="AA332" s="8" t="s">
@@ -32796,7 +32813,7 @@
         <v>537</v>
       </c>
       <c r="Y333" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'von_Gneisenau',</v>
       </c>
       <c r="AA333" s="8" t="s">
@@ -32814,7 +32831,7 @@
         <v>538</v>
       </c>
       <c r="Y334" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Junge_Freiheit_',</v>
       </c>
       <c r="AA334" s="8" t="s">
@@ -32832,7 +32849,7 @@
         <v>539</v>
       </c>
       <c r="Y335" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Schmidtstahl',</v>
       </c>
       <c r="AA335" s="8" t="s">
@@ -32850,7 +32867,7 @@
         <v>540</v>
       </c>
       <c r="Y336" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Troeglitz',</v>
       </c>
       <c r="AA336" s="8" t="s">
@@ -32868,7 +32885,7 @@
         <v>541</v>
       </c>
       <c r="Y337" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'C_lesDeuxEglise',</v>
       </c>
       <c r="AA337" s="8" t="s">
@@ -32886,7 +32903,7 @@
         <v>542</v>
       </c>
       <c r="Y338" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'meerlaurer',</v>
       </c>
       <c r="AA338" s="8" t="s">
@@ -32904,7 +32921,7 @@
         <v>543</v>
       </c>
       <c r="Y339" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'RechterSpinner',</v>
       </c>
       <c r="AA339" s="8" t="s">
@@ -32922,7 +32939,7 @@
         <v>544</v>
       </c>
       <c r="Y340" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'DjValentino45',</v>
       </c>
       <c r="AA340" s="8" t="s">
@@ -32940,7 +32957,7 @@
         <v>545</v>
       </c>
       <c r="Y341" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'karlkramer1',</v>
       </c>
       <c r="AA341" s="8" t="s">
@@ -32958,7 +32975,7 @@
         <v>547</v>
       </c>
       <c r="Y342" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'OStDTaft',</v>
       </c>
       <c r="AA342" s="8" t="s">
@@ -32976,7 +32993,7 @@
         <v>549</v>
       </c>
       <c r="Y343" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'popular33619',</v>
       </c>
       <c r="AA343" s="8" t="s">
@@ -32994,7 +33011,7 @@
         <v>550</v>
       </c>
       <c r="Y344" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'andere110',</v>
       </c>
       <c r="AA344" s="8" t="s">
@@ -33012,7 +33029,7 @@
         <v>551</v>
       </c>
       <c r="Y345" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ChristianBaier1',</v>
       </c>
       <c r="AA345" s="8" t="s">
@@ -33030,7 +33047,7 @@
         <v>552</v>
       </c>
       <c r="Y346" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'matialkai',</v>
       </c>
       <c r="AA346" s="8" t="s">
@@ -33048,7 +33065,7 @@
         <v>553</v>
       </c>
       <c r="Y347" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'DonTraghi',</v>
       </c>
       <c r="AA347" s="8" t="s">
@@ -33066,7 +33083,7 @@
         <v>554</v>
       </c>
       <c r="Y348" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Lionicon1',</v>
       </c>
       <c r="AA348" s="8" t="s">
@@ -33084,7 +33101,7 @@
         <v>555</v>
       </c>
       <c r="Y349" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Gwittertott',</v>
       </c>
       <c r="AA349" s="8" t="s">
@@ -33102,7 +33119,7 @@
         <v>556</v>
       </c>
       <c r="Y350" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Tom1643F',</v>
       </c>
       <c r="AA350" s="8" t="s">
@@ -33120,7 +33137,7 @@
         <v>557</v>
       </c>
       <c r="Y351" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Rivanov5',</v>
       </c>
       <c r="AA351" s="8" t="s">
@@ -33138,7 +33155,7 @@
         <v>558</v>
       </c>
       <c r="Y352" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Neidhammel',</v>
       </c>
       <c r="AA352" s="8" t="s">
@@ -33156,7 +33173,7 @@
         <v>559</v>
       </c>
       <c r="Y353" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Paragraph1Ralph',</v>
       </c>
       <c r="AA353" s="8" t="s">
@@ -33174,7 +33191,7 @@
         <v>560</v>
       </c>
       <c r="Y354" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Milhous_vanH',</v>
       </c>
       <c r="AA354" s="8" t="s">
@@ -33192,7 +33209,7 @@
         <v>561</v>
       </c>
       <c r="Y355" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'denk_net_noch',</v>
       </c>
       <c r="AA355" s="8" t="s">
@@ -33210,7 +33227,7 @@
         <v>562</v>
       </c>
       <c r="Y356" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'patriot_ch',</v>
       </c>
       <c r="AA356" s="8" t="s">
@@ -33228,7 +33245,7 @@
         <v>563</v>
       </c>
       <c r="Y357" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'AueMicha',</v>
       </c>
       <c r="AA357" s="8" t="s">
@@ -33246,7 +33263,7 @@
         <v>565</v>
       </c>
       <c r="Y358" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'faho74',</v>
       </c>
       <c r="AA358" s="8" t="s">
@@ -33264,7 +33281,7 @@
         <v>567</v>
       </c>
       <c r="Y359" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'gerrie352',</v>
       </c>
       <c r="AA359" s="8" t="s">
@@ -33282,7 +33299,7 @@
         <v>569</v>
       </c>
       <c r="Y360" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'fckleft',</v>
       </c>
       <c r="AA360" s="8" t="s">
@@ -33300,7 +33317,7 @@
         <v>570</v>
       </c>
       <c r="Y361" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ecclesiadei1',</v>
       </c>
       <c r="AA361" s="8" t="s">
@@ -33318,7 +33335,7 @@
         <v>571</v>
       </c>
       <c r="Y362" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'alisffm',</v>
       </c>
       <c r="AA362" s="8" t="s">
@@ -33336,7 +33353,7 @@
         <v>572</v>
       </c>
       <c r="Y363" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'keinfreiwild',</v>
       </c>
       <c r="AA363" s="8" t="s">
@@ -33354,7 +33371,7 @@
         <v>573</v>
       </c>
       <c r="Y364" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'pipi_netanyahoo',</v>
       </c>
       <c r="AA364" s="8" t="s">
@@ -33372,7 +33389,7 @@
         <v>574</v>
       </c>
       <c r="Y365" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'harztonne',</v>
       </c>
       <c r="AA365" s="8" t="s">
@@ -33390,7 +33407,7 @@
         <v>575</v>
       </c>
       <c r="Y366" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'DeltaFiveEcho',</v>
       </c>
       <c r="AA366" s="8" t="s">
@@ -33408,7 +33425,7 @@
         <v>579</v>
       </c>
       <c r="Y367" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Mountaindream5',</v>
       </c>
       <c r="AA367" s="8" t="s">
@@ -33426,7 +33443,7 @@
         <v>581</v>
       </c>
       <c r="Y368" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'tommyleewaters',</v>
       </c>
       <c r="AA368" s="8" t="s">
@@ -33444,7 +33461,7 @@
         <v>582</v>
       </c>
       <c r="Y369" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'uwe_guenther',</v>
       </c>
       <c r="AA369" s="8" t="s">
@@ -33462,7 +33479,7 @@
         <v>583</v>
       </c>
       <c r="Y370" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'abc321xyblabla',</v>
       </c>
       <c r="AA370" s="8" t="s">
@@ -33480,7 +33497,7 @@
         <v>584</v>
       </c>
       <c r="Y371" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'fnkreisunna',</v>
       </c>
       <c r="AA371" s="8" t="s">
@@ -33498,7 +33515,7 @@
         <v>585</v>
       </c>
       <c r="Y372" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'StefanS56831841',</v>
       </c>
       <c r="AA372" s="8" t="s">
@@ -33516,7 +33533,7 @@
         <v>587</v>
       </c>
       <c r="Y373" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'savesoelse',</v>
       </c>
       <c r="AA373" s="8" t="s">
@@ -33534,7 +33551,7 @@
         <v>588</v>
       </c>
       <c r="Y374" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Macbeth0815',</v>
       </c>
       <c r="AA374" s="8" t="s">
@@ -33552,7 +33569,7 @@
         <v>589</v>
       </c>
       <c r="Y375" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'olschews1',</v>
       </c>
       <c r="AA375" s="8" t="s">
@@ -33570,7 +33587,7 @@
         <v>590</v>
       </c>
       <c r="Y376" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'emrich_5933',</v>
       </c>
       <c r="AA376" s="8" t="s">
@@ -33588,7 +33605,7 @@
         <v>591</v>
       </c>
       <c r="Y377" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'harry61871047',</v>
       </c>
       <c r="AA377" s="8" t="s">
@@ -33606,7 +33623,7 @@
         <v>592</v>
       </c>
       <c r="Y378" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'ebobatcanaille',</v>
       </c>
       <c r="AA378" s="8" t="s">
@@ -33624,7 +33641,7 @@
         <v>593</v>
       </c>
       <c r="Y379" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'gertrudrichter1',</v>
       </c>
       <c r="AA379" s="8" t="s">
@@ -33642,7 +33659,7 @@
         <v>594</v>
       </c>
       <c r="Y380" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'RikiMasorati',</v>
       </c>
       <c r="AA380" s="8" t="s">
@@ -33658,7 +33675,7 @@
         <v>597</v>
       </c>
       <c r="Y381" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Berndvendetta',</v>
       </c>
       <c r="AA381" s="8" t="s">
@@ -33676,7 +33693,7 @@
         <v>598</v>
       </c>
       <c r="Y382" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'wegecon',</v>
       </c>
       <c r="AA382" s="8" t="s">
@@ -33694,7 +33711,7 @@
         <v>599</v>
       </c>
       <c r="Y383" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'kreuzebra86',</v>
       </c>
       <c r="AA383" s="8" t="s">
@@ -33712,7 +33729,7 @@
         <v>600</v>
       </c>
       <c r="Y384" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>'Taykra',</v>
       </c>
       <c r="AA384" s="8" t="s">
@@ -33730,7 +33747,7 @@
         <v>602</v>
       </c>
       <c r="Y385" t="str">
-        <f t="shared" ref="Y385:Y448" si="10">"'"&amp;V385&amp;"',"</f>
+        <f t="shared" ref="Y385:Y448" si="11">"'"&amp;V385&amp;"',"</f>
         <v>'PilgramsWords',</v>
       </c>
       <c r="AA385" s="8" t="s">
@@ -33748,7 +33765,7 @@
         <v>603</v>
       </c>
       <c r="Y386" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'AfDBrandenburg',</v>
       </c>
       <c r="AA386" s="8" t="s">
@@ -33766,7 +33783,7 @@
         <v>604</v>
       </c>
       <c r="Y387" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'afdmunich',</v>
       </c>
       <c r="AA387" s="8" t="s">
@@ -33784,7 +33801,7 @@
         <v>605</v>
       </c>
       <c r="Y388" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'MehmetAzul',</v>
       </c>
       <c r="AA388" s="8" t="s">
@@ -33802,7 +33819,7 @@
         <v>606</v>
       </c>
       <c r="Y389" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'mockylock50',</v>
       </c>
       <c r="AA389" s="8" t="s">
@@ -33820,7 +33837,7 @@
         <v>607</v>
       </c>
       <c r="Y390" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'BiibiiSilvi',</v>
       </c>
       <c r="AA390" s="8" t="s">
@@ -33838,7 +33855,7 @@
         <v>608</v>
       </c>
       <c r="Y391" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'rplantiko',</v>
       </c>
       <c r="AA391" s="8" t="s">
@@ -33856,7 +33873,7 @@
         <v>610</v>
       </c>
       <c r="Y392" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'hahaaaaaz',</v>
       </c>
       <c r="AA392" s="8" t="s">
@@ -33874,7 +33891,7 @@
         <v>612</v>
       </c>
       <c r="Y393" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'rtrf2001',</v>
       </c>
       <c r="AA393" s="8" t="s">
@@ -33892,7 +33909,7 @@
         <v>613</v>
       </c>
       <c r="Y394" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'schwarzermai',</v>
       </c>
       <c r="AA394" s="8" t="s">
@@ -33910,7 +33927,7 @@
         <v>615</v>
       </c>
       <c r="Y395" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Frizcatcom',</v>
       </c>
       <c r="AA395" s="8" t="s">
@@ -33928,7 +33945,7 @@
         <v>616</v>
       </c>
       <c r="Y396" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'WillRobar',</v>
       </c>
       <c r="AA396" s="8" t="s">
@@ -33946,7 +33963,7 @@
         <v>617</v>
       </c>
       <c r="Y397" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'AsylwatchDE',</v>
       </c>
       <c r="AA397" s="8" t="s">
@@ -33964,7 +33981,7 @@
         <v>618</v>
       </c>
       <c r="Y398" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Reibekuchen26',</v>
       </c>
       <c r="AA398" s="8" t="s">
@@ -33982,7 +33999,7 @@
         <v>619</v>
       </c>
       <c r="Y399" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Oberschnuff',</v>
       </c>
       <c r="AA399" s="8" t="s">
@@ -34000,7 +34017,7 @@
         <v>620</v>
       </c>
       <c r="Y400" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Meike_1683',</v>
       </c>
       <c r="AA400" s="8" t="s">
@@ -34018,7 +34035,7 @@
         <v>622</v>
       </c>
       <c r="Y401" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'UweReicht',</v>
       </c>
       <c r="AA401" s="8" t="s">
@@ -34036,7 +34053,7 @@
         <v>624</v>
       </c>
       <c r="Y402" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HansRolfSchmidt',</v>
       </c>
       <c r="AA402" s="8" t="s">
@@ -34054,7 +34071,7 @@
         <v>625</v>
       </c>
       <c r="Y403" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'t_truthhh',</v>
       </c>
       <c r="AA403" s="8" t="s">
@@ -34072,7 +34089,7 @@
         <v>626</v>
       </c>
       <c r="Y404" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HomeRogner',</v>
       </c>
       <c r="AA404" s="8" t="s">
@@ -34090,7 +34107,7 @@
         <v>628</v>
       </c>
       <c r="Y405" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'SookieS_13',</v>
       </c>
       <c r="AA405" s="8" t="s">
@@ -34108,7 +34125,7 @@
         <v>629</v>
       </c>
       <c r="Y406" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'DiaboliDiabo9',</v>
       </c>
       <c r="AA406" s="8" t="s">
@@ -34126,7 +34143,7 @@
         <v>630</v>
       </c>
       <c r="Y407" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Neuhier76',</v>
       </c>
       <c r="AA407" s="8" t="s">
@@ -34144,7 +34161,7 @@
         <v>631</v>
       </c>
       <c r="Y408" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'GBaersch',</v>
       </c>
       <c r="AA408" s="8" t="s">
@@ -34162,7 +34179,7 @@
         <v>632</v>
       </c>
       <c r="Y409" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'vilimsky',</v>
       </c>
       <c r="AA409" s="8" t="s">
@@ -34180,7 +34197,7 @@
         <v>633</v>
       </c>
       <c r="Y410" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'agm_alain',</v>
       </c>
       <c r="AA410" s="8" t="s">
@@ -34198,7 +34215,7 @@
         <v>634</v>
       </c>
       <c r="Y411" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'LinusManstein',</v>
       </c>
       <c r="AA411" s="8" t="s">
@@ -34216,7 +34233,7 @@
         <v>635</v>
       </c>
       <c r="Y412" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'rodolfostweets',</v>
       </c>
       <c r="AA412" s="8" t="s">
@@ -34234,7 +34251,7 @@
         <v>636</v>
       </c>
       <c r="Y413" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'VictoriaUngarn',</v>
       </c>
       <c r="AA413" s="8" t="s">
@@ -34252,7 +34269,7 @@
         <v>637</v>
       </c>
       <c r="Y414" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'westfale1815',</v>
       </c>
       <c r="AA414" s="8" t="s">
@@ -34270,7 +34287,7 @@
         <v>638</v>
       </c>
       <c r="Y415" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'heike_schultz',</v>
       </c>
       <c r="AA415" s="8" t="s">
@@ -34288,7 +34305,7 @@
         <v>639</v>
       </c>
       <c r="Y416" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'WegMitHartzern',</v>
       </c>
       <c r="AA416" s="8" t="s">
@@ -34306,7 +34323,7 @@
         <v>640</v>
       </c>
       <c r="Y417" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Rufer001',</v>
       </c>
       <c r="AA417" s="8" t="s">
@@ -34324,7 +34341,7 @@
         <v>641</v>
       </c>
       <c r="Y418" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'QuerKopfRobot',</v>
       </c>
       <c r="AA418" s="8" t="s">
@@ -34342,7 +34359,7 @@
         <v>642</v>
       </c>
       <c r="Y419" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'westfunker',</v>
       </c>
       <c r="AA419" s="8" t="s">
@@ -34360,7 +34377,7 @@
         <v>644</v>
       </c>
       <c r="Y420" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HotteHorstmann',</v>
       </c>
       <c r="AA420" s="8" t="s">
@@ -34378,7 +34395,7 @@
         <v>646</v>
       </c>
       <c r="Y421" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'ronaldglaeser',</v>
       </c>
       <c r="AA421" s="8" t="s">
@@ -34396,7 +34413,7 @@
         <v>647</v>
       </c>
       <c r="Y422" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'gmzipfel',</v>
       </c>
       <c r="AA422" s="8" t="s">
@@ -34414,7 +34431,7 @@
         <v>649</v>
       </c>
       <c r="Y423" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Antikulturalist',</v>
       </c>
       <c r="AA423" s="8" t="s">
@@ -34432,7 +34449,7 @@
         <v>650</v>
       </c>
       <c r="Y424" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'bloggi',</v>
       </c>
       <c r="AA424" s="8" t="s">
@@ -34450,7 +34467,7 @@
         <v>651</v>
       </c>
       <c r="Y425" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'ChisNoria',</v>
       </c>
       <c r="AA425" s="8" t="s">
@@ -34468,7 +34485,7 @@
         <v>653</v>
       </c>
       <c r="Y426" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'martin_gutzeit',</v>
       </c>
       <c r="AA426" s="8" t="s">
@@ -34486,7 +34503,7 @@
         <v>654</v>
       </c>
       <c r="Y427" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Sharebenhaufen',</v>
       </c>
       <c r="AA427" s="8" t="s">
@@ -34504,7 +34521,7 @@
         <v>655</v>
       </c>
       <c r="Y428" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Schaun_mer_mal',</v>
       </c>
       <c r="AA428" s="8" t="s">
@@ -34522,7 +34539,7 @@
         <v>656</v>
       </c>
       <c r="Y429" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Heide1949',</v>
       </c>
       <c r="AA429" s="8" t="s">
@@ -34540,7 +34557,7 @@
         <v>657</v>
       </c>
       <c r="Y430" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'FritzSchulz',</v>
       </c>
       <c r="AA430" s="8" t="s">
@@ -34558,7 +34575,7 @@
         <v>658</v>
       </c>
       <c r="Y431" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'boeser_Michel',</v>
       </c>
       <c r="AA431" s="8" t="s">
@@ -34576,7 +34593,7 @@
         <v>660</v>
       </c>
       <c r="Y432" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'FfFrauki',</v>
       </c>
       <c r="AA432" s="8" t="s">
@@ -34594,7 +34611,7 @@
         <v>661</v>
       </c>
       <c r="Y433" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'KPK58P',</v>
       </c>
       <c r="AA433" s="8" t="s">
@@ -34612,7 +34629,7 @@
         <v>662</v>
       </c>
       <c r="Y434" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'michael_kappe',</v>
       </c>
       <c r="AA434" s="8" t="s">
@@ -34630,7 +34647,7 @@
         <v>663</v>
       </c>
       <c r="Y435" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'rdntzd',</v>
       </c>
       <c r="AA435" s="8" t="s">
@@ -34648,7 +34665,7 @@
         <v>664</v>
       </c>
       <c r="Y436" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Fluchtursache',</v>
       </c>
       <c r="AA436" s="8" t="s">
@@ -34666,7 +34683,7 @@
         <v>665</v>
       </c>
       <c r="Y437" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'CatEns',</v>
       </c>
       <c r="AA437" s="8" t="s">
@@ -34684,7 +34701,7 @@
         <v>666</v>
       </c>
       <c r="Y438" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'NancyPeggyMandy',</v>
       </c>
       <c r="AA438" s="8" t="s">
@@ -34702,7 +34719,7 @@
         <v>667</v>
       </c>
       <c r="Y439" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Gerhard42833386',</v>
       </c>
       <c r="AA439" s="8" t="s">
@@ -34720,7 +34737,7 @@
         <v>668</v>
       </c>
       <c r="Y440" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'ReneFSL',</v>
       </c>
       <c r="AA440" s="8" t="s">
@@ -34738,7 +34755,7 @@
         <v>669</v>
       </c>
       <c r="Y441" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'Thereminspieler',</v>
       </c>
       <c r="AA441" s="8" t="s">
@@ -34756,7 +34773,7 @@
         <v>670</v>
       </c>
       <c r="Y442" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'citius_fortius',</v>
       </c>
       <c r="AA442" s="8" t="s">
@@ -34774,7 +34791,7 @@
         <v>671</v>
       </c>
       <c r="Y443" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'rotbarsch69',</v>
       </c>
       <c r="AA443" s="8" t="s">
@@ -34792,7 +34809,7 @@
         <v>672</v>
       </c>
       <c r="Y444" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'mkphh',</v>
       </c>
       <c r="AA444" s="8" t="s">
@@ -34810,7 +34827,7 @@
         <v>674</v>
       </c>
       <c r="Y445" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'explicitanalysi',</v>
       </c>
       <c r="AA445" s="8" t="s">
@@ -34828,7 +34845,7 @@
         <v>676</v>
       </c>
       <c r="Y446" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'die_Schoene',</v>
       </c>
       <c r="AA446" s="8" t="s">
@@ -34846,7 +34863,7 @@
         <v>677</v>
       </c>
       <c r="Y447" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'HaNSausNklln',</v>
       </c>
       <c r="AA447" s="8" t="s">
@@ -34864,7 +34881,7 @@
         <v>678</v>
       </c>
       <c r="Y448" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'heike1502',</v>
       </c>
       <c r="AA448" s="8" t="s">
@@ -34882,7 +34899,7 @@
         <v>679</v>
       </c>
       <c r="Y449" t="str">
-        <f t="shared" ref="Y449:Y512" si="11">"'"&amp;V449&amp;"',"</f>
+        <f t="shared" ref="Y449:Y512" si="12">"'"&amp;V449&amp;"',"</f>
         <v>'habibibaba77',</v>
       </c>
       <c r="AA449" s="8" t="s">
@@ -34900,7 +34917,7 @@
         <v>680</v>
       </c>
       <c r="Y450" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'landhaustussy',</v>
       </c>
       <c r="AA450" s="8" t="s">
@@ -34918,7 +34935,7 @@
         <v>681</v>
       </c>
       <c r="Y451" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'R1070A',</v>
       </c>
       <c r="AA451" s="8" t="s">
@@ -34936,7 +34953,7 @@
         <v>682</v>
       </c>
       <c r="Y452" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Germans_4Trump',</v>
       </c>
       <c r="AA452" s="8" t="s">
@@ -34954,7 +34971,7 @@
         <v>683</v>
       </c>
       <c r="Y453" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Nicole161071',</v>
       </c>
       <c r="AA453" s="8" t="s">
@@ -34972,7 +34989,7 @@
         <v>684</v>
       </c>
       <c r="Y454" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'lukas_iff',</v>
       </c>
       <c r="AA454" s="8" t="s">
@@ -34990,7 +35007,7 @@
         <v>686</v>
       </c>
       <c r="Y455" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Pugnator_',</v>
       </c>
       <c r="AA455" s="8" t="s">
@@ -35008,7 +35025,7 @@
         <v>687</v>
       </c>
       <c r="Y456" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'profraika',</v>
       </c>
       <c r="AA456" s="8" t="s">
@@ -35026,7 +35043,7 @@
         <v>688</v>
       </c>
       <c r="Y457" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'nicolipi1',</v>
       </c>
       <c r="AA457" s="8" t="s">
@@ -35044,7 +35061,7 @@
         <v>689</v>
       </c>
       <c r="Y458" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'ibikus31',</v>
       </c>
       <c r="AA458" s="8" t="s">
@@ -35062,7 +35079,7 @@
         <v>690</v>
       </c>
       <c r="Y459" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'berlinwerbung',</v>
       </c>
       <c r="AA459" s="8" t="s">
@@ -35080,7 +35097,7 @@
         <v>694</v>
       </c>
       <c r="Y460" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'trident750',</v>
       </c>
       <c r="AA460" s="8" t="s">
@@ -35098,7 +35115,7 @@
         <v>695</v>
       </c>
       <c r="Y461" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'m4rgotkaesemann',</v>
       </c>
       <c r="AA461" s="8" t="s">
@@ -35116,7 +35133,7 @@
         <v>696</v>
       </c>
       <c r="Y462" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'AlexiaStellar',</v>
       </c>
       <c r="AA462" s="8" t="s">
@@ -35134,7 +35151,7 @@
         <v>697</v>
       </c>
       <c r="Y463" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Krakan_G',</v>
       </c>
       <c r="AA463" s="8" t="s">
@@ -35152,7 +35169,7 @@
         <v>698</v>
       </c>
       <c r="Y464" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Saxoniagerd',</v>
       </c>
       <c r="AA464" s="8" t="s">
@@ -35170,7 +35187,7 @@
         <v>699</v>
       </c>
       <c r="Y465" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Isnogud_',</v>
       </c>
       <c r="AA465" s="8" t="s">
@@ -35188,7 +35205,7 @@
         <v>700</v>
       </c>
       <c r="Y466" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'JKruetzkamp',</v>
       </c>
       <c r="AA466" s="8" t="s">
@@ -35206,7 +35223,7 @@
         <v>701</v>
       </c>
       <c r="Y467" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Pako24072012',</v>
       </c>
       <c r="AA467" s="8" t="s">
@@ -35224,7 +35241,7 @@
         <v>702</v>
       </c>
       <c r="Y468" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'PeterS16649683',</v>
       </c>
       <c r="AA468" s="8" t="s">
@@ -35242,7 +35259,7 @@
         <v>703</v>
       </c>
       <c r="Y469" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'JakobDiener',</v>
       </c>
       <c r="AA469" s="8" t="s">
@@ -35260,7 +35277,7 @@
         <v>704</v>
       </c>
       <c r="Y470" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'CyanidMichael',</v>
       </c>
       <c r="AA470" s="8" t="s">
@@ -35278,7 +35295,7 @@
         <v>705</v>
       </c>
       <c r="Y471" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'HorstNRW',</v>
       </c>
       <c r="AA471" s="8" t="s">
@@ -35296,7 +35313,7 @@
         <v>706</v>
       </c>
       <c r="Y472" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Silv3r_1337',</v>
       </c>
       <c r="AA472" s="8" t="s">
@@ -35314,7 +35331,7 @@
         <v>708</v>
       </c>
       <c r="Y473" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'mboe0407',</v>
       </c>
       <c r="AA473" s="8" t="s">
@@ -35332,7 +35349,7 @@
         <v>709</v>
       </c>
       <c r="Y474" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Achim7671',</v>
       </c>
       <c r="AA474" s="8" t="s">
@@ -35350,7 +35367,7 @@
         <v>710</v>
       </c>
       <c r="Y475" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'LebenszeichenNS',</v>
       </c>
       <c r="AA475" s="8" t="s">
@@ -35368,7 +35385,7 @@
         <v>711</v>
       </c>
       <c r="Y476" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'f_kierkegaard',</v>
       </c>
       <c r="AA476" s="8" t="s">
@@ -35386,7 +35403,7 @@
         <v>712</v>
       </c>
       <c r="Y477" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'JoeMontana99',</v>
       </c>
       <c r="AA477" s="8" t="s">
@@ -35404,7 +35421,7 @@
         <v>714</v>
       </c>
       <c r="Y478" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'kritischergeist',</v>
       </c>
       <c r="AA478" s="8" t="s">
@@ -35422,7 +35439,7 @@
         <v>716</v>
       </c>
       <c r="Y479" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'WHetzler',</v>
       </c>
       <c r="AA479" s="8" t="s">
@@ -35440,7 +35457,7 @@
         <v>717</v>
       </c>
       <c r="Y480" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'zvlrnghrsm',</v>
       </c>
       <c r="AA480" s="8" t="s">
@@ -35458,7 +35475,7 @@
         <v>718</v>
       </c>
       <c r="Y481" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'SATANEins',</v>
       </c>
       <c r="AA481" s="8" t="s">
@@ -35476,7 +35493,7 @@
         <v>719</v>
       </c>
       <c r="Y482" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GeneralRene',</v>
       </c>
       <c r="AA482" s="8" t="s">
@@ -35494,7 +35511,7 @@
         <v>720</v>
       </c>
       <c r="Y483" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Toti_S63',</v>
       </c>
       <c r="AA483" s="8" t="s">
@@ -35512,7 +35529,7 @@
         <v>721</v>
       </c>
       <c r="Y484" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'NoSystemCarlo',</v>
       </c>
       <c r="AA484" s="8" t="s">
@@ -35530,7 +35547,7 @@
         <v>722</v>
       </c>
       <c r="Y485" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'HartesGeld',</v>
       </c>
       <c r="AA485" s="8" t="s">
@@ -35548,7 +35565,7 @@
         <v>724</v>
       </c>
       <c r="Y486" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'andrittis',</v>
       </c>
       <c r="AA486" s="8" t="s">
@@ -35566,7 +35583,7 @@
         <v>725</v>
       </c>
       <c r="Y487" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Apoll0x',</v>
       </c>
       <c r="AA487" s="8" t="s">
@@ -35584,7 +35601,7 @@
         <v>727</v>
       </c>
       <c r="Y488" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Karo_rot',</v>
       </c>
       <c r="AA488" s="8" t="s">
@@ -35602,7 +35619,7 @@
         <v>728</v>
       </c>
       <c r="Y489" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'crazy4golf',</v>
       </c>
       <c r="AA489" s="8" t="s">
@@ -35620,7 +35637,7 @@
         <v>730</v>
       </c>
       <c r="Y490" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'pflegefrau',</v>
       </c>
       <c r="AA490" s="8" t="s">
@@ -35638,7 +35655,7 @@
         <v>731</v>
       </c>
       <c r="Y491" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Pegidizer',</v>
       </c>
       <c r="AA491" s="8" t="s">
@@ -35656,7 +35673,7 @@
         <v>732</v>
       </c>
       <c r="Y492" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'sobieski11',</v>
       </c>
       <c r="AA492" s="8" t="s">
@@ -35674,7 +35691,7 @@
         <v>733</v>
       </c>
       <c r="Y493" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Eth_n_Br_dberry',</v>
       </c>
       <c r="AA493" s="8" t="s">
@@ -35692,7 +35709,7 @@
         <v>734</v>
       </c>
       <c r="Y494" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'bluti86',</v>
       </c>
       <c r="AA494" s="8" t="s">
@@ -35710,7 +35727,7 @@
         <v>736</v>
       </c>
       <c r="Y495" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'bine1007',</v>
       </c>
       <c r="AA495" s="8" t="s">
@@ -35728,7 +35745,7 @@
         <v>738</v>
       </c>
       <c r="Y496" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'BlondJedi',</v>
       </c>
       <c r="AA496" s="8" t="s">
@@ -35746,7 +35763,7 @@
         <v>740</v>
       </c>
       <c r="Y497" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GiantPaladin',</v>
       </c>
       <c r="AA497" s="8" t="s">
@@ -35764,7 +35781,7 @@
         <v>741</v>
       </c>
       <c r="Y498" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'FroschkoenigPep',</v>
       </c>
       <c r="AA498" s="8" t="s">
@@ -35782,7 +35799,7 @@
         <v>742</v>
       </c>
       <c r="Y499" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'ThomasGBauer',</v>
       </c>
       <c r="AA499" s="8" t="s">
@@ -35800,7 +35817,7 @@
         <v>743</v>
       </c>
       <c r="Y500" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'wg12307',</v>
       </c>
       <c r="AA500" s="8" t="s">
@@ -35818,7 +35835,7 @@
         <v>744</v>
       </c>
       <c r="Y501" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'KallePetersenII',</v>
       </c>
       <c r="AA501" s="8" t="s">
@@ -35836,7 +35853,7 @@
         <v>745</v>
       </c>
       <c r="Y502" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Laugarfjall2',</v>
       </c>
       <c r="AA502" s="8" t="s">
@@ -35854,7 +35871,7 @@
         <v>749</v>
       </c>
       <c r="Y503" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GermanCrosshair',</v>
       </c>
       <c r="AA503" s="8" t="s">
@@ -35872,7 +35889,7 @@
         <v>750</v>
       </c>
       <c r="Y504" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Dirk20158',</v>
       </c>
       <c r="AA504" s="8" t="s">
@@ -35890,7 +35907,7 @@
         <v>751</v>
       </c>
       <c r="Y505" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'PalzBu',</v>
       </c>
       <c r="AA505" s="8" t="s">
@@ -35908,7 +35925,7 @@
         <v>752</v>
       </c>
       <c r="Y506" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'mario_edelmann',</v>
       </c>
       <c r="AA506" s="8" t="s">
@@ -35926,7 +35943,7 @@
         <v>753</v>
       </c>
       <c r="Y507" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'kigallus',</v>
       </c>
       <c r="AA507" s="8" t="s">
@@ -35944,7 +35961,7 @@
         <v>754</v>
       </c>
       <c r="Y508" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'AchimSpiegel',</v>
       </c>
       <c r="AA508" s="8" t="s">
@@ -35962,7 +35979,7 @@
         <v>756</v>
       </c>
       <c r="Y509" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'GegenKinderehen',</v>
       </c>
       <c r="AA509" s="8" t="s">
@@ -35980,7 +35997,7 @@
         <v>757</v>
       </c>
       <c r="Y510" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Grandel1',</v>
       </c>
       <c r="AA510" s="8" t="s">
@@ -35998,7 +36015,7 @@
         <v>758</v>
       </c>
       <c r="Y511" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'shrimpsdeluxe',</v>
       </c>
       <c r="AA511" s="8" t="s">
@@ -36016,7 +36033,7 @@
         <v>759</v>
       </c>
       <c r="Y512" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>'Sascha_Reiche',</v>
       </c>
       <c r="AA512" s="8" t="s">
@@ -36034,7 +36051,7 @@
         <v>760</v>
       </c>
       <c r="Y513" t="str">
-        <f t="shared" ref="Y513:Y576" si="12">"'"&amp;V513&amp;"',"</f>
+        <f t="shared" ref="Y513:Y576" si="13">"'"&amp;V513&amp;"',"</f>
         <v>'ma_gu123',</v>
       </c>
       <c r="AA513" s="8" t="s">
@@ -36052,7 +36069,7 @@
         <v>761</v>
       </c>
       <c r="Y514" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'R0BERTSpongebob',</v>
       </c>
       <c r="AA514" s="8" t="s">
@@ -36070,7 +36087,7 @@
         <v>762</v>
       </c>
       <c r="Y515" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Kiel_Sophienhof',</v>
       </c>
       <c r="AA515" s="8" t="s">
@@ -36088,7 +36105,7 @@
         <v>763</v>
       </c>
       <c r="Y516" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'friesenjens',</v>
       </c>
       <c r="AA516" s="8" t="s">
@@ -36106,7 +36123,7 @@
         <v>764</v>
       </c>
       <c r="Y517" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'diggy2015',</v>
       </c>
       <c r="AA517" s="8" t="s">
@@ -36124,7 +36141,7 @@
         <v>765</v>
       </c>
       <c r="Y518" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Waldkauz15',</v>
       </c>
       <c r="AA518" s="8" t="s">
@@ -36142,7 +36159,7 @@
         <v>766</v>
       </c>
       <c r="Y519" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Golo677',</v>
       </c>
       <c r="AA519" s="8" t="s">
@@ -36160,7 +36177,7 @@
         <v>768</v>
       </c>
       <c r="Y520" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'SebWebTop',</v>
       </c>
       <c r="AA520" s="8" t="s">
@@ -36178,7 +36195,7 @@
         <v>769</v>
       </c>
       <c r="Y521" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'KGehirn',</v>
       </c>
       <c r="AA521" s="8" t="s">
@@ -36196,7 +36213,7 @@
         <v>770</v>
       </c>
       <c r="Y522" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'DeisterEdith',</v>
       </c>
       <c r="AA522" s="8" t="s">
@@ -36214,7 +36231,7 @@
         <v>771</v>
       </c>
       <c r="Y523" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'legemecum',</v>
       </c>
       <c r="AA523" s="8" t="s">
@@ -36232,7 +36249,7 @@
         <v>773</v>
       </c>
       <c r="Y524" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'schulle60',</v>
       </c>
       <c r="AA524" s="8" t="s">
@@ -36250,7 +36267,7 @@
         <v>775</v>
       </c>
       <c r="Y525" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'ZeilerOli',</v>
       </c>
       <c r="AA525" s="8" t="s">
@@ -36268,7 +36285,7 @@
         <v>776</v>
       </c>
       <c r="Y526" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'UweWolff966',</v>
       </c>
       <c r="AA526" s="14" t="s">
@@ -36286,7 +36303,7 @@
         <v>777</v>
       </c>
       <c r="Y527" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Horst1941',</v>
       </c>
       <c r="AA527" s="8" t="s">
@@ -36304,7 +36321,7 @@
         <v>778</v>
       </c>
       <c r="Y528" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'MyCodeOfConduct',</v>
       </c>
       <c r="AA528" s="8" t="s">
@@ -36322,7 +36339,7 @@
         <v>779</v>
       </c>
       <c r="Y529" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'daspunkt',</v>
       </c>
       <c r="AA529" s="8" t="s">
@@ -36340,7 +36357,7 @@
         <v>780</v>
       </c>
       <c r="Y530" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'blacklabel_76',</v>
       </c>
       <c r="AA530" s="8" t="s">
@@ -36358,7 +36375,7 @@
         <v>781</v>
       </c>
       <c r="Y531" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'B_Saft',</v>
       </c>
       <c r="AA531" s="8" t="s">
@@ -36376,7 +36393,7 @@
         <v>782</v>
       </c>
       <c r="Y532" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'MaulwurfenInfoD',</v>
       </c>
       <c r="AA532" s="8" t="s">
@@ -36394,7 +36411,7 @@
         <v>783</v>
       </c>
       <c r="Y533" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'LebenMTL',</v>
       </c>
       <c r="AA533" s="8" t="s">
@@ -36412,7 +36429,7 @@
         <v>784</v>
       </c>
       <c r="Y534" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Neomammalia',</v>
       </c>
       <c r="AA534" s="8" t="s">
@@ -36430,7 +36447,7 @@
         <v>786</v>
       </c>
       <c r="Y535" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'unzensuriert',</v>
       </c>
       <c r="AA535" s="8" t="s">
@@ -36448,7 +36465,7 @@
         <v>787</v>
       </c>
       <c r="Y536" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'GermanysHero',</v>
       </c>
       <c r="AA536" s="8" t="s">
@@ -36466,7 +36483,7 @@
         <v>788</v>
       </c>
       <c r="Y537" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'moinmoinsager',</v>
       </c>
       <c r="AA537" s="8" t="s">
@@ -36484,7 +36501,7 @@
         <v>789</v>
       </c>
       <c r="Y538" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Ernst1953Do',</v>
       </c>
       <c r="AA538" s="8" t="s">
@@ -36502,7 +36519,7 @@
         <v>790</v>
       </c>
       <c r="Y539" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Vilstal',</v>
       </c>
       <c r="AA539" s="8" t="s">
@@ -36520,7 +36537,7 @@
         <v>791</v>
       </c>
       <c r="Y540" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Mayday18568706',</v>
       </c>
       <c r="AA540" s="8" t="s">
@@ -36538,7 +36555,7 @@
         <v>792</v>
       </c>
       <c r="Y541" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Nichtkonformist',</v>
       </c>
       <c r="AA541" s="8" t="s">
@@ -36556,7 +36573,7 @@
         <v>793</v>
       </c>
       <c r="Y542" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'LangeHeiko',</v>
       </c>
       <c r="AA542" s="8" t="s">
@@ -36574,7 +36591,7 @@
         <v>794</v>
       </c>
       <c r="Y543" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'83Schildi',</v>
       </c>
       <c r="AA543" s="8" t="s">
@@ -36592,7 +36609,7 @@
         <v>795</v>
       </c>
       <c r="Y544" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Hotte1950',</v>
       </c>
       <c r="AA544" s="8" t="s">
@@ -36610,7 +36627,7 @@
         <v>796</v>
       </c>
       <c r="Y545" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'propagare',</v>
       </c>
       <c r="AA545" s="8" t="s">
@@ -36628,7 +36645,7 @@
         <v>797</v>
       </c>
       <c r="Y546" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Alt_Reichght',</v>
       </c>
       <c r="AA546" s="8" t="s">
@@ -36646,7 +36663,7 @@
         <v>799</v>
       </c>
       <c r="Y547" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'JBotanica',</v>
       </c>
       <c r="AA547" s="8" t="s">
@@ -36664,7 +36681,7 @@
         <v>801</v>
       </c>
       <c r="Y548" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'firstrodewitzer',</v>
       </c>
       <c r="AA548" s="8" t="s">
@@ -36682,7 +36699,7 @@
         <v>802</v>
       </c>
       <c r="Y549" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'peter_honig',</v>
       </c>
       <c r="AA549" s="8" t="s">
@@ -36700,7 +36717,7 @@
         <v>803</v>
       </c>
       <c r="Y550" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'derMylius',</v>
       </c>
       <c r="AA550" s="8" t="s">
@@ -36718,7 +36735,7 @@
         <v>804</v>
       </c>
       <c r="Y551" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'FForstmaier',</v>
       </c>
       <c r="AA551" s="8" t="s">
@@ -36736,7 +36753,7 @@
         <v>805</v>
       </c>
       <c r="Y552" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Peter_Nater',</v>
       </c>
       <c r="AA552" s="8" t="s">
@@ -36754,7 +36771,7 @@
         <v>807</v>
       </c>
       <c r="Y553" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Gothdad',</v>
       </c>
       <c r="AA553" s="8" t="s">
@@ -36772,7 +36789,7 @@
         <v>808</v>
       </c>
       <c r="Y554" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'GSiebeke',</v>
       </c>
       <c r="AA554" s="8" t="s">
@@ -36790,7 +36807,7 @@
         <v>809</v>
       </c>
       <c r="Y555" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'SimonNatal',</v>
       </c>
       <c r="AA555" s="8" t="s">
@@ -36808,7 +36825,7 @@
         <v>810</v>
       </c>
       <c r="Y556" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'nabucco56',</v>
       </c>
       <c r="AA556" s="8" t="s">
@@ -36826,7 +36843,7 @@
         <v>812</v>
       </c>
       <c r="Y557" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Pegasusfeder',</v>
       </c>
       <c r="AA557" s="8" t="s">
@@ -36844,7 +36861,7 @@
         <v>813</v>
       </c>
       <c r="Y558" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Bigreiner',</v>
       </c>
       <c r="AA558" s="8" t="s">
@@ -36862,7 +36879,7 @@
         <v>814</v>
       </c>
       <c r="Y559" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'altern_inform',</v>
       </c>
       <c r="AA559" s="8" t="s">
@@ -36880,7 +36897,7 @@
         <v>815</v>
       </c>
       <c r="Y560" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'ChelseaEF11',</v>
       </c>
       <c r="AA560" s="8" t="s">
@@ -36898,7 +36915,7 @@
         <v>816</v>
       </c>
       <c r="Y561" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Hausfrau4ever',</v>
       </c>
       <c r="AA561" s="8" t="s">
@@ -36916,7 +36933,7 @@
         <v>817</v>
       </c>
       <c r="Y562" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Libelle2000R',</v>
       </c>
       <c r="AA562" s="8" t="s">
@@ -36934,7 +36951,7 @@
         <v>818</v>
       </c>
       <c r="Y563" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'rstrohmi',</v>
       </c>
       <c r="AA563" s="8" t="s">
@@ -36952,7 +36969,7 @@
         <v>819</v>
       </c>
       <c r="Y564" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'traumdiebe',</v>
       </c>
       <c r="AA564" s="8" t="s">
@@ -36970,7 +36987,7 @@
         <v>821</v>
       </c>
       <c r="Y565" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'ha_zett',</v>
       </c>
       <c r="AA565" s="8" t="s">
@@ -36988,7 +37005,7 @@
         <v>822</v>
       </c>
       <c r="Y566" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'M_N_Herrmann',</v>
       </c>
       <c r="AA566" s="8" t="s">
@@ -37006,7 +37023,7 @@
         <v>823</v>
       </c>
       <c r="Y567" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'piratenpower999',</v>
       </c>
       <c r="AA567" s="8" t="s">
@@ -37024,7 +37041,7 @@
         <v>824</v>
       </c>
       <c r="Y568" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'PIONICeer',</v>
       </c>
       <c r="AA568" s="8" t="s">
@@ -37042,7 +37059,7 @@
         <v>825</v>
       </c>
       <c r="Y569" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'__a_f_w__',</v>
       </c>
       <c r="AA569" s="8" t="s">
@@ -37060,7 +37077,7 @@
         <v>826</v>
       </c>
       <c r="Y570" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'KurtKladder',</v>
       </c>
       <c r="AA570" s="8" t="s">
@@ -37078,7 +37095,7 @@
         <v>827</v>
       </c>
       <c r="Y571" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'IvicDarko',</v>
       </c>
       <c r="AA571" s="8" t="s">
@@ -37096,7 +37113,7 @@
         <v>828</v>
       </c>
       <c r="Y572" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'titanvacht',</v>
       </c>
       <c r="AA572" s="8" t="s">
@@ -37114,7 +37131,7 @@
         <v>829</v>
       </c>
       <c r="Y573" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'BeluboxDebria',</v>
       </c>
       <c r="AA573" s="8" t="s">
@@ -37132,7 +37149,7 @@
         <v>830</v>
       </c>
       <c r="Y574" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'jklhiu',</v>
       </c>
       <c r="AA574" s="8" t="s">
@@ -37150,7 +37167,7 @@
         <v>831</v>
       </c>
       <c r="Y575" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'Preiset_Kek',</v>
       </c>
       <c r="AA575" s="8" t="s">
@@ -37168,7 +37185,7 @@
         <v>833</v>
       </c>
       <c r="Y576" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>'mrstone0856',</v>
       </c>
       <c r="AA576" s="8" t="s">
@@ -37184,7 +37201,7 @@
         <v>834</v>
       </c>
       <c r="Y577" t="str">
-        <f t="shared" ref="Y577:Y640" si="13">"'"&amp;V577&amp;"',"</f>
+        <f t="shared" ref="Y577:Y640" si="14">"'"&amp;V577&amp;"',"</f>
         <v>'FOSSpatents',</v>
       </c>
       <c r="AA577" s="8" t="s">
@@ -37202,7 +37219,7 @@
         <v>835</v>
       </c>
       <c r="Y578" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'gunnar_richert',</v>
       </c>
       <c r="AA578" s="8" t="s">
@@ -37220,7 +37237,7 @@
         <v>836</v>
       </c>
       <c r="Y579" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FreierAnon',</v>
       </c>
       <c r="AA579" s="8" t="s">
@@ -37238,7 +37255,7 @@
         <v>837</v>
       </c>
       <c r="Y580" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Heinrich_Krug',</v>
       </c>
       <c r="AA580" s="8" t="s">
@@ -37256,7 +37273,7 @@
         <v>838</v>
       </c>
       <c r="Y581" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'choolie211',</v>
       </c>
       <c r="AA581" s="8" t="s">
@@ -37274,7 +37291,7 @@
         <v>840</v>
       </c>
       <c r="Y582" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Schuetze_Arsch',</v>
       </c>
       <c r="AA582" s="8" t="s">
@@ -37292,7 +37309,7 @@
         <v>841</v>
       </c>
       <c r="Y583" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'xandyfit',</v>
       </c>
       <c r="AA583" s="8" t="s">
@@ -37310,7 +37327,7 @@
         <v>842</v>
       </c>
       <c r="Y584" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'KirchedhH',</v>
       </c>
       <c r="AA584" s="8" t="s">
@@ -37328,7 +37345,7 @@
         <v>843</v>
       </c>
       <c r="Y585" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Almoehy',</v>
       </c>
       <c r="AA585" s="8" t="s">
@@ -37346,7 +37363,7 @@
         <v>844</v>
       </c>
       <c r="Y586" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'PreussischBlau9',</v>
       </c>
       <c r="AA586" s="8" t="s">
@@ -37364,7 +37381,7 @@
         <v>846</v>
       </c>
       <c r="Y587" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'clydevpg',</v>
       </c>
       <c r="AA587" s="8" t="s">
@@ -37382,7 +37399,7 @@
         <v>847</v>
       </c>
       <c r="Y588" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'C4PEC0D',</v>
       </c>
       <c r="AA588" s="8" t="s">
@@ -37400,7 +37417,7 @@
         <v>848</v>
       </c>
       <c r="Y589" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'WilhelmusJanus',</v>
       </c>
       <c r="AA589" s="8" t="s">
@@ -37418,7 +37435,7 @@
         <v>849</v>
       </c>
       <c r="Y590" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'danny23032000',</v>
       </c>
       <c r="AA590" s="8" t="s">
@@ -37436,7 +37453,7 @@
         <v>850</v>
       </c>
       <c r="Y591" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'pseudros',</v>
       </c>
       <c r="AA591" s="8" t="s">
@@ -37454,7 +37471,7 @@
         <v>851</v>
       </c>
       <c r="Y592" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'machtjanix23',</v>
       </c>
       <c r="AA592" s="8" t="s">
@@ -37472,7 +37489,7 @@
         <v>852</v>
       </c>
       <c r="Y593" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'neoM1913',</v>
       </c>
       <c r="AA593" s="8" t="s">
@@ -37490,7 +37507,7 @@
         <v>853</v>
       </c>
       <c r="Y594" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'_ichnicht',</v>
       </c>
       <c r="AA594" s="8" t="s">
@@ -37508,7 +37525,7 @@
         <v>854</v>
       </c>
       <c r="Y595" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'ichhabwut',</v>
       </c>
       <c r="AA595" s="8" t="s">
@@ -37526,7 +37543,7 @@
         <v>857</v>
       </c>
       <c r="Y596" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Rita_Sauser',</v>
       </c>
       <c r="AA596" s="8" t="s">
@@ -37544,7 +37561,7 @@
         <v>858</v>
       </c>
       <c r="Y597" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Obrigkeit1',</v>
       </c>
       <c r="AA597" s="8" t="s">
@@ -37562,7 +37579,7 @@
         <v>859</v>
       </c>
       <c r="Y598" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'EmiliaC32',</v>
       </c>
       <c r="AA598" s="8" t="s">
@@ -37580,7 +37597,7 @@
         <v>860</v>
       </c>
       <c r="Y599" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'zugeras',</v>
       </c>
       <c r="AA599" s="8" t="s">
@@ -37598,7 +37615,7 @@
         <v>862</v>
       </c>
       <c r="Y600" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'JA_Deutschland',</v>
       </c>
       <c r="AA600" s="8" t="s">
@@ -37616,7 +37633,7 @@
         <v>863</v>
       </c>
       <c r="Y601" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Hermann3004',</v>
       </c>
       <c r="AA601" s="8" t="s">
@@ -37634,7 +37651,7 @@
         <v>864</v>
       </c>
       <c r="Y602" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Dauerquerulant',</v>
       </c>
       <c r="AA602" s="8" t="s">
@@ -37652,7 +37669,7 @@
         <v>865</v>
       </c>
       <c r="Y603" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'VolksWahrsager',</v>
       </c>
       <c r="AA603" s="8" t="s">
@@ -37670,7 +37687,7 @@
         <v>866</v>
       </c>
       <c r="Y604" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'stevvid',</v>
       </c>
       <c r="AA604" s="8" t="s">
@@ -37688,7 +37705,7 @@
         <v>867</v>
       </c>
       <c r="Y605" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FHO_Sierra6Lima',</v>
       </c>
       <c r="AA605" s="8" t="s">
@@ -37706,7 +37723,7 @@
         <v>868</v>
       </c>
       <c r="Y606" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Arrtrad',</v>
       </c>
       <c r="AA606" s="8" t="s">
@@ -37724,7 +37741,7 @@
         <v>869</v>
       </c>
       <c r="Y607" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'KerstinMilller',</v>
       </c>
       <c r="AA607" s="8" t="s">
@@ -37742,7 +37759,7 @@
         <v>871</v>
       </c>
       <c r="Y608" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'WeCon14',</v>
       </c>
       <c r="AA608" s="8" t="s">
@@ -37760,7 +37777,7 @@
         <v>872</v>
       </c>
       <c r="Y609" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FwOberhausen',</v>
       </c>
       <c r="AA609" s="8" t="s">
@@ -37778,7 +37795,7 @@
         <v>873</v>
       </c>
       <c r="Y610" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'ohboulderer',</v>
       </c>
       <c r="AA610" s="8" t="s">
@@ -37796,7 +37813,7 @@
         <v>874</v>
       </c>
       <c r="Y611" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'gagaberlin',</v>
       </c>
       <c r="AA611" s="8" t="s">
@@ -37814,7 +37831,7 @@
         <v>875</v>
       </c>
       <c r="Y612" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Lukas64F',</v>
       </c>
       <c r="AA612" s="8" t="s">
@@ -37832,7 +37849,7 @@
         <v>877</v>
       </c>
       <c r="Y613" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'rigo_troy',</v>
       </c>
       <c r="AA613" s="8" t="s">
@@ -37850,7 +37867,7 @@
         <v>878</v>
       </c>
       <c r="Y614" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'TravelBonn',</v>
       </c>
       <c r="AA614" s="8" t="s">
@@ -37868,7 +37885,7 @@
         <v>879</v>
       </c>
       <c r="Y615" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Filarete14',</v>
       </c>
       <c r="AA615" s="8" t="s">
@@ -37886,7 +37903,7 @@
         <v>880</v>
       </c>
       <c r="Y616" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Medienluegen',</v>
       </c>
       <c r="AA616" s="8" t="s">
@@ -37904,7 +37921,7 @@
         <v>881</v>
       </c>
       <c r="Y617" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'T0MLightyear',</v>
       </c>
       <c r="AA617" s="8" t="s">
@@ -37922,7 +37939,7 @@
         <v>882</v>
       </c>
       <c r="Y618" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Asylnachrichten',</v>
       </c>
       <c r="AA618" s="8" t="s">
@@ -37940,7 +37957,7 @@
         <v>885</v>
       </c>
       <c r="Y619" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Rotpille',</v>
       </c>
       <c r="AA619" s="8" t="s">
@@ -37958,7 +37975,7 @@
         <v>886</v>
       </c>
       <c r="Y620" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Politkritiker',</v>
       </c>
       <c r="AA620" s="8" t="s">
@@ -37976,7 +37993,7 @@
         <v>887</v>
       </c>
       <c r="Y621" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'SprechenUnsNoch',</v>
       </c>
       <c r="AA621" s="8" t="s">
@@ -37994,7 +38011,7 @@
         <v>888</v>
       </c>
       <c r="Y622" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'KrabatKabat',</v>
       </c>
       <c r="AA622" s="8" t="s">
@@ -38012,7 +38029,7 @@
         <v>889</v>
       </c>
       <c r="Y623" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'kwogerman7',</v>
       </c>
       <c r="AA623" s="8" t="s">
@@ -38030,7 +38047,7 @@
         <v>890</v>
       </c>
       <c r="Y624" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Zeruyu',</v>
       </c>
       <c r="AA624" s="8" t="s">
@@ -38048,7 +38065,7 @@
         <v>891</v>
       </c>
       <c r="Y625" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'zentrumspartei',</v>
       </c>
       <c r="AA625" s="8" t="s">
@@ -38066,7 +38083,7 @@
         <v>893</v>
       </c>
       <c r="Y626" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'67muellerPeter',</v>
       </c>
       <c r="AA626" s="8" t="s">
@@ -38084,7 +38101,7 @@
         <v>894</v>
       </c>
       <c r="Y627" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Aletheia156',</v>
       </c>
       <c r="AA627" s="8" t="s">
@@ -38102,7 +38119,7 @@
         <v>895</v>
       </c>
       <c r="Y628" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Pro_PEGIDA_',</v>
       </c>
       <c r="AA628" s="8" t="s">
@@ -38120,7 +38137,7 @@
         <v>896</v>
       </c>
       <c r="Y629" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Jan_Deichmohle',</v>
       </c>
       <c r="AA629" s="8" t="s">
@@ -38138,7 +38155,7 @@
         <v>897</v>
       </c>
       <c r="Y630" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'LibertasKleinod',</v>
       </c>
       <c r="AA630" s="8" t="s">
@@ -38156,7 +38173,7 @@
         <v>898</v>
       </c>
       <c r="Y631" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FactualLiberal',</v>
       </c>
       <c r="AA631" s="8" t="s">
@@ -38174,7 +38191,7 @@
         <v>899</v>
       </c>
       <c r="Y632" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'offbeat24',</v>
       </c>
       <c r="AA632" s="8" t="s">
@@ -38192,7 +38209,7 @@
         <v>900</v>
       </c>
       <c r="Y633" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'PhilPerlmutter',</v>
       </c>
       <c r="AA633" s="8" t="s">
@@ -38210,7 +38227,7 @@
         <v>901</v>
       </c>
       <c r="Y634" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'GoettscheChr',</v>
       </c>
       <c r="AA634" s="8" t="s">
@@ -38228,7 +38245,7 @@
         <v>902</v>
       </c>
       <c r="Y635" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'4Sonicc',</v>
       </c>
       <c r="AA635" s="8" t="s">
@@ -38246,7 +38263,7 @@
         <v>903</v>
       </c>
       <c r="Y636" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'FroehlichKaiT',</v>
       </c>
       <c r="AA636" s="8" t="s">
@@ -38264,7 +38281,7 @@
         <v>904</v>
       </c>
       <c r="Y637" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'Walter29340877',</v>
       </c>
       <c r="AA637" s="8" t="s">
@@ -38282,7 +38299,7 @@
         <v>905</v>
       </c>
       <c r="Y638" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'norbert55968075',</v>
       </c>
       <c r="AA638" s="8" t="s">
@@ -38300,7 +38317,7 @@
         <v>906</v>
       </c>
       <c r="Y639" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'BuergerLey',</v>
       </c>
       <c r="AA639" s="8" t="s">
@@ -38318,7 +38335,7 @@
         <v>907</v>
       </c>
       <c r="Y640" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'JotDora',</v>
       </c>
       <c r="AA640" s="8" t="s">
@@ -38336,7 +38353,7 @@
         <v>910</v>
       </c>
       <c r="Y641" t="str">
-        <f t="shared" ref="Y641:Y704" si="14">"'"&amp;V641&amp;"',"</f>
+        <f t="shared" ref="Y641:Y704" si="15">"'"&amp;V641&amp;"',"</f>
         <v>'OriginalRadi',</v>
       </c>
       <c r="AA641" s="8" t="s">
@@ -38354,7 +38371,7 @@
         <v>911</v>
       </c>
       <c r="Y642" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'RubenSpruck',</v>
       </c>
       <c r="AA642" s="8" t="s">
@@ -38372,7 +38389,7 @@
         <v>914</v>
       </c>
       <c r="Y643" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Frieda_Tweety',</v>
       </c>
       <c r="AA643" s="8" t="s">
@@ -38390,7 +38407,7 @@
         <v>915</v>
       </c>
       <c r="Y644" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'FrDnkr',</v>
       </c>
       <c r="AA644" s="8" t="s">
@@ -38408,7 +38425,7 @@
         <v>916</v>
       </c>
       <c r="Y645" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'PaulePhanter',</v>
       </c>
       <c r="AA645" s="8" t="s">
@@ -38426,7 +38443,7 @@
         <v>917</v>
       </c>
       <c r="Y646" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'SchreibedenText',</v>
       </c>
       <c r="AA646" s="8" t="s">
@@ -38444,7 +38461,7 @@
         <v>918</v>
       </c>
       <c r="Y647" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Korifej1',</v>
       </c>
       <c r="AA647" s="8" t="s">
@@ -38462,7 +38479,7 @@
         <v>919</v>
       </c>
       <c r="Y648" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'NiemieckaPolity',</v>
       </c>
       <c r="AA648" s="8" t="s">
@@ -38480,7 +38497,7 @@
         <v>923</v>
       </c>
       <c r="Y649" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'agent_anny007',</v>
       </c>
       <c r="AA649" s="8" t="s">
@@ -38498,7 +38515,7 @@
         <v>924</v>
       </c>
       <c r="Y650" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'LenaSakuraBlume',</v>
       </c>
       <c r="AA650" s="8" t="s">
@@ -38516,7 +38533,7 @@
         <v>926</v>
       </c>
       <c r="Y651" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'godsoflazy',</v>
       </c>
       <c r="AA651" s="8" t="s">
@@ -38534,7 +38551,7 @@
         <v>927</v>
       </c>
       <c r="Y652" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'recon_quista',</v>
       </c>
       <c r="AA652" s="8" t="s">
@@ -38552,7 +38569,7 @@
         <v>928</v>
       </c>
       <c r="Y653" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'AncapDude',</v>
       </c>
       <c r="AA653" s="8" t="s">
@@ -38570,7 +38587,7 @@
         <v>929</v>
       </c>
       <c r="Y654" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Da_Digge',</v>
       </c>
       <c r="AA654" s="8" t="s">
@@ -38588,7 +38605,7 @@
         <v>930</v>
       </c>
       <c r="Y655" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Margit11',</v>
       </c>
       <c r="AA655" s="8" t="s">
@@ -38606,7 +38623,7 @@
         <v>931</v>
       </c>
       <c r="Y656" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'andreas77761',</v>
       </c>
       <c r="AA656" s="8" t="s">
@@ -38624,7 +38641,7 @@
         <v>932</v>
       </c>
       <c r="Y657" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'SireenAnimaSola',</v>
       </c>
       <c r="AA657" s="8" t="s">
@@ -38642,7 +38659,7 @@
         <v>933</v>
       </c>
       <c r="Y658" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'dabbelu',</v>
       </c>
       <c r="AA658" s="8" t="s">
@@ -38660,7 +38677,7 @@
         <v>934</v>
       </c>
       <c r="Y659" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'medec_29',</v>
       </c>
       <c r="AA659" s="8" t="s">
@@ -38678,7 +38695,7 @@
         <v>935</v>
       </c>
       <c r="Y660" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Mister_Ka',</v>
       </c>
       <c r="AA660" s="8" t="s">
@@ -38696,7 +38713,7 @@
         <v>936</v>
       </c>
       <c r="Y661" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'FarSight3',</v>
       </c>
       <c r="AA661" s="8" t="s">
@@ -38714,7 +38731,7 @@
         <v>937</v>
       </c>
       <c r="Y662" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'_macmike',</v>
       </c>
       <c r="AA662" s="8" t="s">
@@ -38732,7 +38749,7 @@
         <v>938</v>
       </c>
       <c r="Y663" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'MarkusFieber',</v>
       </c>
       <c r="AA663" s="8" t="s">
@@ -38750,7 +38767,7 @@
         <v>939</v>
       </c>
       <c r="Y664" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'VictoriaFerna71',</v>
       </c>
       <c r="AA664" s="8" t="s">
@@ -38768,7 +38785,7 @@
         <v>941</v>
       </c>
       <c r="Y665" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Funny1963',</v>
       </c>
       <c r="AA665" s="8" t="s">
@@ -38786,7 +38803,7 @@
         <v>943</v>
       </c>
       <c r="Y666" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'ChicSancho',</v>
       </c>
       <c r="AA666" s="8" t="s">
@@ -38804,7 +38821,7 @@
         <v>945</v>
       </c>
       <c r="Y667" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'baerchi08',</v>
       </c>
       <c r="AA667" s="8" t="s">
@@ -38822,7 +38839,7 @@
         <v>946</v>
       </c>
       <c r="Y668" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'ha_schwa',</v>
       </c>
       <c r="AA668" s="8" t="s">
@@ -38840,7 +38857,7 @@
         <v>947</v>
       </c>
       <c r="Y669" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'AlexBfromG',</v>
       </c>
       <c r="AA669" s="8" t="s">
@@ -38858,7 +38875,7 @@
         <v>948</v>
       </c>
       <c r="Y670" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Andreas62582094',</v>
       </c>
       <c r="AA670" s="8" t="s">
@@ -38876,7 +38893,7 @@
         <v>949</v>
       </c>
       <c r="Y671" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'CapYossarian',</v>
       </c>
       <c r="AA671" s="8" t="s">
@@ -38894,7 +38911,7 @@
         <v>950</v>
       </c>
       <c r="Y672" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'carlclausewitz1',</v>
       </c>
       <c r="AA672" s="8" t="s">
@@ -38912,7 +38929,7 @@
         <v>951</v>
       </c>
       <c r="Y673" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'igor_brain',</v>
       </c>
       <c r="AA673" s="8" t="s">
@@ -38930,7 +38947,7 @@
         <v>952</v>
       </c>
       <c r="Y674" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Marcel02935041',</v>
       </c>
       <c r="AA674" s="8" t="s">
@@ -38948,7 +38965,7 @@
         <v>954</v>
       </c>
       <c r="Y675" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'bienchen6969',</v>
       </c>
       <c r="AA675" s="8" t="s">
@@ -38966,7 +38983,7 @@
         <v>956</v>
       </c>
       <c r="Y676" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'unblogd',</v>
       </c>
       <c r="AA676" s="8" t="s">
@@ -38984,7 +39001,7 @@
         <v>958</v>
       </c>
       <c r="Y677" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'PolitikWelt',</v>
       </c>
       <c r="AA677" s="8" t="s">
@@ -39002,7 +39019,7 @@
         <v>959</v>
       </c>
       <c r="Y678" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'JA_Bremen',</v>
       </c>
       <c r="AA678" s="8" t="s">
@@ -39020,7 +39037,7 @@
         <v>963</v>
       </c>
       <c r="Y679" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'aotto1968_2',</v>
       </c>
       <c r="AA679" s="8" t="s">
@@ -39038,7 +39055,7 @@
         <v>964</v>
       </c>
       <c r="Y680" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'earlybird2010',</v>
       </c>
       <c r="AA680" s="8" t="s">
@@ -39056,7 +39073,7 @@
         <v>965</v>
       </c>
       <c r="Y681" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'10DMark',</v>
       </c>
       <c r="AA681" s="8" t="s">
@@ -39074,7 +39091,7 @@
         <v>966</v>
       </c>
       <c r="Y682" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'kochbar1',</v>
       </c>
       <c r="AA682" s="8" t="s">
@@ -39092,7 +39109,7 @@
         <v>967</v>
       </c>
       <c r="Y683" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'willnurschreibn',</v>
       </c>
       <c r="AA683" s="8" t="s">
@@ -39110,7 +39127,7 @@
         <v>968</v>
       </c>
       <c r="Y684" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'FreiheitHofer',</v>
       </c>
       <c r="AA684" s="8" t="s">
@@ -39128,7 +39145,7 @@
         <v>972</v>
       </c>
       <c r="Y685" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'charliealpha5',</v>
       </c>
       <c r="AA685" s="8" t="s">
@@ -39146,7 +39163,7 @@
         <v>973</v>
       </c>
       <c r="Y686" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'_MASKULIST',</v>
       </c>
       <c r="AA686" s="8" t="s">
@@ -39164,7 +39181,7 @@
         <v>974</v>
       </c>
       <c r="Y687" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Kontrastfarbe',</v>
       </c>
       <c r="AA687" s="8" t="s">
@@ -39182,7 +39199,7 @@
         <v>975</v>
       </c>
       <c r="Y688" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'quovadisschland',</v>
       </c>
       <c r="AA688" s="8" t="s">
@@ -39200,7 +39217,7 @@
         <v>976</v>
       </c>
       <c r="Y689" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'sohnes1',</v>
       </c>
       <c r="AA689" s="8" t="s">
@@ -39218,7 +39235,7 @@
         <v>977</v>
       </c>
       <c r="Y690" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Millerntor1',</v>
       </c>
       <c r="AA690" s="8" t="s">
@@ -39236,7 +39253,7 @@
         <v>978</v>
       </c>
       <c r="Y691" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'stefananderl',</v>
       </c>
       <c r="AA691" s="8" t="s">
@@ -39254,7 +39271,7 @@
         <v>979</v>
       </c>
       <c r="Y692" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'salzmanufaktur',</v>
       </c>
       <c r="AA692" s="8" t="s">
@@ -39272,7 +39289,7 @@
         <v>981</v>
       </c>
       <c r="Y693" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Islamkritik_',</v>
       </c>
       <c r="AA693" s="8" t="s">
@@ -39290,7 +39307,7 @@
         <v>983</v>
       </c>
       <c r="Y694" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'frankdrebin247',</v>
       </c>
       <c r="AA694" s="8" t="s">
@@ -39308,7 +39325,7 @@
         <v>985</v>
       </c>
       <c r="Y695" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Haie_Westhus',</v>
       </c>
       <c r="AA695" s="8" t="s">
@@ -39326,7 +39343,7 @@
         <v>987</v>
       </c>
       <c r="Y696" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'einAnalytiker',</v>
       </c>
       <c r="AA696" s="8" t="s">
@@ -39344,7 +39361,7 @@
         <v>988</v>
       </c>
       <c r="Y697" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Elke50870671',</v>
       </c>
       <c r="AA697" s="8" t="s">
@@ -39362,7 +39379,7 @@
         <v>989</v>
       </c>
       <c r="Y698" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Harald70199',</v>
       </c>
       <c r="AA698" s="8" t="s">
@@ -39380,7 +39397,7 @@
         <v>990</v>
       </c>
       <c r="Y699" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'sasbrau',</v>
       </c>
       <c r="AA699" s="8" t="s">
@@ -39398,7 +39415,7 @@
         <v>991</v>
       </c>
       <c r="Y700" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'__himmel___',</v>
       </c>
       <c r="AA700" s="8" t="s">
@@ -39416,7 +39433,7 @@
         <v>993</v>
       </c>
       <c r="Y701" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'beamller1',</v>
       </c>
       <c r="AA701" s="8" t="s">
@@ -39434,7 +39451,7 @@
         <v>994</v>
       </c>
       <c r="Y702" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'Eddie_1412',</v>
       </c>
       <c r="AA702" s="8" t="s">
@@ -39452,7 +39469,7 @@
         <v>995</v>
       </c>
       <c r="Y703" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'oberguru55',</v>
       </c>
       <c r="AA703" s="8" t="s">
@@ -39470,7 +39487,7 @@
         <v>996</v>
       </c>
       <c r="Y704" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'_Denk__Mal_',</v>
       </c>
       <c r="AA704" s="8" t="s">
@@ -39488,7 +39505,7 @@
         <v>997</v>
       </c>
       <c r="Y705" t="str">
-        <f t="shared" ref="Y705:Y768" si="15">"'"&amp;V705&amp;"',"</f>
+        <f t="shared" ref="Y705:Y768" si="16">"'"&amp;V705&amp;"',"</f>
         <v>'Gomander2',</v>
       </c>
       <c r="AA705" s="8" t="s">
@@ -39506,7 +39523,7 @@
         <v>998</v>
       </c>
       <c r="Y706" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'paul_kleiber',</v>
       </c>
       <c r="AA706" s="8" t="s">
@@ -39524,7 +39541,7 @@
         <v>999</v>
       </c>
       <c r="Y707" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Catweazle123',</v>
       </c>
       <c r="AA707" s="8" t="s">
@@ -39542,7 +39559,7 @@
         <v>1001</v>
       </c>
       <c r="Y708" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'strangelove666',</v>
       </c>
       <c r="AA708" s="8" t="s">
@@ -39560,7 +39577,7 @@
         <v>1002</v>
       </c>
       <c r="Y709" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Alfiher',</v>
       </c>
       <c r="AA709" s="8" t="s">
@@ -39578,7 +39595,7 @@
         <v>1003</v>
       </c>
       <c r="Y710" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Gerechtigkeit01',</v>
       </c>
       <c r="AA710" s="8" t="s">
@@ -39596,7 +39613,7 @@
         <v>1004</v>
       </c>
       <c r="Y711" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'PunishersKill',</v>
       </c>
       <c r="AA711" s="8" t="s">
@@ -39614,7 +39631,7 @@
         <v>1005</v>
       </c>
       <c r="Y712" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'HaraldPetermann',</v>
       </c>
       <c r="AA712" s="8" t="s">
@@ -39632,7 +39649,7 @@
         <v>1006</v>
       </c>
       <c r="Y713" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'m4nuPRT',</v>
       </c>
       <c r="AA713" s="8" t="s">
@@ -39650,7 +39667,7 @@
         <v>1007</v>
       </c>
       <c r="Y714" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'JoergRMayer',</v>
       </c>
       <c r="AA714" s="8" t="s">
@@ -39668,7 +39685,7 @@
         <v>1008</v>
       </c>
       <c r="Y715" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'fritzmichel',</v>
       </c>
       <c r="AA715" s="8" t="s">
@@ -39686,7 +39703,7 @@
         <v>1010</v>
       </c>
       <c r="Y716" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Scotchi77',</v>
       </c>
       <c r="AA716" s="8" t="s">
@@ -39704,7 +39721,7 @@
         <v>1012</v>
       </c>
       <c r="Y717" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'NostraTuring',</v>
       </c>
       <c r="AA717" s="8" t="s">
@@ -39722,7 +39739,7 @@
         <v>1013</v>
       </c>
       <c r="Y718" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'reissmann',</v>
       </c>
       <c r="AA718" s="8" t="s">
@@ -39740,7 +39757,7 @@
         <v>1014</v>
       </c>
       <c r="Y719" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'kardasiapat',</v>
       </c>
       <c r="AA719" s="8" t="s">
@@ -39758,7 +39775,7 @@
         <v>1015</v>
       </c>
       <c r="Y720" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'BenFuror',</v>
       </c>
       <c r="AA720" s="8" t="s">
@@ -39776,7 +39793,7 @@
         <v>1016</v>
       </c>
       <c r="Y721" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1Feedom',</v>
       </c>
       <c r="AA721" s="8" t="s">
@@ -39794,7 +39811,7 @@
         <v>1017</v>
       </c>
       <c r="Y722" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Freiwilligfrei',</v>
       </c>
       <c r="AA722" s="8" t="s">
@@ -39812,7 +39829,7 @@
         <v>1019</v>
       </c>
       <c r="Y723" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'tino_taffanek',</v>
       </c>
       <c r="AA723" s="8" t="s">
@@ -39830,7 +39847,7 @@
         <v>1021</v>
       </c>
       <c r="Y724" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'mariae_gloria',</v>
       </c>
       <c r="AA724" s="8" t="s">
@@ -39848,7 +39865,7 @@
         <v>1022</v>
       </c>
       <c r="Y725" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Deutschland77',</v>
       </c>
       <c r="AA725" s="8" t="s">
@@ -39866,7 +39883,7 @@
         <v>1023</v>
       </c>
       <c r="Y726" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Anonym2019',</v>
       </c>
       <c r="AA726" s="8" t="s">
@@ -39884,7 +39901,7 @@
         <v>1024</v>
       </c>
       <c r="Y727" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'dampfhanss',</v>
       </c>
       <c r="AA727" s="8" t="s">
@@ -39902,7 +39919,7 @@
         <v>1025</v>
       </c>
       <c r="Y728" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'ZipPi_lalala',</v>
       </c>
       <c r="AA728" s="8" t="s">
@@ -39920,7 +39937,7 @@
         <v>1026</v>
       </c>
       <c r="Y729" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Kiss_me_Kiara',</v>
       </c>
       <c r="AA729" s="8" t="s">
@@ -39938,7 +39955,7 @@
         <v>1027</v>
       </c>
       <c r="Y730" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'DerVaterlaender',</v>
       </c>
       <c r="AA730" s="8" t="s">
@@ -39956,7 +39973,7 @@
         <v>1029</v>
       </c>
       <c r="Y731" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'KatinkaTheis',</v>
       </c>
       <c r="AA731" s="8" t="s">
@@ -39974,7 +39991,7 @@
         <v>1030</v>
       </c>
       <c r="Y732" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Netztagebuch',</v>
       </c>
       <c r="AA732" s="8" t="s">
@@ -39992,7 +40009,7 @@
         <v>1034</v>
       </c>
       <c r="Y733" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'fladdermues',</v>
       </c>
       <c r="AA733" s="8" t="s">
@@ -40010,7 +40027,7 @@
         <v>1035</v>
       </c>
       <c r="Y734" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Guggulu',</v>
       </c>
       <c r="AA734" s="8" t="s">
@@ -40028,7 +40045,7 @@
         <v>1036</v>
       </c>
       <c r="Y735" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'mathematikos',</v>
       </c>
       <c r="AA735" s="8" t="s">
@@ -40046,7 +40063,7 @@
         <v>1037</v>
       </c>
       <c r="Y736" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'bestbettercheck',</v>
       </c>
       <c r="AA736" s="8" t="s">
@@ -40064,7 +40081,7 @@
         <v>1038</v>
       </c>
       <c r="Y737" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'DudeTheAbide',</v>
       </c>
       <c r="AA737" s="8" t="s">
@@ -40082,7 +40099,7 @@
         <v>1040</v>
       </c>
       <c r="Y738" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'C001D00D',</v>
       </c>
       <c r="AA738" s="8" t="s">
@@ -40100,7 +40117,7 @@
         <v>1041</v>
       </c>
       <c r="Y739" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'AfD_Muenster',</v>
       </c>
       <c r="AA739" s="8" t="s">
@@ -40118,7 +40135,7 @@
         <v>1042</v>
       </c>
       <c r="Y740" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'uwebecher',</v>
       </c>
       <c r="AA740" s="8" t="s">
@@ -40136,7 +40153,7 @@
         <v>1043</v>
       </c>
       <c r="Y741" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'thomaslauer10',</v>
       </c>
       <c r="AA741" s="8" t="s">
@@ -40154,7 +40171,7 @@
         <v>1044</v>
       </c>
       <c r="Y742" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'DJUHMHA',</v>
       </c>
       <c r="AA742" s="8" t="s">
@@ -40172,7 +40189,7 @@
         <v>1045</v>
       </c>
       <c r="Y743" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Juergen_Fritz',</v>
       </c>
       <c r="AA743" s="8" t="s">
@@ -40190,7 +40207,7 @@
         <v>1046</v>
       </c>
       <c r="Y744" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'andixy9',</v>
       </c>
       <c r="AA744" s="8" t="s">
@@ -40208,7 +40225,7 @@
         <v>1047</v>
       </c>
       <c r="Y745" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Caro22one',</v>
       </c>
       <c r="AA745" s="8" t="s">
@@ -40226,7 +40243,7 @@
         <v>1048</v>
       </c>
       <c r="Y746" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'exactlyobserved',</v>
       </c>
       <c r="AA746" s="8" t="s">
@@ -40244,7 +40261,7 @@
         <v>1049</v>
       </c>
       <c r="Y747" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Hrafnel',</v>
       </c>
       <c r="AA747" s="8" t="s">
@@ -40262,7 +40279,7 @@
         <v>1050</v>
       </c>
       <c r="Y748" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'dkdenz',</v>
       </c>
       <c r="AA748" s="8" t="s">
@@ -40280,7 +40297,7 @@
         <v>1051</v>
       </c>
       <c r="Y749" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'tomkoehler252',</v>
       </c>
       <c r="AA749" s="8" t="s">
@@ -40298,7 +40315,7 @@
         <v>1052</v>
       </c>
       <c r="Y750" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'ManfredHeer',</v>
       </c>
       <c r="AA750" s="8" t="s">
@@ -40316,7 +40333,7 @@
         <v>1054</v>
       </c>
       <c r="Y751" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'roger896',</v>
       </c>
       <c r="AA751" s="8" t="s">
@@ -40334,7 +40351,7 @@
         <v>1055</v>
       </c>
       <c r="Y752" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'RHamelth',</v>
       </c>
       <c r="AA752" s="8" t="s">
@@ -40352,7 +40369,7 @@
         <v>1057</v>
       </c>
       <c r="Y753" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'BalsigerAlex',</v>
       </c>
       <c r="AA753" s="8" t="s">
@@ -40370,7 +40387,7 @@
         <v>1058</v>
       </c>
       <c r="Y754" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'dortmundsrechte',</v>
       </c>
       <c r="AA754" s="8" t="s">
@@ -40388,7 +40405,7 @@
         <v>1059</v>
       </c>
       <c r="Y755" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'chungun88',</v>
       </c>
       <c r="AA755" s="8" t="s">
@@ -40406,7 +40423,7 @@
         <v>1061</v>
       </c>
       <c r="Y756" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'GreenDevil78',</v>
       </c>
       <c r="AA756" s="8" t="s">
@@ -40424,7 +40441,7 @@
         <v>1062</v>
       </c>
       <c r="Y757" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'DeutscherMiche5',</v>
       </c>
       <c r="AA757" s="8" t="s">
@@ -40442,7 +40459,7 @@
         <v>1063</v>
       </c>
       <c r="Y758" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'stopR2G',</v>
       </c>
       <c r="AA758" s="8" t="s">
@@ -40460,7 +40477,7 @@
         <v>1064</v>
       </c>
       <c r="Y759" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'unbequemes',</v>
       </c>
       <c r="AA759" s="8" t="s">
@@ -40478,7 +40495,7 @@
         <v>1065</v>
       </c>
       <c r="Y760" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'headdowner',</v>
       </c>
       <c r="AA760" s="8" t="s">
@@ -40496,7 +40513,7 @@
         <v>1066</v>
       </c>
       <c r="Y761" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Artikel_20_GG',</v>
       </c>
       <c r="AA761" s="8" t="s">
@@ -40514,7 +40531,7 @@
         <v>1068</v>
       </c>
       <c r="Y762" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'KritischerTroll',</v>
       </c>
       <c r="AA762" s="8" t="s">
@@ -40532,7 +40549,7 @@
         <v>1069</v>
       </c>
       <c r="Y763" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Huggy54MG',</v>
       </c>
       <c r="AA763" s="8" t="s">
@@ -40550,7 +40567,7 @@
         <v>1070</v>
       </c>
       <c r="Y764" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'PapillonvA1010',</v>
       </c>
       <c r="AA764" s="8" t="s">
@@ -40568,7 +40585,7 @@
         <v>1071</v>
       </c>
       <c r="Y765" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'Saerdnaya',</v>
       </c>
       <c r="AA765" s="8" t="s">
@@ -40586,7 +40603,7 @@
         <v>1072</v>
       </c>
       <c r="Y766" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'2103markus',</v>
       </c>
       <c r="AA766" s="8" t="s">
@@ -40602,7 +40619,7 @@
         <v>1073</v>
       </c>
       <c r="Y767" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'bvbfollower',</v>
       </c>
       <c r="AA767" s="8" t="s">
@@ -40620,7 +40637,7 @@
         <v>1074</v>
       </c>
       <c r="Y768" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'WIR_UNS',</v>
       </c>
       <c r="AA768" s="8" t="s">
@@ -40638,7 +40655,7 @@
         <v>1075</v>
       </c>
       <c r="Y769" t="str">
-        <f t="shared" ref="Y769:Y832" si="16">"'"&amp;V769&amp;"',"</f>
+        <f t="shared" ref="Y769:Y832" si="17">"'"&amp;V769&amp;"',"</f>
         <v>'myaccount47',</v>
       </c>
       <c r="AA769" s="8" t="s">
@@ -40656,7 +40673,7 @@
         <v>1078</v>
       </c>
       <c r="Y770" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'LangeNase',</v>
       </c>
       <c r="AA770" s="8" t="s">
@@ -40674,7 +40691,7 @@
         <v>1079</v>
       </c>
       <c r="Y771" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'jakrevedko',</v>
       </c>
       <c r="AA771" s="8" t="s">
@@ -40692,7 +40709,7 @@
         <v>1080</v>
       </c>
       <c r="Y772" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'GuidoDietel',</v>
       </c>
       <c r="AA772" s="8" t="s">
@@ -40710,7 +40727,7 @@
         <v>1083</v>
       </c>
       <c r="Y773" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'gezeitengang',</v>
       </c>
       <c r="AA773" s="8" t="s">
@@ -40728,7 +40745,7 @@
         <v>1084</v>
       </c>
       <c r="Y774" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'MrScopolamin',</v>
       </c>
       <c r="AA774" s="8" t="s">
@@ -40746,7 +40763,7 @@
         <v>1085</v>
       </c>
       <c r="Y775" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'AliceSchmarotze',</v>
       </c>
       <c r="AA775" s="8" t="s">
@@ -40764,7 +40781,7 @@
         <v>1086</v>
       </c>
       <c r="Y776" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'pleitier',</v>
       </c>
       <c r="AA776" s="8" t="s">
@@ -40782,7 +40799,7 @@
         <v>1087</v>
       </c>
       <c r="Y777" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'WernerKulikow',</v>
       </c>
       <c r="AA777" s="8" t="s">
@@ -40800,7 +40817,7 @@
         <v>1088</v>
       </c>
       <c r="Y778" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'handschi2',</v>
       </c>
       <c r="AA778" s="8" t="s">
@@ -40818,7 +40835,7 @@
         <v>1089</v>
       </c>
       <c r="Y779" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'OnTo2000',</v>
       </c>
       <c r="AA779" s="8" t="s">
@@ -40836,7 +40853,7 @@
         <v>1090</v>
       </c>
       <c r="Y780" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Ch_Bartling',</v>
       </c>
       <c r="AA780" s="8" t="s">
@@ -40854,7 +40871,7 @@
         <v>1093</v>
       </c>
       <c r="Y781" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Oidabazi',</v>
       </c>
       <c r="AA781" s="8" t="s">
@@ -40872,7 +40889,7 @@
         <v>1095</v>
       </c>
       <c r="Y782" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Volkskorrespdt',</v>
       </c>
       <c r="AA782" s="8" t="s">
@@ -40890,7 +40907,7 @@
         <v>1096</v>
       </c>
       <c r="Y783" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'tabanakelwanze',</v>
       </c>
       <c r="AA783" s="8" t="s">
@@ -40908,7 +40925,7 @@
         <v>1097</v>
       </c>
       <c r="Y784" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'ExZimbi',</v>
       </c>
       <c r="AA784" s="8" t="s">
@@ -40926,7 +40943,7 @@
         <v>1098</v>
       </c>
       <c r="Y785" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'HartwigKnoops',</v>
       </c>
       <c r="AA785" s="8" t="s">
@@ -40944,7 +40961,7 @@
         <v>1099</v>
       </c>
       <c r="Y786" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'MillaKeenan',</v>
       </c>
       <c r="AA786" s="8" t="s">
@@ -40962,7 +40979,7 @@
         <v>1100</v>
       </c>
       <c r="Y787" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'sara_dewe',</v>
       </c>
       <c r="AA787" s="8" t="s">
@@ -40980,7 +40997,7 @@
         <v>1101</v>
       </c>
       <c r="Y788" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Afd_OSN',</v>
       </c>
       <c r="AA788" s="8" t="s">
@@ -40998,7 +41015,7 @@
         <v>1102</v>
       </c>
       <c r="Y789" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'w203go',</v>
       </c>
       <c r="AA789" s="8" t="s">
@@ -41016,7 +41033,7 @@
         <v>1103</v>
       </c>
       <c r="Y790" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'twitt_Alfred',</v>
       </c>
       <c r="AA790" s="8" t="s">
@@ -41034,7 +41051,7 @@
         <v>1104</v>
       </c>
       <c r="Y791" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'p_fraup_',</v>
       </c>
       <c r="AA791" s="8" t="s">
@@ -41052,7 +41069,7 @@
         <v>1105</v>
       </c>
       <c r="Y792" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'padmodi',</v>
       </c>
       <c r="AA792" s="8" t="s">
@@ -41070,7 +41087,7 @@
         <v>1106</v>
       </c>
       <c r="Y793" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'KlausKontra',</v>
       </c>
       <c r="AA793" s="8" t="s">
@@ -41088,7 +41105,7 @@
         <v>1107</v>
       </c>
       <c r="Y794" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Mario_Hau_AfD',</v>
       </c>
       <c r="AA794" s="8" t="s">
@@ -41106,7 +41123,7 @@
         <v>1109</v>
       </c>
       <c r="Y795" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'MarcWallace18',</v>
       </c>
       <c r="AA795" s="8" t="s">
@@ -41124,7 +41141,7 @@
         <v>1110</v>
       </c>
       <c r="Y796" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'NoExtreme87',</v>
       </c>
       <c r="AA796" s="8" t="s">
@@ -41142,7 +41159,7 @@
         <v>1111</v>
       </c>
       <c r="Y797" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'aluhut__Akbar__',</v>
       </c>
       <c r="AA797" s="8" t="s">
@@ -41160,7 +41177,7 @@
         <v>1112</v>
       </c>
       <c r="Y798" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Aquinate2',</v>
       </c>
       <c r="AA798" s="8" t="s">
@@ -41178,7 +41195,7 @@
         <v>1113</v>
       </c>
       <c r="Y799" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'tulpenbieger',</v>
       </c>
       <c r="AA799" s="8" t="s">
@@ -41196,7 +41213,7 @@
         <v>1115</v>
       </c>
       <c r="Y800" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'floramargarina',</v>
       </c>
       <c r="AA800" s="8" t="s">
@@ -41214,7 +41231,7 @@
         <v>1116</v>
       </c>
       <c r="Y801" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'von_Ziehten',</v>
       </c>
       <c r="AA801" s="8" t="s">
@@ -41232,7 +41249,7 @@
         <v>1117</v>
       </c>
       <c r="Y802" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'wolfwal',</v>
       </c>
       <c r="AA802" s="8" t="s">
@@ -41250,7 +41267,7 @@
         <v>1118</v>
       </c>
       <c r="Y803" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'HikariGoi',</v>
       </c>
       <c r="AA803" s="8" t="s">
@@ -41268,7 +41285,7 @@
         <v>1119</v>
       </c>
       <c r="Y804" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Tomte_Tummetot',</v>
       </c>
       <c r="AA804" s="8" t="s">
@@ -41286,7 +41303,7 @@
         <v>1120</v>
       </c>
       <c r="Y805" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'JABVDuesseldorf',</v>
       </c>
       <c r="AA805" s="8" t="s">
@@ -41304,7 +41321,7 @@
         <v>1121</v>
       </c>
       <c r="Y806" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'PittivomDorf',</v>
       </c>
       <c r="AA806" s="8" t="s">
@@ -41322,7 +41339,7 @@
         <v>1122</v>
       </c>
       <c r="Y807" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'_Demokratie',</v>
       </c>
       <c r="AA807" s="8" t="s">
@@ -41340,7 +41357,7 @@
         <v>1123</v>
       </c>
       <c r="Y808" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Barvariano',</v>
       </c>
       <c r="AA808" s="8" t="s">
@@ -41358,7 +41375,7 @@
         <v>1126</v>
       </c>
       <c r="Y809" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'larafla0815',</v>
       </c>
       <c r="AA809" s="8" t="s">
@@ -41376,7 +41393,7 @@
         <v>1127</v>
       </c>
       <c r="Y810" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'flensi1',</v>
       </c>
       <c r="AA810" s="8" t="s">
@@ -41394,7 +41411,7 @@
         <v>1128</v>
       </c>
       <c r="Y811" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'ErikWuensche',</v>
       </c>
       <c r="AA811" s="8" t="s">
@@ -41412,7 +41429,7 @@
         <v>1129</v>
       </c>
       <c r="Y812" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'H_Erzbube',</v>
       </c>
       <c r="AA812" s="8" t="s">
@@ -41430,7 +41447,7 @@
         <v>1130</v>
       </c>
       <c r="Y813" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'MenNeedDogs',</v>
       </c>
       <c r="AA813" s="8" t="s">
@@ -41448,7 +41465,7 @@
         <v>1131</v>
       </c>
       <c r="Y814" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'VietusIL',</v>
       </c>
       <c r="AA814" s="8" t="s">
@@ -41466,7 +41483,7 @@
         <v>1132</v>
       </c>
       <c r="Y815" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Friedemannschu1',</v>
       </c>
       <c r="AA815" s="8" t="s">
@@ -41484,7 +41501,7 @@
         <v>1133</v>
       </c>
       <c r="Y816" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'HartmannLiane',</v>
       </c>
       <c r="AA816" s="8" t="s">
@@ -41502,7 +41519,7 @@
         <v>1134</v>
       </c>
       <c r="Y817" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'hax_pax_max',</v>
       </c>
       <c r="AA817" s="8" t="s">
@@ -41520,7 +41537,7 @@
         <v>1135</v>
       </c>
       <c r="Y818" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'sushimotos',</v>
       </c>
       <c r="AA818" s="8" t="s">
@@ -41538,7 +41555,7 @@
         <v>1137</v>
       </c>
       <c r="Y819" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Wundi68',</v>
       </c>
       <c r="AA819" s="8" t="s">
@@ -41556,7 +41573,7 @@
         <v>1138</v>
       </c>
       <c r="Y820" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'PaulLamperd',</v>
       </c>
       <c r="AA820" s="8" t="s">
@@ -41574,7 +41591,7 @@
         <v>1139</v>
       </c>
       <c r="Y821" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'AfDBerlin',</v>
       </c>
       <c r="AA821" s="8" t="s">
@@ -41592,7 +41609,7 @@
         <v>1141</v>
       </c>
       <c r="Y822" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'LucasHoffmann61',</v>
       </c>
       <c r="AA822" s="8" t="s">
@@ -41610,7 +41627,7 @@
         <v>1142</v>
       </c>
       <c r="Y823" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'Susi_Sorgenvoll',</v>
       </c>
       <c r="AA823" s="8" t="s">
@@ -41628,7 +41645,7 @@
         <v>1143</v>
       </c>
       <c r="Y824" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'rostein45',</v>
       </c>
       <c r="AA824" s="8" t="s">
@@ -41646,7 +41663,7 @@
         <v>1144</v>
       </c>
       <c r="Y825" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'LOLitsmo',</v>
       </c>
       <c r="AA825" s="8" t="s">
@@ -41664,7 +41681,7 @@
         <v>1145</v>
       </c>
       <c r="Y826" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'KrahMax',</v>
       </c>
       <c r="AA826" s="8" t="s">
@@ -41682,7 +41699,7 @@
         <v>1146</v>
       </c>
       <c r="Y827" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'kinderpsych',</v>
       </c>
       <c r="AA827" s="8" t="s">
@@ -41700,7 +41717,7 @@
         <v>1147</v>
       </c>
       <c r="Y828" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'SverigAfD',</v>
       </c>
       <c r="AA828" s="8" t="s">
@@ -41718,7 +41735,7 @@
         <v>1148</v>
       </c>
       <c r="Y829" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'JenomProsty2016',</v>
       </c>
       <c r="AA829" s="8" t="s">
@@ -41736,7 +41753,7 @@
         <v>1149</v>
       </c>
       <c r="Y830" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'0815Lucky0815',</v>
       </c>
       <c r="AA830" s="8" t="s">
@@ -41754,7 +41771,7 @@
         <v>1150</v>
       </c>
       <c r="Y831" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'VoxFriburgensis',</v>
       </c>
       <c r="AA831" s="8" t="s">
@@ -41772,7 +41789,7 @@
         <v>1151</v>
       </c>
       <c r="Y832" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>'BlickAchse',</v>
       </c>
       <c r="AA832" s="8" t="s">
@@ -41790,7 +41807,7 @@
         <v>1152</v>
       </c>
       <c r="Y833" t="str">
-        <f t="shared" ref="Y833:Y885" si="17">"'"&amp;V833&amp;"',"</f>
+        <f t="shared" ref="Y833:Y885" si="18">"'"&amp;V833&amp;"',"</f>
         <v>'Johannes135',</v>
       </c>
       <c r="AA833" s="8" t="s">
@@ -41808,7 +41825,7 @@
         <v>1153</v>
       </c>
       <c r="Y834" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'kwisatz_h',</v>
       </c>
       <c r="AA834" s="8" t="s">
@@ -41826,7 +41843,7 @@
         <v>1154</v>
       </c>
       <c r="Y835" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'r00chN',</v>
       </c>
       <c r="AA835" s="8" t="s">
@@ -41844,7 +41861,7 @@
         <v>1155</v>
       </c>
       <c r="Y836" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Unbequem_hoch_3',</v>
       </c>
       <c r="AA836" s="8" t="s">
@@ -41862,7 +41879,7 @@
         <v>1156</v>
       </c>
       <c r="Y837" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'_Piroska',</v>
       </c>
       <c r="AA837" s="8" t="s">
@@ -41880,7 +41897,7 @@
         <v>1157</v>
       </c>
       <c r="Y838" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'VFF77',</v>
       </c>
       <c r="AA838" s="8" t="s">
@@ -41898,7 +41915,7 @@
         <v>1158</v>
       </c>
       <c r="Y839" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'FrauGattin',</v>
       </c>
       <c r="AA839" s="8" t="s">
@@ -41916,7 +41933,7 @@
         <v>1159</v>
       </c>
       <c r="Y840" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Hohensyburg',</v>
       </c>
       <c r="AA840" s="8" t="s">
@@ -41934,7 +41951,7 @@
         <v>1160</v>
       </c>
       <c r="Y841" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'_PatMurphy_',</v>
       </c>
       <c r="AA841" s="8" t="s">
@@ -41952,7 +41969,7 @@
         <v>1161</v>
       </c>
       <c r="Y842" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'teite99',</v>
       </c>
       <c r="AA842" s="8" t="s">
@@ -41970,7 +41987,7 @@
         <v>1162</v>
       </c>
       <c r="Y843" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Yoshihjl',</v>
       </c>
       <c r="AA843" s="8" t="s">
@@ -41988,7 +42005,7 @@
         <v>1163</v>
       </c>
       <c r="Y844" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'An_taeus',</v>
       </c>
       <c r="AA844" s="8" t="s">
@@ -42006,7 +42023,7 @@
         <v>1166</v>
       </c>
       <c r="Y845" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Follow_th3',</v>
       </c>
       <c r="AA845" s="8" t="s">
@@ -42024,7 +42041,7 @@
         <v>1167</v>
       </c>
       <c r="Y846" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Craftergut',</v>
       </c>
       <c r="AA846" s="8" t="s">
@@ -42042,7 +42059,7 @@
         <v>1168</v>
       </c>
       <c r="Y847" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'teleherzog',</v>
       </c>
       <c r="AA847" s="8" t="s">
@@ -42060,7 +42077,7 @@
         <v>1169</v>
       </c>
       <c r="Y848" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Lauro_Doc',</v>
       </c>
       <c r="AA848" s="8" t="s">
@@ -42078,7 +42095,7 @@
         <v>1171</v>
       </c>
       <c r="Y849" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'heinemo',</v>
       </c>
       <c r="AA849" s="8" t="s">
@@ -42096,7 +42113,7 @@
         <v>1173</v>
       </c>
       <c r="Y850" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'_Murphyne',</v>
       </c>
       <c r="AA850" s="8" t="s">
@@ -42114,7 +42131,7 @@
         <v>1175</v>
       </c>
       <c r="Y851" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'finis_euro',</v>
       </c>
       <c r="AA851" s="8" t="s">
@@ -42132,7 +42149,7 @@
         <v>1176</v>
       </c>
       <c r="Y852" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'0987677_49',</v>
       </c>
       <c r="AA852" s="8" t="s">
@@ -42150,7 +42167,7 @@
         <v>1177</v>
       </c>
       <c r="Y853" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'peter789_',</v>
       </c>
       <c r="AA853" s="8" t="s">
@@ -42168,7 +42185,7 @@
         <v>1178</v>
       </c>
       <c r="Y854" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'randomname77777',</v>
       </c>
       <c r="AA854" s="8" t="s">
@@ -42186,7 +42203,7 @@
         <v>1179</v>
       </c>
       <c r="Y855" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'ralflmuller',</v>
       </c>
       <c r="AA855" s="8" t="s">
@@ -42204,7 +42221,7 @@
         <v>1180</v>
       </c>
       <c r="Y856" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'MartinStoll11',</v>
       </c>
       <c r="AA856" s="8" t="s">
@@ -42222,7 +42239,7 @@
         <v>1181</v>
       </c>
       <c r="Y857" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'AnoMo70',</v>
       </c>
       <c r="AA857" s="8" t="s">
@@ -42240,7 +42257,7 @@
         <v>1182</v>
       </c>
       <c r="Y858" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Honk2016',</v>
       </c>
       <c r="AA858" s="8" t="s">
@@ -42258,7 +42275,7 @@
         <v>1183</v>
       </c>
       <c r="Y859" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Falklandfuchs',</v>
       </c>
       <c r="AA859" s="8" t="s">
@@ -42276,7 +42293,7 @@
         <v>1184</v>
       </c>
       <c r="Y860" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Ropde_',</v>
       </c>
       <c r="AA860" s="8" t="s">
@@ -42294,7 +42311,7 @@
         <v>1185</v>
       </c>
       <c r="Y861" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Frannylicious79',</v>
       </c>
       <c r="AA861" s="8" t="s">
@@ -42312,7 +42329,7 @@
         <v>1187</v>
       </c>
       <c r="Y862" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'WhoIsInGermany0',</v>
       </c>
       <c r="AA862" s="8" t="s">
@@ -42330,7 +42347,7 @@
         <v>1188</v>
       </c>
       <c r="Y863" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Ruhr_Poet',</v>
       </c>
       <c r="AA863" s="8" t="s">
@@ -42348,7 +42365,7 @@
         <v>1189</v>
       </c>
       <c r="Y864" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Rumsucher',</v>
       </c>
       <c r="AA864" s="8" t="s">
@@ -42366,7 +42383,7 @@
         <v>1190</v>
       </c>
       <c r="Y865" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'elysagab',</v>
       </c>
       <c r="AA865" s="8" t="s">
@@ -42384,7 +42401,7 @@
         <v>1191</v>
       </c>
       <c r="Y866" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Schmitt4711',</v>
       </c>
       <c r="AA866" s="8" t="s">
@@ -42402,7 +42419,7 @@
         <v>1192</v>
       </c>
       <c r="Y867" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'nasanasal',</v>
       </c>
       <c r="AA867" s="8" t="s">
@@ -42420,7 +42437,7 @@
         <v>1193</v>
       </c>
       <c r="Y868" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Imageberatungen',</v>
       </c>
       <c r="AA868" s="8" t="s">
@@ -42438,7 +42455,7 @@
         <v>1194</v>
       </c>
       <c r="Y869" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'BergerBergerie',</v>
       </c>
       <c r="AA869" s="8" t="s">
@@ -42456,7 +42473,7 @@
         <v>1195</v>
       </c>
       <c r="Y870" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'123Lenchen',</v>
       </c>
       <c r="AA870" s="8" t="s">
@@ -42474,7 +42491,7 @@
         <v>1196</v>
       </c>
       <c r="Y871" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'zentralversand',</v>
       </c>
       <c r="AA871" s="8" t="s">
@@ -42492,7 +42509,7 @@
         <v>1197</v>
       </c>
       <c r="Y872" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Politologe22',</v>
       </c>
       <c r="AA872" s="8" t="s">
@@ -42510,7 +42527,7 @@
         <v>1198</v>
       </c>
       <c r="Y873" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Montauk_23',</v>
       </c>
       <c r="AA873" s="8" t="s">
@@ -42528,7 +42545,7 @@
         <v>1199</v>
       </c>
       <c r="Y874" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Claudia_xy',</v>
       </c>
       <c r="AA874" s="8" t="s">
@@ -42546,7 +42563,7 @@
         <v>1200</v>
       </c>
       <c r="Y875" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Zora_211212',</v>
       </c>
       <c r="AA875" s="8" t="s">
@@ -42564,7 +42581,7 @@
         <v>1201</v>
       </c>
       <c r="Y876" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'wilcon58',</v>
       </c>
       <c r="AA876" s="8" t="s">
@@ -42582,7 +42599,7 @@
         <v>1203</v>
       </c>
       <c r="Y877" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'frywynd',</v>
       </c>
       <c r="AA877" s="8" t="s">
@@ -42600,7 +42617,7 @@
         <v>1204</v>
       </c>
       <c r="Y878" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'AfDKreisMK',</v>
       </c>
       <c r="AA878" s="8" t="s">
@@ -42618,7 +42635,7 @@
         <v>1205</v>
       </c>
       <c r="Y879" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'SchattenprinzM',</v>
       </c>
       <c r="AA879" s="8" t="s">
@@ -42636,7 +42653,7 @@
         <v>1206</v>
       </c>
       <c r="Y880" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'AntifaTaunus',</v>
       </c>
       <c r="AA880" s="8" t="s">
@@ -42654,7 +42671,7 @@
         <v>1207</v>
       </c>
       <c r="Y881" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'UnzufriedenerB',</v>
       </c>
       <c r="AA881" s="8" t="s">
@@ -42672,7 +42689,7 @@
         <v>1208</v>
       </c>
       <c r="Y882" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'XAgathon',</v>
       </c>
       <c r="AA882" s="8" t="s">
@@ -42690,7 +42707,7 @@
         <v>1209</v>
       </c>
       <c r="Y883" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'Johann_Hoelzl',</v>
       </c>
       <c r="AA883" s="8" t="s">
@@ -42708,7 +42725,7 @@
         <v>1210</v>
       </c>
       <c r="Y884" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'totul69',</v>
       </c>
       <c r="AA884" s="8" t="s">
@@ -42726,7 +42743,7 @@
         <v>1212</v>
       </c>
       <c r="Y885" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>'jakobalt',</v>
       </c>
       <c r="AA885" s="8" t="s">
@@ -49004,19 +49021,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K17:K1185">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1016:V1169">
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1016:Y1169">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1456">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576 K1:K1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A71" r:id="rId1" xr:uid="{ACA54389-82A8-AD44-8E22-7D41BC4772ED}"/>
